--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập Hàng" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -30,9 +30,6 @@
     <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP 3S NHẬP HÀNG</t>
-  </si>
-  <si>
     <t>Số HĐ</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -139,6 +133,24 @@
   </si>
   <si>
     <t>Số hàng đại lý nhập hàng theo hợp đồng  200.000.000+200.000.000*38%</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG</t>
+  </si>
+  <si>
+    <t>Và đại lý còn nhập hàng sữa khác của Thanh Hà:</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Giá tiền</t>
+  </si>
+  <si>
+    <t>Sữa ngoại</t>
+  </si>
+  <si>
+    <t>Bỉm</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -362,19 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -399,19 +398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -436,6 +422,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -443,18 +462,64 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,24 +552,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -521,100 +568,143 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,32 +1101,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="27" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,9 +1135,8 @@
       <c r="E1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1058,552 +1146,606 @@
       <c r="E2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>638</v>
+      </c>
+      <c r="B7" s="44">
+        <v>44048</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="D7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>638</v>
-      </c>
-      <c r="B7" s="25">
-        <v>44048</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="G7" s="18">
+        <v>48</v>
+      </c>
+      <c r="H7" s="19">
+        <v>225000</v>
+      </c>
+      <c r="I7" s="19">
+        <f>G7*H7</f>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="G8" s="20">
         <v>36</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
+      <c r="H8" s="21">
+        <v>455000</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" ref="I8:I19" si="0">G8*H8</f>
+        <v>16380000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="27">
+      <c r="G9" s="20">
         <v>48</v>
       </c>
-      <c r="I7" s="28">
-        <v>225000</v>
-      </c>
-      <c r="J7" s="28">
-        <f>H7*I7</f>
-        <v>10800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="32">
-        <v>36</v>
-      </c>
-      <c r="I8" s="33">
-        <v>455000</v>
-      </c>
-      <c r="J8" s="33">
-        <f t="shared" ref="J8:J19" si="0">H8*I8</f>
-        <v>16380000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="32">
-        <v>48</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="H9" s="21">
         <v>465000</v>
       </c>
-      <c r="J9" s="33">
+      <c r="I9" s="21">
         <f t="shared" si="0"/>
         <v>22320000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="32">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20">
         <v>24</v>
       </c>
-      <c r="I10" s="33">
+      <c r="H10" s="21">
         <v>475000</v>
       </c>
-      <c r="J10" s="33">
+      <c r="I10" s="21">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="32">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="20">
         <v>36</v>
       </c>
-      <c r="I11" s="33">
+      <c r="H11" s="21">
         <v>485000</v>
       </c>
-      <c r="J11" s="33">
+      <c r="I11" s="21">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="32">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20">
         <v>24</v>
       </c>
-      <c r="I12" s="33">
+      <c r="H12" s="21">
         <v>485000</v>
       </c>
-      <c r="J12" s="33">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="20">
         <v>24</v>
       </c>
-      <c r="H13" s="32">
-        <v>24</v>
-      </c>
-      <c r="I13" s="33">
+      <c r="H13" s="21">
         <v>455000</v>
       </c>
-      <c r="J13" s="33">
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>622</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="41">
         <v>44040</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="32">
+      <c r="C14" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="20">
         <v>24</v>
       </c>
-      <c r="I14" s="33">
+      <c r="H14" s="21">
         <v>465000</v>
       </c>
-      <c r="J14" s="33">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="32">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="20">
         <v>36</v>
       </c>
-      <c r="I15" s="33">
+      <c r="H15" s="21">
         <v>475000</v>
       </c>
-      <c r="J15" s="33">
+      <c r="I15" s="21">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="32">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="20">
         <v>24</v>
       </c>
-      <c r="I16" s="33">
+      <c r="H16" s="21">
         <v>485000</v>
       </c>
-      <c r="J16" s="33">
+      <c r="I16" s="21">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="32">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="20">
         <v>48</v>
       </c>
-      <c r="I17" s="33">
+      <c r="H17" s="21">
         <v>550000</v>
       </c>
-      <c r="J17" s="33">
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="32">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="20">
         <v>48</v>
       </c>
-      <c r="I18" s="33">
+      <c r="H18" s="21">
         <v>455000</v>
       </c>
-      <c r="J18" s="33">
+      <c r="I18" s="21">
         <f t="shared" si="0"/>
         <v>21840000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="37">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="22">
         <v>36</v>
       </c>
-      <c r="I19" s="38">
+      <c r="H19" s="23">
         <v>455000</v>
       </c>
-      <c r="J19" s="38">
+      <c r="I19" s="23">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42">
-        <f>SUM(J7:J19)</f>
+    <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="65">
+        <f>SUM(G7:G19)</f>
+        <v>456</v>
+      </c>
+      <c r="H20" s="65"/>
+      <c r="I20" s="24">
+        <f>SUM(I7:I19)</f>
         <v>205440000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="28">
         <f>200000000+200000000*38%</f>
         <v>276000000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="29">
+        <f>I20</f>
+        <v>205440000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="30">
+        <f>I23-I24</f>
+        <v>70560000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53">
-        <f>J20</f>
-        <v>205440000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57">
-        <f>J23-J24</f>
-        <v>70560000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="31">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="33">
+        <v>44040</v>
+      </c>
+      <c r="F29" s="32">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="33">
+        <v>44040</v>
+      </c>
+      <c r="F30" s="32">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="33">
+        <v>44049</v>
+      </c>
+      <c r="F31" s="32">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="33">
+        <v>44054</v>
+      </c>
+      <c r="F32" s="32">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="49">
+        <v>44060</v>
+      </c>
+      <c r="F33" s="50">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="58">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="61">
-        <v>44040</v>
-      </c>
-      <c r="F29" s="59">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="61">
-        <v>44040</v>
-      </c>
-      <c r="F30" s="59">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="61">
-        <v>44049</v>
-      </c>
-      <c r="F31" s="59">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="61">
-        <v>44054</v>
-      </c>
-      <c r="F32" s="59">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="64">
-        <f>F28-F29-F30-F31-F32</f>
-        <v>135000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="44"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34">
+        <f>F28-F29-F30-F31-F32-F33</f>
+        <v>127000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="73">
+        <v>44045</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="32">
+        <v>5525000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="73">
+        <v>44048</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="32">
+        <v>2935000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="75">
+        <v>44051</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="77">
+        <v>6205000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82">
+        <f>SUM(E38:E40)</f>
+        <v>14665000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B29:D32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1632,22 +1774,22 @@
   <sheetData>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Ghi Chú" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,9 +138,6 @@
     <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG</t>
   </si>
   <si>
-    <t>Và đại lý còn nhập hàng sữa khác của Thanh Hà:</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -151,16 +148,19 @@
   </si>
   <si>
     <t>Bỉm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Và đại lý còn nhập hàng sữa khác </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -517,7 +517,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -534,7 +534,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,7 +549,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,115 +562,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -680,27 +596,111 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -881,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -916,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1093,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,54 +1148,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1216,19 +1216,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="64">
         <v>638</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="66">
         <v>44048</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="64" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1246,11 +1246,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1266,11 +1266,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1286,11 +1286,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1306,11 +1306,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1326,11 +1326,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1346,11 +1346,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1366,19 +1366,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="65">
         <v>622</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="67">
         <v>44040</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="65" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1396,11 +1396,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1416,11 +1416,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1436,11 +1436,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1456,11 +1456,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -1476,11 +1476,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -1496,19 +1496,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="65">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="37">
         <f>SUM(G7:G19)</f>
         <v>456</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="24">
         <f>SUM(I7:I19)</f>
         <v>205440000</v>
@@ -1520,45 +1520,45 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="28">
         <f>200000000+200000000*38%</f>
         <v>276000000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="29">
         <f>I20</f>
         <v>205440000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="30">
         <f>I23-I24</f>
         <v>70560000</v>
@@ -1570,22 +1570,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="31">
         <v>200000000</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="33">
         <v>44040</v>
       </c>
@@ -1594,9 +1594,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="33">
         <v>44040</v>
       </c>
@@ -1605,9 +1605,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="33">
         <v>44049</v>
       </c>
@@ -1616,9 +1616,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="33">
         <v>44054</v>
       </c>
@@ -1627,23 +1627,23 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="49">
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="35">
         <v>44060</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="36">
         <v>8000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="34">
         <f>F28-F29-F30-F31-F32-F33</f>
         <v>127000000</v>
@@ -1653,76 +1653,85 @@
       <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="79" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="45">
+        <v>44045</v>
+      </c>
+      <c r="C38" s="52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="73">
-        <v>44045</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="32">
         <v>5525000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="73">
+      <c r="B39" s="45">
         <v>44048</v>
       </c>
-      <c r="C39" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="74"/>
+      <c r="C39" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="52"/>
       <c r="E39" s="32">
         <v>2935000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="75">
+      <c r="B40" s="46">
         <v>44051</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77">
+      <c r="C40" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="47">
         <v>6205000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="50">
         <f>SUM(E38:E40)</f>
         <v>14665000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -1730,20 +1739,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Ghi Chú" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Thanh Hóa</t>
   </si>
   <si>
-    <t>Số hàng đại lý nhập hàng theo hợp đồng  200.000.000+200.000.000*38%</t>
-  </si>
-  <si>
     <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG</t>
   </si>
   <si>
@@ -147,22 +144,220 @@
     <t>Sữa ngoại</t>
   </si>
   <si>
-    <t>Bỉm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Và đại lý còn nhập hàng sữa khác </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tên mặt hàng</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Sữa Enter Weight 900g (&gt;1 tuổi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sữa Enter Gold 900g </t>
+  </si>
+  <si>
+    <t>Sữa Onelac - IQ kid gold (900g)</t>
+  </si>
+  <si>
+    <t>Sữa Enter Canxi Mọi lứa tuổi (Mẫu cũ)</t>
+  </si>
+  <si>
+    <t>Sữa Nutriplus 100+ Glusure - Tiểu đường 900g</t>
+  </si>
+  <si>
+    <t>Alphalipid 45g (N)</t>
+  </si>
+  <si>
+    <t>Sữa Onelac - Gain plus (900g)</t>
+  </si>
+  <si>
+    <t>Sữa Enter Life A+ 900g (NCT)</t>
+  </si>
+  <si>
+    <t>Sữa Nutriplus 100+ Canxi gold 900g</t>
+  </si>
+  <si>
+    <t>Sữa Enter Mama (NCT)</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>Didilac Grow pro số 1</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Didilac Prow Plus</t>
+  </si>
+  <si>
+    <t>Didilac mama gold</t>
+  </si>
+  <si>
+    <t>Didilac optimum gold 2</t>
+  </si>
+  <si>
+    <t>Didilac Grow pro số 2</t>
+  </si>
+  <si>
+    <t>Didilac optimum gold 3</t>
+  </si>
+  <si>
+    <t>Didilac optimum gold 4</t>
+  </si>
+  <si>
+    <t>Didilac anpha số 3</t>
+  </si>
+  <si>
+    <t>Blackmor số 1</t>
+  </si>
+  <si>
+    <t>Didilac anpha số 4</t>
+  </si>
+  <si>
+    <t>Blackmor số 2</t>
+  </si>
+  <si>
+    <t>Perdesure 850g Úc</t>
+  </si>
+  <si>
+    <t>Ensure Úc 850g</t>
+  </si>
+  <si>
+    <t>Aptamin số 1</t>
+  </si>
+  <si>
+    <t>Aptamin số 2</t>
+  </si>
+  <si>
+    <t>Aptamin số 3</t>
+  </si>
+  <si>
+    <t>Thanh Hà (8/8/2020)</t>
+  </si>
+  <si>
+    <t>Thanh Hà (5/8/2020)</t>
+  </si>
+  <si>
+    <t>Thanh Hà (2/8/2020)</t>
+  </si>
+  <si>
+    <t>Nan Nga số 1 800g</t>
+  </si>
+  <si>
+    <t>Nan Nga số 2 800g</t>
+  </si>
+  <si>
+    <t>Nan Nga số 3 800g</t>
+  </si>
+  <si>
+    <t>Nan Nga số 4 800g</t>
+  </si>
+  <si>
+    <t>Black more số 3</t>
+  </si>
+  <si>
+    <t>Meji lon 1-3</t>
+  </si>
+  <si>
+    <t>Meji lon số 0</t>
+  </si>
+  <si>
+    <t>Hikid Vani</t>
+  </si>
+  <si>
+    <t>Ngày 3/8/2020 (Anh Lâm)</t>
+  </si>
+  <si>
+    <t>Hughi NB1 56 Miếng lót</t>
+  </si>
+  <si>
+    <t>Hughi S24 Sơ sinh tã quần</t>
+  </si>
+  <si>
+    <t>Hughi M22 Tã quần</t>
+  </si>
+  <si>
+    <t>Hughi M42 Tã quần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hughi XL 34 Tã quần </t>
+  </si>
+  <si>
+    <t>Hughi M48 Tã dán tặng 4 miếng</t>
+  </si>
+  <si>
+    <t>Pamper M40 tã quần</t>
+  </si>
+  <si>
+    <t>Pamper XL 32 Tã quần</t>
+  </si>
+  <si>
+    <t>Pamper L36 Tã quần</t>
+  </si>
+  <si>
+    <t>Pamper NBS52 Tã quần</t>
+  </si>
+  <si>
+    <t>Bobby NB 164 Miếng lót</t>
+  </si>
+  <si>
+    <t>Bobby S56 Tã dán</t>
+  </si>
+  <si>
+    <t>Bobby S46 Tã quần</t>
+  </si>
+  <si>
+    <t>Bobby M48 Tã dán</t>
+  </si>
+  <si>
+    <t>Bobby M42+6 tã quần</t>
+  </si>
+  <si>
+    <t>Bobby L38+6 tã quần</t>
+  </si>
+  <si>
+    <t>Bịch</t>
+  </si>
+  <si>
+    <t>Anh Lâm</t>
+  </si>
+  <si>
+    <t>Số hàng đại lý nhập hàng theo hợp đồng  (200.000.000-36.267.500)+(200.000.000-36.267.500)*38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sữa ngoài </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +418,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -244,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -514,12 +733,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,7 +805,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,7 +820,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,31 +833,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -597,25 +868,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,63 +948,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1093,7 +1420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1101,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1113,19 +1440,22 @@
     <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="27" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="2.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1465,16 @@
       <c r="E1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="95"/>
+      <c r="L1" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1146,56 +1484,116 @@
       <c r="E2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="K2" s="95"/>
+      <c r="L2" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="98">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="O4" s="99">
+        <v>345000</v>
+      </c>
+      <c r="P4" s="99">
+        <f>N4*O4</f>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="57"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="98">
+        <v>1</v>
+      </c>
+      <c r="O5" s="99">
+        <v>350000</v>
+      </c>
+      <c r="P5" s="99">
+        <f t="shared" ref="P5:P11" si="0">N5*O5</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1214,12 +1612,29 @@
       <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="97"/>
+      <c r="L6" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="98">
+        <v>2</v>
+      </c>
+      <c r="O6" s="99">
+        <v>345000</v>
+      </c>
+      <c r="P6" s="99">
+        <f t="shared" si="0"/>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>638</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="65">
         <v>44048</v>
       </c>
       <c r="C7" s="64" t="s">
@@ -1244,13 +1659,30 @@
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="98">
+        <v>2</v>
+      </c>
+      <c r="O7" s="99">
+        <v>345000</v>
+      </c>
+      <c r="P7" s="99">
+        <f t="shared" si="0"/>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1261,16 +1693,33 @@
         <v>455000</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" ref="I8:I19" si="0">G8*H8</f>
+        <f t="shared" ref="I8:I19" si="1">G8*H8</f>
         <v>16380000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="98">
+        <v>1</v>
+      </c>
+      <c r="O8" s="99">
+        <v>475000</v>
+      </c>
+      <c r="P8" s="99">
+        <f t="shared" si="0"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1281,16 +1730,33 @@
         <v>465000</v>
       </c>
       <c r="I9" s="21">
+        <f t="shared" si="1"/>
+        <v>22320000</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="98">
+        <v>2</v>
+      </c>
+      <c r="O9" s="99">
+        <v>380000</v>
+      </c>
+      <c r="P9" s="99">
         <f t="shared" si="0"/>
-        <v>22320000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1301,16 +1767,33 @@
         <v>475000</v>
       </c>
       <c r="I10" s="21">
+        <f t="shared" si="1"/>
+        <v>11400000</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="98">
+        <v>2</v>
+      </c>
+      <c r="O10" s="99">
+        <v>490000</v>
+      </c>
+      <c r="P10" s="99">
         <f t="shared" si="0"/>
-        <v>11400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1321,16 +1804,33 @@
         <v>485000</v>
       </c>
       <c r="I11" s="21">
+        <f t="shared" si="1"/>
+        <v>17460000</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="98">
+        <v>2</v>
+      </c>
+      <c r="O11" s="99">
+        <v>445000</v>
+      </c>
+      <c r="P11" s="99">
         <f t="shared" si="0"/>
-        <v>17460000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+        <v>890000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1341,16 +1841,30 @@
         <v>485000</v>
       </c>
       <c r="I12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103">
+        <f>SUM(N4:N11)</f>
+        <v>14</v>
+      </c>
+      <c r="O12" s="104"/>
+      <c r="P12" s="109">
+        <f>SUM(P4:P11)</f>
+        <v>5525000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1361,24 +1875,30 @@
         <v>455000</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="60">
         <v>622</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="62">
         <v>44040</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="60" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1391,16 +1911,24 @@
         <v>465000</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11160000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1411,16 +1939,34 @@
         <v>475000</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
+      <c r="K15" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1431,16 +1977,35 @@
         <v>485000</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="K16" s="106">
+        <v>1</v>
+      </c>
+      <c r="L16" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="107">
+        <v>12</v>
+      </c>
+      <c r="O16" s="108">
+        <v>180000</v>
+      </c>
+      <c r="P16" s="108">
+        <f>N16*O16</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1451,16 +2016,35 @@
         <v>550000</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26400000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="K17" s="97">
+        <v>2</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="98">
+        <v>12</v>
+      </c>
+      <c r="O17" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P17" s="99">
+        <f>N17*O17</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -1471,16 +2055,35 @@
         <v>455000</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21840000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="K18" s="97">
+        <v>3</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="98">
+        <v>12</v>
+      </c>
+      <c r="O18" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P18" s="99">
+        <f>N18*O18</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -1491,19 +2094,38 @@
         <v>455000</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="K19" s="97">
+        <v>4</v>
+      </c>
+      <c r="L19" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="98">
+        <v>12</v>
+      </c>
+      <c r="O19" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P19" s="99">
+        <f>N19*O19</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="37">
         <f>SUM(G7:G19)</f>
         <v>456</v>
@@ -1513,15 +2135,74 @@
         <f>SUM(I7:I19)</f>
         <v>205440000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K20" s="97">
+        <v>5</v>
+      </c>
+      <c r="L20" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="98">
+        <v>12</v>
+      </c>
+      <c r="O20" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P20" s="99">
+        <f>N20*O20</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K21" s="97">
+        <v>6</v>
+      </c>
+      <c r="L21" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="98">
+        <v>12</v>
+      </c>
+      <c r="O21" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P21" s="99">
+        <f>N21*O21</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="97">
+        <v>7</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="98">
+        <v>12</v>
+      </c>
+      <c r="O22" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P22" s="99">
+        <f>N22*O22</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -1530,208 +2211,981 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="28">
-        <f>200000000+200000000*38%</f>
-        <v>276000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+        <f>E43</f>
+        <v>36267500</v>
+      </c>
+      <c r="K23" s="97">
+        <v>8</v>
+      </c>
+      <c r="L23" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="98">
+        <v>12</v>
+      </c>
+      <c r="O23" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P23" s="99">
+        <f>N23*O23</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="28">
+        <f>(200000000-I23)+(200000000-I23)*38%</f>
+        <v>225950850</v>
+      </c>
+      <c r="K24" s="97">
+        <v>9</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="98">
+        <v>12</v>
+      </c>
+      <c r="O24" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P24" s="99">
+        <f>N24*O24</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="29">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="29">
         <f>I20</f>
         <v>205440000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="K25" s="97">
+        <v>10</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="98">
+        <v>12</v>
+      </c>
+      <c r="O25" s="99">
+        <v>180000</v>
+      </c>
+      <c r="P25" s="99">
+        <f>N25*O25</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="30">
-        <f>I23-I24</f>
-        <v>70560000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="30">
+        <f>I24-I25</f>
+        <v>20510850</v>
+      </c>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="102"/>
+      <c r="N26" s="103">
+        <f ca="1">SUM(N16:N57)</f>
+        <v>168</v>
+      </c>
+      <c r="O26" s="104"/>
+      <c r="P26" s="109">
+        <f>SUM(P16:P25)</f>
+        <v>21600000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="70" t="s">
+      <c r="K28" s="95"/>
+      <c r="L28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="31">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="31">
         <v>200000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="72" t="s">
+      <c r="K29" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="33">
-        <v>44040</v>
-      </c>
-      <c r="F29" s="32">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="33">
         <v>44040</v>
       </c>
       <c r="F30" s="32">
+        <v>5000000</v>
+      </c>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="98">
+        <v>1</v>
+      </c>
+      <c r="O30" s="99">
+        <v>67000</v>
+      </c>
+      <c r="P30" s="99">
+        <f>N30*O30</f>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="56"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="33">
+        <v>44040</v>
+      </c>
+      <c r="F31" s="32">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="33">
+      <c r="K31" s="97"/>
+      <c r="L31" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="98">
+        <v>1</v>
+      </c>
+      <c r="O31" s="99">
+        <v>94000</v>
+      </c>
+      <c r="P31" s="99">
+        <f t="shared" ref="P31:P45" si="2">N31*O31</f>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="33">
         <v>44049</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F32" s="32">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="33">
+      <c r="K32" s="97"/>
+      <c r="L32" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N32" s="98">
+        <v>1</v>
+      </c>
+      <c r="O32" s="99">
+        <v>102000</v>
+      </c>
+      <c r="P32" s="99">
+        <f t="shared" si="2"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="56"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="33">
         <v>44054</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F33" s="32">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="35">
+      <c r="K33" s="97"/>
+      <c r="L33" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" s="98">
+        <v>1</v>
+      </c>
+      <c r="O33" s="99">
+        <v>187000</v>
+      </c>
+      <c r="P33" s="99">
+        <f t="shared" si="2"/>
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="57"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="35">
         <v>44060</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F34" s="36">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="71" t="s">
+      <c r="K34" s="97"/>
+      <c r="L34" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N34" s="98">
+        <v>1</v>
+      </c>
+      <c r="O34" s="99">
+        <v>187000</v>
+      </c>
+      <c r="P34" s="99">
+        <f t="shared" si="2"/>
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="34">
-        <f>F28-F29-F30-F31-F32-F33</f>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="34">
+        <f>F29-F30-F31-F32-F33-F34</f>
         <v>127000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="K35" s="97"/>
+      <c r="L35" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N35" s="98">
+        <v>1</v>
+      </c>
+      <c r="O35" s="99">
+        <v>173000</v>
+      </c>
+      <c r="P35" s="99">
+        <f t="shared" si="2"/>
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="26"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="M36" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" s="98">
+        <v>2</v>
+      </c>
+      <c r="O36" s="99">
+        <v>170000</v>
+      </c>
+      <c r="P36" s="99">
+        <f t="shared" si="2"/>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" s="98">
+        <v>2</v>
+      </c>
+      <c r="O37" s="99">
+        <v>170000</v>
+      </c>
+      <c r="P37" s="99">
+        <f t="shared" si="2"/>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38" s="98">
+        <v>2</v>
+      </c>
+      <c r="O38" s="99">
+        <v>170000</v>
+      </c>
+      <c r="P38" s="99">
+        <f t="shared" si="2"/>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="45">
+        <v>44045</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="32">
+        <f>P12</f>
+        <v>5525000</v>
+      </c>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="98">
+        <v>1</v>
+      </c>
+      <c r="O39" s="99">
+        <v>170000</v>
+      </c>
+      <c r="P39" s="99">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="45">
+        <v>44046</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="32">
+        <f>P26</f>
+        <v>21600000</v>
+      </c>
+      <c r="K40" s="97"/>
+      <c r="L40" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N40" s="98">
+        <v>1</v>
+      </c>
+      <c r="O40" s="99">
+        <v>76500</v>
+      </c>
+      <c r="P40" s="99">
+        <f t="shared" si="2"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="46">
+        <v>44048</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="84"/>
+      <c r="E41" s="47">
+        <f>P46</f>
+        <v>2934500</v>
+      </c>
+      <c r="K41" s="97"/>
+      <c r="L41" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="98">
+        <v>1</v>
+      </c>
+      <c r="O41" s="99">
+        <v>162000</v>
+      </c>
+      <c r="P41" s="99">
+        <f t="shared" si="2"/>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="46">
+        <v>44051</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="86"/>
+      <c r="E42" s="47">
+        <f>P66</f>
+        <v>6208000</v>
+      </c>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N42" s="98">
+        <v>1</v>
+      </c>
+      <c r="O42" s="99">
+        <v>178000</v>
+      </c>
+      <c r="P42" s="99">
+        <f t="shared" si="2"/>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="88"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="48">
+        <f>SUM(E39:E42)</f>
+        <v>36267500</v>
+      </c>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N43" s="98">
+        <v>1</v>
+      </c>
+      <c r="O43" s="99">
+        <v>162000</v>
+      </c>
+      <c r="P43" s="99">
+        <f t="shared" si="2"/>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K44" s="97"/>
+      <c r="L44" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N44" s="98">
+        <v>1</v>
+      </c>
+      <c r="O44" s="99">
+        <v>178000</v>
+      </c>
+      <c r="P44" s="99">
+        <f t="shared" si="2"/>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K45" s="97"/>
+      <c r="L45" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" s="98">
+        <v>1</v>
+      </c>
+      <c r="O45" s="99">
+        <v>178000</v>
+      </c>
+      <c r="P45" s="99">
+        <f t="shared" si="2"/>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K46" s="101"/>
+      <c r="L46" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="102"/>
+      <c r="N46" s="103">
+        <f>SUM(N30:N45)</f>
+        <v>19</v>
+      </c>
+      <c r="O46" s="104"/>
+      <c r="P46" s="109">
+        <f>SUM(P30:P45)</f>
+        <v>2934500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+    </row>
+    <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K48" s="95"/>
+      <c r="L48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+    </row>
+    <row r="49" spans="11:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K49" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="96" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="45">
-        <v>44045</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="32">
-        <v>5525000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="45">
-        <v>44048</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="32">
-        <v>2935000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="46">
-        <v>44051</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="47">
-        <v>6205000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="54" t="s">
+      <c r="M49" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K50" s="106"/>
+      <c r="L50" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N50" s="107">
+        <v>1</v>
+      </c>
+      <c r="O50" s="108">
+        <v>192000</v>
+      </c>
+      <c r="P50" s="108">
+        <f>O50*N50</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="51" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K51" s="97"/>
+      <c r="L51" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="M51" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="107">
+        <v>1</v>
+      </c>
+      <c r="O51" s="99">
+        <v>262000</v>
+      </c>
+      <c r="P51" s="108">
+        <f t="shared" ref="P51:P65" si="3">O51*N51</f>
+        <v>262000</v>
+      </c>
+    </row>
+    <row r="52" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K52" s="97"/>
+      <c r="L52" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="107">
+        <v>1</v>
+      </c>
+      <c r="O52" s="99">
+        <v>218000</v>
+      </c>
+      <c r="P52" s="108">
+        <f t="shared" si="3"/>
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="53" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K53" s="97"/>
+      <c r="L53" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="107">
+        <v>1</v>
+      </c>
+      <c r="O53" s="99">
+        <v>403000</v>
+      </c>
+      <c r="P53" s="108">
+        <f t="shared" si="3"/>
+        <v>403000</v>
+      </c>
+    </row>
+    <row r="54" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K54" s="97"/>
+      <c r="L54" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="107">
+        <v>1</v>
+      </c>
+      <c r="O54" s="99">
+        <v>186000</v>
+      </c>
+      <c r="P54" s="108">
+        <f t="shared" si="3"/>
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="55" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K55" s="97"/>
+      <c r="L55" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N55" s="107">
+        <v>1</v>
+      </c>
+      <c r="O55" s="99">
+        <v>341000</v>
+      </c>
+      <c r="P55" s="108">
+        <f t="shared" si="3"/>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="56" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K56" s="97"/>
+      <c r="L56" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" s="107">
+        <v>1</v>
+      </c>
+      <c r="O56" s="99">
+        <v>305000</v>
+      </c>
+      <c r="P56" s="108">
+        <f t="shared" si="3"/>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="57" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K57" s="97"/>
+      <c r="L57" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="M57" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" s="107">
+        <v>1</v>
+      </c>
+      <c r="O57" s="99">
+        <v>168000</v>
+      </c>
+      <c r="P57" s="108">
+        <f t="shared" si="3"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="58" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="97"/>
+      <c r="L58" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="107">
+        <v>1</v>
+      </c>
+      <c r="O58" s="99">
+        <v>168000</v>
+      </c>
+      <c r="P58" s="108">
+        <f t="shared" si="3"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="59" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="97"/>
+      <c r="L59" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="M59" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" s="107">
+        <v>1</v>
+      </c>
+      <c r="O59" s="99">
+        <v>480000</v>
+      </c>
+      <c r="P59" s="108">
+        <f t="shared" si="3"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="60" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="97"/>
+      <c r="L60" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="M60" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N60" s="107">
+        <v>1</v>
+      </c>
+      <c r="O60" s="99">
+        <v>480000</v>
+      </c>
+      <c r="P60" s="108">
+        <f t="shared" si="3"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="61" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K61" s="97"/>
+      <c r="L61" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N61" s="107">
+        <v>1</v>
+      </c>
+      <c r="O61" s="99">
+        <v>620000</v>
+      </c>
+      <c r="P61" s="108">
+        <f t="shared" si="3"/>
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="62" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K62" s="97"/>
+      <c r="L62" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="107">
+        <v>1</v>
+      </c>
+      <c r="O62" s="99">
+        <v>515000</v>
+      </c>
+      <c r="P62" s="108">
+        <f t="shared" si="3"/>
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="63" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K63" s="97"/>
+      <c r="L63" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="M63" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N63" s="107">
+        <v>1</v>
+      </c>
+      <c r="O63" s="99">
+        <v>610000</v>
+      </c>
+      <c r="P63" s="108">
+        <f t="shared" si="3"/>
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="64" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K64" s="97"/>
+      <c r="L64" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64" s="107">
+        <v>1</v>
+      </c>
+      <c r="O64" s="99">
+        <v>670000</v>
+      </c>
+      <c r="P64" s="108">
+        <f t="shared" si="3"/>
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K65" s="97"/>
+      <c r="L65" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="M65" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65" s="107">
+        <v>1</v>
+      </c>
+      <c r="O65" s="99">
+        <v>590000</v>
+      </c>
+      <c r="P65" s="108">
+        <f t="shared" si="3"/>
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="66" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K66" s="101"/>
+      <c r="L66" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="50">
-        <f>SUM(E38:E40)</f>
-        <v>14665000</v>
+      <c r="M66" s="102"/>
+      <c r="N66" s="103">
+        <f>SUM(N50:N65)</f>
+        <v>16</v>
+      </c>
+      <c r="O66" s="104"/>
+      <c r="P66" s="109">
+        <f>SUM(P50:P65)</f>
+        <v>6208000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
+  <mergeCells count="20">
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -1739,11 +3193,18 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Giá tiền</t>
   </si>
   <si>
-    <t>Sữa ngoại</t>
-  </si>
-  <si>
     <t xml:space="preserve">Và đại lý còn nhập hàng sữa khác </t>
   </si>
   <si>
@@ -342,10 +339,67 @@
     <t>Anh Lâm</t>
   </si>
   <si>
-    <t>Số hàng đại lý nhập hàng theo hợp đồng  (200.000.000-36.267.500)+(200.000.000-36.267.500)*38%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sữa ngoài </t>
+  </si>
+  <si>
+    <t>Số hàng đại lý nhập hàng theo hợp đồng  200.000.000 + 200.000.000*38%</t>
+  </si>
+  <si>
+    <t>Kết luận:</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Số hàng Nanomilk mà công ty còn nợ đại lý là: 70,560,000 đồng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Số Tiền đại lý còn phải thanh toán cho công ty là:</t>
+    </r>
+  </si>
+  <si>
+    <t>117,000,000 + 36,267,500 + 6,800,000 = 160,067,500 đồng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại lý chịu chi phí trần nhà: </t>
   </si>
 </sst>
 </file>
@@ -357,7 +411,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +496,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -463,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -657,86 +730,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -790,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -852,130 +845,25 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,30 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,11 +887,152 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1208,7 +1213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1243,7 +1248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1430,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1439,11 +1444,11 @@
     <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="27" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1465,14 +1470,14 @@
       <c r="E1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1484,116 +1489,116 @@
       <c r="E2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="K3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-    </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="K3" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="98">
+      <c r="M4" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="49">
         <v>2</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="50">
         <v>345000</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="50">
         <f>N4*O4</f>
         <v>690000</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="98">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="49">
         <v>1</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="50">
         <v>350000</v>
       </c>
-      <c r="P5" s="99">
+      <c r="P5" s="50">
         <f t="shared" ref="P5:P11" si="0">N5*O5</f>
         <v>350000</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1612,38 +1617,38 @@
       <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="98">
+      <c r="K6" s="48"/>
+      <c r="L6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="49">
         <v>2</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="50">
         <v>345000</v>
       </c>
-      <c r="P6" s="99">
+      <c r="P6" s="50">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="64">
+      <c r="A7" s="100">
         <v>638</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="101">
         <v>44048</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="100" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1659,30 +1664,30 @@
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="98">
+      <c r="K7" s="48"/>
+      <c r="L7" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="49">
         <v>2</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="50">
         <v>345000</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="50">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1696,30 +1701,30 @@
         <f t="shared" ref="I8:I19" si="1">G8*H8</f>
         <v>16380000</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="98">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="49">
         <v>1</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="50">
         <v>475000</v>
       </c>
-      <c r="P8" s="99">
+      <c r="P8" s="50">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1733,30 +1738,30 @@
         <f t="shared" si="1"/>
         <v>22320000</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="98">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="49">
         <v>2</v>
       </c>
-      <c r="O9" s="99">
+      <c r="O9" s="50">
         <v>380000</v>
       </c>
-      <c r="P9" s="99">
+      <c r="P9" s="50">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1770,30 +1775,30 @@
         <f t="shared" si="1"/>
         <v>11400000</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="98">
+      <c r="K10" s="48"/>
+      <c r="L10" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="49">
         <v>2</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="50">
         <v>490000</v>
       </c>
-      <c r="P10" s="99">
+      <c r="P10" s="50">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1807,30 +1812,30 @@
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="98">
+      <c r="K11" s="48"/>
+      <c r="L11" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="49">
         <v>2</v>
       </c>
-      <c r="O11" s="99">
+      <c r="O11" s="50">
         <v>445000</v>
       </c>
-      <c r="P11" s="99">
+      <c r="P11" s="50">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1844,27 +1849,27 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103">
+      <c r="M12" s="53"/>
+      <c r="N12" s="54">
         <f>SUM(N4:N11)</f>
         <v>14</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="109">
+      <c r="O12" s="55"/>
+      <c r="P12" s="60">
         <f>SUM(P4:P11)</f>
         <v>5525000</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1878,27 +1883,27 @@
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+      <c r="A14" s="96">
         <v>622</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="98">
         <v>44040</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="96" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1914,21 +1919,21 @@
         <f t="shared" si="1"/>
         <v>11160000</v>
       </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1942,31 +1947,31 @@
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
-      <c r="K15" s="96" t="s">
+      <c r="K15" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="96" t="s">
+      <c r="M15" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="96" t="s">
+      <c r="N15" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="96" t="s">
+      <c r="O15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="96" t="s">
+      <c r="P15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="96" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1980,32 +1985,32 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="57">
         <v>1</v>
       </c>
-      <c r="L16" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="107">
+      <c r="L16" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="58">
         <v>12</v>
       </c>
-      <c r="O16" s="108">
+      <c r="O16" s="59">
         <v>180000</v>
       </c>
-      <c r="P16" s="108">
-        <f>N16*O16</f>
+      <c r="P16" s="59">
+        <f t="shared" ref="P16:P25" si="2">N16*O16</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -2019,32 +2024,32 @@
         <f t="shared" si="1"/>
         <v>26400000</v>
       </c>
-      <c r="K17" s="97">
+      <c r="K17" s="48">
         <v>2</v>
       </c>
-      <c r="L17" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="98">
+      <c r="L17" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="49">
         <v>12</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="50">
         <v>180000</v>
       </c>
-      <c r="P17" s="99">
-        <f>N17*O17</f>
+      <c r="P17" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -2058,32 +2063,32 @@
         <f t="shared" si="1"/>
         <v>21840000</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="48">
         <v>3</v>
       </c>
-      <c r="L18" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="98">
+      <c r="L18" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="49">
         <v>12</v>
       </c>
-      <c r="O18" s="99">
+      <c r="O18" s="50">
         <v>180000</v>
       </c>
-      <c r="P18" s="99">
-        <f>N18*O18</f>
+      <c r="P18" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -2097,82 +2102,82 @@
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="48">
         <v>4</v>
       </c>
-      <c r="L19" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="98">
+      <c r="L19" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="49">
         <v>12</v>
       </c>
-      <c r="O19" s="99">
+      <c r="O19" s="50">
         <v>180000</v>
       </c>
-      <c r="P19" s="99">
-        <f>N19*O19</f>
+      <c r="P19" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="37">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="32">
         <f>SUM(G7:G19)</f>
         <v>456</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="24">
         <f>SUM(I7:I19)</f>
         <v>205440000</v>
       </c>
-      <c r="K20" s="97">
+      <c r="K20" s="48">
         <v>5</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="49">
+        <v>12</v>
+      </c>
+      <c r="O20" s="50">
+        <v>180000</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K21" s="48">
+        <v>6</v>
+      </c>
+      <c r="L21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="98">
+      <c r="M21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="49">
         <v>12</v>
       </c>
-      <c r="O20" s="99">
+      <c r="O21" s="50">
         <v>180000</v>
       </c>
-      <c r="P20" s="99">
-        <f>N20*O20</f>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K21" s="97">
-        <v>6</v>
-      </c>
-      <c r="L21" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="98">
-        <v>12</v>
-      </c>
-      <c r="O21" s="99">
-        <v>180000</v>
-      </c>
-      <c r="P21" s="99">
-        <f>N21*O21</f>
+      <c r="P21" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
@@ -2180,1011 +2185,1027 @@
       <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="97">
+      <c r="K22" s="48">
         <v>7</v>
       </c>
-      <c r="L22" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="98" t="s">
+      <c r="L22" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="98">
+      <c r="M22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="49">
         <v>12</v>
       </c>
-      <c r="O22" s="99">
+      <c r="O22" s="50">
         <v>180000</v>
       </c>
-      <c r="P22" s="99">
-        <f>N22*O22</f>
+      <c r="P22" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="28">
-        <f>E43</f>
-        <v>36267500</v>
-      </c>
-      <c r="K23" s="97">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28"/>
+      <c r="K23" s="48">
         <v>8</v>
       </c>
-      <c r="L23" s="97" t="s">
+      <c r="L23" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="49">
+        <v>12</v>
+      </c>
+      <c r="O23" s="50">
+        <v>180000</v>
+      </c>
+      <c r="P23" s="50">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="28">
+        <f>200000000+200000000*38%</f>
+        <v>276000000</v>
+      </c>
+      <c r="K24" s="48">
+        <v>9</v>
+      </c>
+      <c r="L24" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="98">
+      <c r="M24" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="49">
         <v>12</v>
       </c>
-      <c r="O23" s="99">
+      <c r="O24" s="50">
         <v>180000</v>
       </c>
-      <c r="P23" s="99">
-        <f>N23*O23</f>
+      <c r="P24" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="28">
-        <f>(200000000-I23)+(200000000-I23)*38%</f>
-        <v>225950850</v>
-      </c>
-      <c r="K24" s="97">
-        <v>9</v>
-      </c>
-      <c r="L24" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="98">
-        <v>12</v>
-      </c>
-      <c r="O24" s="99">
-        <v>180000</v>
-      </c>
-      <c r="P24" s="99">
-        <f>N24*O24</f>
-        <v>2160000</v>
-      </c>
-    </row>
     <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="29">
         <f>I20</f>
         <v>205440000</v>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="48">
         <v>10</v>
       </c>
-      <c r="L25" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="98">
+      <c r="L25" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="49">
         <v>12</v>
       </c>
-      <c r="O25" s="99">
+      <c r="O25" s="50">
         <v>180000</v>
       </c>
-      <c r="P25" s="99">
-        <f>N25*O25</f>
+      <c r="P25" s="50">
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="30">
         <f>I24-I25</f>
-        <v>20510850</v>
-      </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102" t="s">
+        <v>70560000</v>
+      </c>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="102"/>
-      <c r="N26" s="103">
+      <c r="M26" s="53"/>
+      <c r="N26" s="54">
         <f ca="1">SUM(N16:N57)</f>
         <v>168</v>
       </c>
-      <c r="O26" s="104"/>
-      <c r="P26" s="109">
+      <c r="O26" s="55"/>
+      <c r="P26" s="60">
         <f>SUM(P16:P25)</f>
         <v>21600000</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="95"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
+        <v>76</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="31">
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="62">
         <v>200000000</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="96" t="s">
+      <c r="M29" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="N29" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="O29" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O29" s="96" t="s">
+      <c r="P29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="33">
+      <c r="C30" s="81"/>
+      <c r="D30" s="63">
         <v>44040</v>
       </c>
-      <c r="F30" s="32">
+      <c r="E30" s="62">
         <v>5000000</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" s="98">
+      <c r="F30" s="79">
+        <f>SUM(E30:E35)</f>
+        <v>83000000</v>
+      </c>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" s="49">
         <v>1</v>
       </c>
-      <c r="O30" s="99">
+      <c r="O30" s="50">
         <v>67000</v>
       </c>
-      <c r="P30" s="99">
+      <c r="P30" s="50">
         <f>N30*O30</f>
         <v>67000</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="33">
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="63">
         <v>44040</v>
       </c>
-      <c r="F31" s="32">
+      <c r="E31" s="62">
         <v>10000000</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97" t="s">
+      <c r="F31" s="80"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="49">
+        <v>1</v>
+      </c>
+      <c r="O31" s="50">
+        <v>94000</v>
+      </c>
+      <c r="P31" s="50">
+        <f t="shared" ref="P31:P45" si="3">N31*O31</f>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="63">
+        <v>44049</v>
+      </c>
+      <c r="E32" s="62">
+        <v>30000000</v>
+      </c>
+      <c r="F32" s="80"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" s="98">
+      <c r="M32" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" s="49">
         <v>1</v>
       </c>
-      <c r="O31" s="99">
-        <v>94000</v>
-      </c>
-      <c r="P31" s="99">
-        <f t="shared" ref="P31:P45" si="2">N31*O31</f>
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="33">
-        <v>44049</v>
-      </c>
-      <c r="F32" s="32">
-        <v>30000000</v>
-      </c>
-      <c r="K32" s="97"/>
-      <c r="L32" s="95" t="s">
+      <c r="O32" s="50">
+        <v>102000</v>
+      </c>
+      <c r="P32" s="50">
+        <f t="shared" si="3"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="63">
+        <v>44054</v>
+      </c>
+      <c r="E33" s="62">
+        <v>20000000</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N32" s="98">
+      <c r="M33" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N33" s="49">
         <v>1</v>
       </c>
-      <c r="O32" s="99">
-        <v>102000</v>
-      </c>
-      <c r="P32" s="99">
-        <f t="shared" si="2"/>
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="33">
-        <v>44054</v>
-      </c>
-      <c r="F33" s="32">
-        <v>20000000</v>
-      </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="100" t="s">
+      <c r="O33" s="50">
+        <v>187000</v>
+      </c>
+      <c r="P33" s="50">
+        <f t="shared" si="3"/>
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="63">
+        <v>44060</v>
+      </c>
+      <c r="E34" s="62">
+        <v>8000000</v>
+      </c>
+      <c r="F34" s="80"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33" s="98">
+      <c r="M34" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="49">
         <v>1</v>
       </c>
-      <c r="O33" s="99">
+      <c r="O34" s="50">
         <v>187000</v>
       </c>
-      <c r="P33" s="99">
-        <f t="shared" si="2"/>
+      <c r="P34" s="50">
+        <f t="shared" si="3"/>
         <v>187000</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="35">
-        <v>44060</v>
-      </c>
-      <c r="F34" s="36">
-        <v>8000000</v>
-      </c>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97" t="s">
+    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="63">
+        <v>44068</v>
+      </c>
+      <c r="E35" s="62">
+        <v>10000000</v>
+      </c>
+      <c r="F35" s="80"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="M34" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N34" s="98">
+      <c r="M35" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35" s="49">
         <v>1</v>
       </c>
-      <c r="O34" s="99">
-        <v>187000</v>
-      </c>
-      <c r="P34" s="99">
-        <f t="shared" si="2"/>
-        <v>187000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="78" t="s">
+      <c r="O35" s="50">
+        <v>173000</v>
+      </c>
+      <c r="P35" s="50">
+        <f t="shared" si="3"/>
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="34">
-        <f>F29-F30-F31-F32-F33-F34</f>
-        <v>127000000</v>
-      </c>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="64">
+        <f>F29-F30</f>
+        <v>117000000</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="M35" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N35" s="98">
-        <v>1</v>
-      </c>
-      <c r="O35" s="99">
-        <v>173000</v>
-      </c>
-      <c r="P35" s="99">
-        <f t="shared" si="2"/>
-        <v>173000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E36" s="26"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97" t="s">
+      <c r="M36" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36" s="49">
+        <v>2</v>
+      </c>
+      <c r="O36" s="50">
+        <v>170000</v>
+      </c>
+      <c r="P36" s="50">
+        <f t="shared" si="3"/>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="M36" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N36" s="98">
+      <c r="M37" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N37" s="49">
         <v>2</v>
       </c>
-      <c r="O36" s="99">
+      <c r="O37" s="50">
         <v>170000</v>
       </c>
-      <c r="P36" s="99">
-        <f t="shared" si="2"/>
+      <c r="P37" s="50">
+        <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97" t="s">
+    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="98">
+      <c r="M38" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" s="49">
         <v>2</v>
       </c>
-      <c r="O37" s="99">
+      <c r="O38" s="50">
         <v>170000</v>
       </c>
-      <c r="P37" s="99">
-        <f t="shared" si="2"/>
+      <c r="P38" s="50">
+        <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38" s="98">
-        <v>2</v>
-      </c>
-      <c r="O38" s="99">
-        <v>170000</v>
-      </c>
-      <c r="P38" s="99">
-        <f t="shared" si="2"/>
-        <v>340000</v>
-      </c>
-    </row>
     <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="45">
+      <c r="B39" s="36">
         <v>44045</v>
       </c>
-      <c r="C39" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="32">
+      <c r="C39" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="31">
         <f>P12</f>
         <v>5525000</v>
       </c>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="M39" s="98" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="49">
+        <v>1</v>
+      </c>
+      <c r="O39" s="50">
+        <v>170000</v>
+      </c>
+      <c r="P39" s="50">
+        <f t="shared" si="3"/>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="36">
+        <v>44046</v>
+      </c>
+      <c r="C40" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="N39" s="98">
-        <v>1</v>
-      </c>
-      <c r="O39" s="99">
-        <v>170000</v>
-      </c>
-      <c r="P39" s="99">
-        <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="45">
-        <v>44046</v>
-      </c>
-      <c r="C40" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="32">
+      <c r="D40" s="41"/>
+      <c r="E40" s="31">
         <f>P26</f>
         <v>21600000</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N40" s="98">
+      <c r="K40" s="48"/>
+      <c r="L40" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N40" s="49">
         <v>1</v>
       </c>
-      <c r="O40" s="99">
+      <c r="O40" s="50">
         <v>76500</v>
       </c>
-      <c r="P40" s="99">
-        <f t="shared" si="2"/>
+      <c r="P40" s="50">
+        <f t="shared" si="3"/>
         <v>76500</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="46">
+      <c r="B41" s="37">
         <v>44048</v>
       </c>
-      <c r="C41" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="47">
+      <c r="C41" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="38">
         <f>P46</f>
         <v>2934500</v>
       </c>
-      <c r="K41" s="97"/>
-      <c r="L41" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="M41" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N41" s="98">
+      <c r="K41" s="48"/>
+      <c r="L41" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N41" s="49">
         <v>1</v>
       </c>
-      <c r="O41" s="99">
+      <c r="O41" s="50">
         <v>162000</v>
       </c>
-      <c r="P41" s="99">
-        <f t="shared" si="2"/>
+      <c r="P41" s="50">
+        <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="46">
+      <c r="B42" s="37">
         <v>44051</v>
       </c>
-      <c r="C42" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="47">
+      <c r="C42" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="38">
         <f>P66</f>
         <v>6208000</v>
       </c>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="M42" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N42" s="98">
+      <c r="K42" s="48"/>
+      <c r="L42" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N42" s="49">
         <v>1</v>
       </c>
-      <c r="O42" s="99">
+      <c r="O42" s="50">
         <v>178000</v>
       </c>
-      <c r="P42" s="99">
-        <f t="shared" si="2"/>
+      <c r="P42" s="50">
+        <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="48">
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="39">
         <f>SUM(E39:E42)</f>
         <v>36267500</v>
       </c>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" s="49">
+        <v>1</v>
+      </c>
+      <c r="O43" s="50">
+        <v>162000</v>
+      </c>
+      <c r="P43" s="50">
+        <f t="shared" si="3"/>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="71"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="72">
+        <v>6800000</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="M43" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N43" s="98">
+      <c r="M44" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44" s="49">
         <v>1</v>
       </c>
-      <c r="O43" s="99">
-        <v>162000</v>
-      </c>
-      <c r="P43" s="99">
-        <f t="shared" si="2"/>
-        <v>162000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K44" s="97"/>
-      <c r="L44" s="97" t="s">
+      <c r="O44" s="50">
+        <v>178000</v>
+      </c>
+      <c r="P44" s="50">
+        <f t="shared" si="3"/>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K45" s="48"/>
+      <c r="L45" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N44" s="98">
+      <c r="M45" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N45" s="49">
         <v>1</v>
       </c>
-      <c r="O44" s="99">
+      <c r="O45" s="50">
         <v>178000</v>
       </c>
-      <c r="P44" s="99">
-        <f t="shared" si="2"/>
+      <c r="P45" s="50">
+        <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K45" s="97"/>
-      <c r="L45" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="M45" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="N45" s="98">
-        <v>1</v>
-      </c>
-      <c r="O45" s="99">
-        <v>178000</v>
-      </c>
-      <c r="P45" s="99">
-        <f t="shared" si="2"/>
-        <v>178000</v>
-      </c>
-    </row>
     <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K46" s="101"/>
-      <c r="L46" s="102" t="s">
+      <c r="K46" s="52"/>
+      <c r="L46" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="102"/>
-      <c r="N46" s="103">
+      <c r="M46" s="53"/>
+      <c r="N46" s="54">
         <f>SUM(N30:N45)</f>
         <v>19</v>
       </c>
-      <c r="O46" s="104"/>
-      <c r="P46" s="109">
+      <c r="O46" s="55"/>
+      <c r="P46" s="60">
         <f>SUM(P30:P45)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K48" s="95"/>
+      <c r="K48" s="46"/>
       <c r="L48" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-    </row>
-    <row r="49" spans="11:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="K49" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+    </row>
+    <row r="49" spans="9:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I49" s="112"/>
+      <c r="K49" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L49" s="96" t="s">
+      <c r="M49" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="96" t="s">
+      <c r="N49" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N49" s="96" t="s">
+      <c r="O49" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O49" s="96" t="s">
+      <c r="P49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="P49" s="96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="106"/>
-      <c r="L50" s="107" t="s">
+    </row>
+    <row r="50" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K50" s="57"/>
+      <c r="L50" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="M50" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N50" s="107">
+      <c r="N50" s="58">
         <v>1</v>
       </c>
-      <c r="O50" s="108">
+      <c r="O50" s="59">
         <v>192000</v>
       </c>
-      <c r="P50" s="108">
+      <c r="P50" s="59">
         <f>O50*N50</f>
         <v>192000</v>
       </c>
     </row>
-    <row r="51" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="97"/>
-      <c r="L51" s="97" t="s">
+    <row r="51" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K51" s="48"/>
+      <c r="L51" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="58">
+        <v>1</v>
+      </c>
+      <c r="O51" s="50">
+        <v>262000</v>
+      </c>
+      <c r="P51" s="59">
+        <f t="shared" ref="P51:P65" si="4">O51*N51</f>
+        <v>262000</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K52" s="48"/>
+      <c r="L52" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="M51" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N51" s="107">
+      <c r="M52" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="58">
         <v>1</v>
       </c>
-      <c r="O51" s="99">
-        <v>262000</v>
-      </c>
-      <c r="P51" s="108">
-        <f t="shared" ref="P51:P65" si="3">O51*N51</f>
-        <v>262000</v>
-      </c>
-    </row>
-    <row r="52" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K52" s="97"/>
-      <c r="L52" s="97" t="s">
+      <c r="O52" s="50">
+        <v>218000</v>
+      </c>
+      <c r="P52" s="59">
+        <f t="shared" si="4"/>
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K53" s="48"/>
+      <c r="L53" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N52" s="107">
+      <c r="M53" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="58">
         <v>1</v>
       </c>
-      <c r="O52" s="99">
-        <v>218000</v>
-      </c>
-      <c r="P52" s="108">
-        <f t="shared" si="3"/>
-        <v>218000</v>
-      </c>
-    </row>
-    <row r="53" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K53" s="97"/>
-      <c r="L53" s="97" t="s">
+      <c r="O53" s="50">
+        <v>403000</v>
+      </c>
+      <c r="P53" s="59">
+        <f t="shared" si="4"/>
+        <v>403000</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K54" s="48"/>
+      <c r="L54" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N53" s="107">
+      <c r="M54" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="58">
         <v>1</v>
       </c>
-      <c r="O53" s="99">
-        <v>403000</v>
-      </c>
-      <c r="P53" s="108">
-        <f t="shared" si="3"/>
-        <v>403000</v>
-      </c>
-    </row>
-    <row r="54" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K54" s="97"/>
-      <c r="L54" s="107" t="s">
+      <c r="O54" s="50">
+        <v>186000</v>
+      </c>
+      <c r="P54" s="59">
+        <f t="shared" si="4"/>
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K55" s="48"/>
+      <c r="L55" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="M54" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N54" s="107">
+      <c r="M55" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" s="58">
         <v>1</v>
       </c>
-      <c r="O54" s="99">
-        <v>186000</v>
-      </c>
-      <c r="P54" s="108">
-        <f t="shared" si="3"/>
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="55" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K55" s="97"/>
-      <c r="L55" s="97" t="s">
+      <c r="O55" s="50">
+        <v>341000</v>
+      </c>
+      <c r="P55" s="59">
+        <f t="shared" si="4"/>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="56" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K56" s="48"/>
+      <c r="L56" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="M55" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N55" s="107">
+      <c r="M56" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N56" s="58">
         <v>1</v>
       </c>
-      <c r="O55" s="99">
-        <v>341000</v>
-      </c>
-      <c r="P55" s="108">
-        <f t="shared" si="3"/>
-        <v>341000</v>
-      </c>
-    </row>
-    <row r="56" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K56" s="97"/>
-      <c r="L56" s="97" t="s">
+      <c r="O56" s="50">
+        <v>305000</v>
+      </c>
+      <c r="P56" s="59">
+        <f t="shared" si="4"/>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K57" s="48"/>
+      <c r="L57" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="M56" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N56" s="107">
+      <c r="M57" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="58">
         <v>1</v>
       </c>
-      <c r="O56" s="99">
-        <v>305000</v>
-      </c>
-      <c r="P56" s="108">
-        <f t="shared" si="3"/>
-        <v>305000</v>
-      </c>
-    </row>
-    <row r="57" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K57" s="97"/>
-      <c r="L57" s="97" t="s">
+      <c r="O57" s="50">
+        <v>168000</v>
+      </c>
+      <c r="P57" s="59">
+        <f t="shared" si="4"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="48"/>
+      <c r="L58" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M58" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" s="58">
+        <v>1</v>
+      </c>
+      <c r="O58" s="50">
+        <v>168000</v>
+      </c>
+      <c r="P58" s="59">
+        <f t="shared" si="4"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="48"/>
+      <c r="L59" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="M57" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N57" s="107">
+      <c r="M59" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" s="58">
         <v>1</v>
       </c>
-      <c r="O57" s="99">
-        <v>168000</v>
-      </c>
-      <c r="P57" s="108">
-        <f t="shared" si="3"/>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="58" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K58" s="97"/>
-      <c r="L58" s="97" t="s">
+      <c r="O59" s="50">
+        <v>480000</v>
+      </c>
+      <c r="P59" s="59">
+        <f t="shared" si="4"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="60" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="48"/>
+      <c r="L60" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N58" s="107">
+      <c r="M60" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" s="58">
         <v>1</v>
       </c>
-      <c r="O58" s="99">
-        <v>168000</v>
-      </c>
-      <c r="P58" s="108">
-        <f t="shared" si="3"/>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="59" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K59" s="97"/>
-      <c r="L59" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="M59" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N59" s="107">
+      <c r="O60" s="50">
+        <v>480000</v>
+      </c>
+      <c r="P60" s="59">
+        <f t="shared" si="4"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="61" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K61" s="48"/>
+      <c r="L61" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M61" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" s="58">
         <v>1</v>
       </c>
-      <c r="O59" s="99">
-        <v>480000</v>
-      </c>
-      <c r="P59" s="108">
-        <f t="shared" si="3"/>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="60" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K60" s="97"/>
-      <c r="L60" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="M60" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N60" s="107">
+      <c r="O61" s="50">
+        <v>620000</v>
+      </c>
+      <c r="P61" s="59">
+        <f t="shared" si="4"/>
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="62" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K62" s="48"/>
+      <c r="L62" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" s="58">
         <v>1</v>
       </c>
-      <c r="O60" s="99">
-        <v>480000</v>
-      </c>
-      <c r="P60" s="108">
-        <f t="shared" si="3"/>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="61" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K61" s="97"/>
-      <c r="L61" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="M61" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N61" s="107">
+      <c r="O62" s="50">
+        <v>515000</v>
+      </c>
+      <c r="P62" s="59">
+        <f t="shared" si="4"/>
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K63" s="48"/>
+      <c r="L63" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="M63" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N63" s="58">
         <v>1</v>
       </c>
-      <c r="O61" s="99">
-        <v>620000</v>
-      </c>
-      <c r="P61" s="108">
-        <f t="shared" si="3"/>
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="62" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K62" s="97"/>
-      <c r="L62" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="M62" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N62" s="107">
+      <c r="O63" s="50">
+        <v>610000</v>
+      </c>
+      <c r="P63" s="59">
+        <f t="shared" si="4"/>
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="64" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K64" s="48"/>
+      <c r="L64" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N64" s="58">
         <v>1</v>
       </c>
-      <c r="O62" s="99">
-        <v>515000</v>
-      </c>
-      <c r="P62" s="108">
-        <f t="shared" si="3"/>
-        <v>515000</v>
-      </c>
-    </row>
-    <row r="63" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K63" s="97"/>
-      <c r="L63" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="M63" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N63" s="107">
+      <c r="O64" s="50">
+        <v>670000</v>
+      </c>
+      <c r="P64" s="59">
+        <f t="shared" si="4"/>
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K65" s="48"/>
+      <c r="L65" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" s="58">
         <v>1</v>
       </c>
-      <c r="O63" s="99">
-        <v>610000</v>
-      </c>
-      <c r="P63" s="108">
-        <f t="shared" si="3"/>
-        <v>610000</v>
-      </c>
-    </row>
-    <row r="64" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K64" s="97"/>
-      <c r="L64" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="M64" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N64" s="107">
-        <v>1</v>
-      </c>
-      <c r="O64" s="99">
-        <v>670000</v>
-      </c>
-      <c r="P64" s="108">
-        <f t="shared" si="3"/>
-        <v>670000</v>
-      </c>
-    </row>
-    <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K65" s="97"/>
-      <c r="L65" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="M65" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="N65" s="107">
-        <v>1</v>
-      </c>
-      <c r="O65" s="99">
+      <c r="O65" s="50">
         <v>590000</v>
       </c>
-      <c r="P65" s="108">
-        <f t="shared" si="3"/>
+      <c r="P65" s="59">
+        <f t="shared" si="4"/>
         <v>590000</v>
       </c>
     </row>
     <row r="66" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K66" s="101"/>
-      <c r="L66" s="102" t="s">
+      <c r="K66" s="52"/>
+      <c r="L66" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M66" s="102"/>
-      <c r="N66" s="103">
+      <c r="M66" s="53"/>
+      <c r="N66" s="54">
         <f>SUM(N50:N65)</f>
         <v>16</v>
       </c>
-      <c r="O66" s="104"/>
-      <c r="P66" s="109">
+      <c r="O66" s="55"/>
+      <c r="P66" s="60">
         <f>SUM(P50:P65)</f>
         <v>6208000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -3204,7 +3225,14 @@
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3225,13 +3253,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:C11"/>
+  <dimension ref="C8:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="97.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -3251,6 +3282,26 @@
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C14" s="70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="69" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG</t>
   </si>
   <si>
     <t>Nội dung</t>
@@ -400,6 +397,15 @@
   </si>
   <si>
     <t xml:space="preserve">Đại lý chịu chi phí trần nhà: </t>
+  </si>
+  <si>
+    <t>Chi phí sữa ngoại</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG ĐẾN 25/08/2020</t>
+  </si>
+  <si>
+    <t>ĐL Còn nợ công ty (25/08/2020)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -778,12 +784,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -847,8 +915,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -924,6 +990,94 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,33 +1087,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -969,70 +1096,25 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1433,23 +1515,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="26" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="27" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" style="4" customWidth="1"/>
@@ -1460,7 +1542,7 @@
     <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,16 +1552,8 @@
       <c r="E1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1489,116 +1563,107 @@
       <c r="E2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="K4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="K3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="49">
+      <c r="M5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="47">
         <v>2</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O5" s="48">
         <v>345000</v>
       </c>
-      <c r="P4" s="50">
-        <f>N4*O4</f>
+      <c r="P5" s="48">
+        <f>N5*O5</f>
         <v>690000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="49">
-        <v>1</v>
-      </c>
-      <c r="O5" s="50">
-        <v>350000</v>
-      </c>
-      <c r="P5" s="50">
-        <f t="shared" ref="P5:P11" si="0">N5*O5</f>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="105"/>
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1617,38 +1682,38 @@
       <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="49">
-        <v>2</v>
-      </c>
-      <c r="O6" s="50">
-        <v>345000</v>
-      </c>
-      <c r="P6" s="50">
-        <f t="shared" si="0"/>
-        <v>690000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="100">
+        <v>78</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="47">
+        <v>1</v>
+      </c>
+      <c r="O6" s="48">
+        <v>350000</v>
+      </c>
+      <c r="P6" s="48">
+        <f t="shared" ref="P6:P12" si="0">N6*O6</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="96">
         <v>638</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="98">
         <v>44048</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="96" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1664,30 +1729,30 @@
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="49">
+      <c r="K7" s="46"/>
+      <c r="L7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="47">
         <v>2</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="48">
         <v>345000</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="48">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1701,30 +1766,34 @@
         <f t="shared" ref="I8:I19" si="1">G8*H8</f>
         <v>16380000</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="49">
-        <v>1</v>
-      </c>
-      <c r="O8" s="50">
-        <v>475000</v>
-      </c>
-      <c r="P8" s="50">
+      <c r="K8" s="46"/>
+      <c r="L8" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="47">
+        <v>2</v>
+      </c>
+      <c r="O8" s="48">
+        <v>345000</v>
+      </c>
+      <c r="P8" s="48">
         <f t="shared" si="0"/>
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+        <v>690000</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1738,30 +1807,40 @@
         <f t="shared" si="1"/>
         <v>22320000</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="49">
-        <v>2</v>
-      </c>
-      <c r="O9" s="50">
-        <v>380000</v>
-      </c>
-      <c r="P9" s="50">
+      <c r="K9" s="46"/>
+      <c r="L9" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="47">
+        <v>1</v>
+      </c>
+      <c r="O9" s="48">
+        <v>475000</v>
+      </c>
+      <c r="P9" s="48">
         <f t="shared" si="0"/>
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+        <v>475000</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="65"/>
+      <c r="V9" s="66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1775,30 +1854,41 @@
         <f t="shared" si="1"/>
         <v>11400000</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="49">
+      <c r="K10" s="46"/>
+      <c r="L10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="47">
         <v>2</v>
       </c>
-      <c r="O10" s="50">
-        <v>490000</v>
-      </c>
-      <c r="P10" s="50">
+      <c r="O10" s="48">
+        <v>380000</v>
+      </c>
+      <c r="P10" s="48">
         <f t="shared" si="0"/>
-        <v>980000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+        <v>760000</v>
+      </c>
+      <c r="S10" s="34">
+        <v>44045</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="39"/>
+      <c r="V10" s="31">
+        <f>P13</f>
+        <v>5525000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1812,30 +1902,41 @@
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="49">
+      <c r="K11" s="46"/>
+      <c r="L11" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="47">
         <v>2</v>
       </c>
-      <c r="O11" s="50">
-        <v>445000</v>
-      </c>
-      <c r="P11" s="50">
+      <c r="O11" s="48">
+        <v>490000</v>
+      </c>
+      <c r="P11" s="48">
         <f t="shared" si="0"/>
-        <v>890000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
+        <v>980000</v>
+      </c>
+      <c r="S11" s="34">
+        <v>44046</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" s="39"/>
+      <c r="V11" s="31">
+        <f>P27</f>
+        <v>21600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="97"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1849,27 +1950,41 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54">
-        <f>SUM(N4:N11)</f>
-        <v>14</v>
-      </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="60">
-        <f>SUM(P4:P11)</f>
-        <v>5525000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="96"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="47">
+        <v>2</v>
+      </c>
+      <c r="O12" s="48">
+        <v>445000</v>
+      </c>
+      <c r="P12" s="48">
+        <f t="shared" si="0"/>
+        <v>890000</v>
+      </c>
+      <c r="S12" s="35">
+        <v>44048</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="41"/>
+      <c r="V12" s="36">
+        <f>P47</f>
+        <v>2934500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="97"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1883,27 +1998,46 @@
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="96">
+      <c r="K13" s="50"/>
+      <c r="L13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52">
+        <f>SUM(N5:N12)</f>
+        <v>14</v>
+      </c>
+      <c r="O13" s="53"/>
+      <c r="P13" s="58">
+        <f>SUM(P5:P12)</f>
+        <v>5525000</v>
+      </c>
+      <c r="S13" s="35">
+        <v>44051</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="43"/>
+      <c r="V13" s="36">
+        <f>P67</f>
+        <v>6208000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="97">
         <v>622</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="99">
         <v>44040</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="97" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1919,21 +2053,28 @@
         <f t="shared" si="1"/>
         <v>11160000</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="S14" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="105"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="37">
+        <f>SUM(V10:V13)</f>
+        <v>36267500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1947,31 +2088,21 @@
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
-      <c r="K15" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1985,32 +2116,31 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K16" s="57">
-        <v>1</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="58">
-        <v>12</v>
-      </c>
-      <c r="O16" s="59">
-        <v>180000</v>
-      </c>
-      <c r="P16" s="59">
-        <f t="shared" ref="P16:P25" si="2">N16*O16</f>
-        <v>2160000</v>
+      <c r="K16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -2024,32 +2154,32 @@
         <f t="shared" si="1"/>
         <v>26400000</v>
       </c>
-      <c r="K17" s="48">
-        <v>2</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="49">
+      <c r="K17" s="55">
+        <v>1</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="56">
         <v>12</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="57">
         <v>180000</v>
       </c>
-      <c r="P17" s="50">
-        <f t="shared" si="2"/>
+      <c r="P17" s="57">
+        <f t="shared" ref="P17:P26" si="2">N17*O17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -2063,32 +2193,32 @@
         <f t="shared" si="1"/>
         <v>21840000</v>
       </c>
-      <c r="K18" s="48">
-        <v>3</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="49">
+      <c r="K18" s="46">
+        <v>2</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="47">
         <v>12</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="48">
         <v>180000</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -2102,35 +2232,35 @@
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="K19" s="48">
-        <v>4</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="49">
+      <c r="K19" s="46">
+        <v>3</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="47">
         <v>12</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="48">
         <v>180000</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="32">
         <f>SUM(G7:G19)</f>
         <v>456</v>
@@ -2140,43 +2270,43 @@
         <f>SUM(I7:I19)</f>
         <v>205440000</v>
       </c>
-      <c r="K20" s="48">
-        <v>5</v>
+      <c r="K20" s="46">
+        <v>4</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="49">
+        <v>48</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="47">
         <v>12</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="48">
         <v>180000</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K21" s="48">
-        <v>6</v>
-      </c>
-      <c r="L21" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="49">
+      <c r="K21" s="46">
+        <v>5</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="47">
         <v>12</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="48">
         <v>180000</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
@@ -2185,1028 +2315,1008 @@
       <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="48">
-        <v>7</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="49">
+      <c r="K22" s="46">
+        <v>6</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="47">
         <v>12</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="48">
         <v>180000</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="28"/>
-      <c r="K23" s="48">
-        <v>8</v>
-      </c>
-      <c r="L23" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="49" t="s">
+      <c r="B23" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="28">
+        <f>200000000+200000000*38%</f>
+        <v>276000000</v>
+      </c>
+      <c r="K23" s="46">
+        <v>7</v>
+      </c>
+      <c r="L23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="49">
+      <c r="M23" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="47">
         <v>12</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="48">
         <v>180000</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="28">
-        <f>200000000+200000000*38%</f>
-        <v>276000000</v>
-      </c>
-      <c r="K24" s="48">
-        <v>9</v>
-      </c>
-      <c r="L24" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="49">
+      <c r="B24" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="29">
+        <f>I20</f>
+        <v>205440000</v>
+      </c>
+      <c r="K24" s="46">
+        <v>8</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="47">
         <v>12</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="48">
         <v>180000</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="29">
-        <f>I20</f>
-        <v>205440000</v>
-      </c>
-      <c r="K25" s="48">
-        <v>10</v>
-      </c>
-      <c r="L25" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="49">
+      <c r="B25" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="30">
+        <f>I23-I24</f>
+        <v>70560000</v>
+      </c>
+      <c r="K25" s="46">
+        <v>9</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="47">
         <v>12</v>
       </c>
-      <c r="O25" s="50">
+      <c r="O25" s="48">
         <v>180000</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="48">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="30">
-        <f>I24-I25</f>
-        <v>70560000</v>
-      </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53" t="s">
+      <c r="A26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="46">
+        <v>10</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="47">
+        <v>12</v>
+      </c>
+      <c r="O26" s="48">
+        <v>180000</v>
+      </c>
+      <c r="P26" s="48">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="60">
+        <v>200000000</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54">
-        <f ca="1">SUM(N16:N57)</f>
+      <c r="M27" s="51"/>
+      <c r="N27" s="52">
+        <f ca="1">SUM(N17:N58)</f>
         <v>168</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="60">
-        <f>SUM(P16:P25)</f>
+      <c r="O27" s="53"/>
+      <c r="P27" s="58">
+        <f>SUM(P17:P26)</f>
         <v>21600000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
     <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="B28" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="62">
-        <v>200000000</v>
-      </c>
-      <c r="K29" s="47" t="s">
+      <c r="C28" s="111"/>
+      <c r="D28" s="61">
+        <v>44040</v>
+      </c>
+      <c r="E28" s="60">
+        <v>5000000</v>
+      </c>
+      <c r="F28" s="74">
+        <f>SUM(E28:E33)</f>
+        <v>83000000</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="61">
+        <v>44040</v>
+      </c>
+      <c r="E29" s="60">
+        <v>10000000</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="61">
+        <v>44049</v>
+      </c>
+      <c r="E30" s="60">
+        <v>30000000</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="K30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="M30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="N30" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="47" t="s">
+      <c r="O30" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="47" t="s">
+      <c r="P30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="63">
-        <v>44040</v>
-      </c>
-      <c r="E30" s="62">
-        <v>5000000</v>
-      </c>
-      <c r="F30" s="79">
-        <f>SUM(E30:E35)</f>
-        <v>83000000</v>
-      </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48" t="s">
+    </row>
+    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="61">
+        <v>44054</v>
+      </c>
+      <c r="E31" s="60">
+        <v>20000000</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="47">
+        <v>1</v>
+      </c>
+      <c r="O31" s="48">
+        <v>67000</v>
+      </c>
+      <c r="P31" s="48">
+        <f>N31*O31</f>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="61">
+        <v>44060</v>
+      </c>
+      <c r="E32" s="60">
+        <v>8000000</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N30" s="49">
+      <c r="M32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="47">
         <v>1</v>
       </c>
-      <c r="O30" s="50">
-        <v>67000</v>
-      </c>
-      <c r="P30" s="50">
-        <f>N30*O30</f>
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="63">
-        <v>44040</v>
-      </c>
-      <c r="E31" s="62">
+      <c r="O32" s="48">
+        <v>94000</v>
+      </c>
+      <c r="P32" s="48">
+        <f t="shared" ref="P32:P46" si="3">N32*O32</f>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="61">
+        <v>44068</v>
+      </c>
+      <c r="E33" s="60">
         <v>10000000</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48" t="s">
+      <c r="F33" s="75"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N31" s="49">
+      <c r="M33" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="47">
         <v>1</v>
       </c>
-      <c r="O31" s="50">
-        <v>94000</v>
-      </c>
-      <c r="P31" s="50">
-        <f t="shared" ref="P31:P45" si="3">N31*O31</f>
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="63">
-        <v>44049</v>
-      </c>
-      <c r="E32" s="62">
-        <v>30000000</v>
-      </c>
-      <c r="F32" s="80"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="M32" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N32" s="49">
-        <v>1</v>
-      </c>
-      <c r="O32" s="50">
+      <c r="O33" s="48">
         <v>102000</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P33" s="48">
         <f t="shared" si="3"/>
         <v>102000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="63">
-        <v>44054</v>
-      </c>
-      <c r="E33" s="62">
-        <v>20000000</v>
-      </c>
-      <c r="F33" s="80"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="M33" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N33" s="49">
+    <row r="34" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="62">
+        <f>F27-F28</f>
+        <v>117000000</v>
+      </c>
+      <c r="K34" s="46"/>
+      <c r="L34" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="47">
         <v>1</v>
       </c>
-      <c r="O33" s="50">
+      <c r="O34" s="48">
         <v>187000</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P34" s="48">
         <f t="shared" si="3"/>
         <v>187000</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="63">
-        <v>44060</v>
-      </c>
-      <c r="E34" s="62">
-        <v>8000000</v>
-      </c>
-      <c r="F34" s="80"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M34" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="49">
+    <row r="35" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="70">
+        <v>6800000</v>
+      </c>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="47">
         <v>1</v>
       </c>
-      <c r="O34" s="50">
+      <c r="O35" s="48">
         <v>187000</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P35" s="48">
         <f t="shared" si="3"/>
         <v>187000</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="63">
-        <v>44068</v>
-      </c>
-      <c r="E35" s="62">
-        <v>10000000</v>
-      </c>
-      <c r="F35" s="80"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N35" s="49">
+    <row r="36" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="116">
+        <f>V14</f>
+        <v>36267500</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" s="47">
         <v>1</v>
       </c>
-      <c r="O35" s="50">
+      <c r="O36" s="48">
         <v>173000</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P36" s="48">
         <f t="shared" si="3"/>
         <v>173000</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="64">
-        <f>F29-F30</f>
-        <v>117000000</v>
-      </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M36" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N36" s="49">
+    <row r="37" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="116">
+        <f>F34+F35+F36</f>
+        <v>160067500</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" s="47">
         <v>2</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O37" s="48">
         <v>170000</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P37" s="48">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N37" s="49">
+    <row r="38" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K38" s="46"/>
+      <c r="L38" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N38" s="47">
         <v>2</v>
       </c>
-      <c r="O37" s="50">
+      <c r="O38" s="48">
         <v>170000</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P38" s="48">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N38" s="49">
+    <row r="39" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K39" s="46"/>
+      <c r="L39" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="47">
         <v>2</v>
       </c>
-      <c r="O38" s="50">
+      <c r="O39" s="48">
         <v>170000</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P39" s="48">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="36">
-        <v>44045</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="31">
-        <f>P12</f>
-        <v>5525000</v>
-      </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="M39" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N39" s="49">
+    <row r="40" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K40" s="46"/>
+      <c r="L40" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N40" s="47">
         <v>1</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O40" s="48">
         <v>170000</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P40" s="48">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="36">
-        <v>44046</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="31">
-        <f>P26</f>
-        <v>21600000</v>
-      </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="M40" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N40" s="49">
+    <row r="41" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K41" s="46"/>
+      <c r="L41" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" s="47">
         <v>1</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O41" s="48">
         <v>76500</v>
       </c>
-      <c r="P40" s="50">
+      <c r="P41" s="48">
         <f t="shared" si="3"/>
         <v>76500</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="37">
-        <v>44048</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="38">
-        <f>P46</f>
-        <v>2934500</v>
-      </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="M41" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" s="49">
+    <row r="42" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K42" s="46"/>
+      <c r="L42" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" s="47">
         <v>1</v>
       </c>
-      <c r="O41" s="50">
+      <c r="O42" s="48">
         <v>162000</v>
       </c>
-      <c r="P41" s="50">
+      <c r="P42" s="48">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
-        <v>44051</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="38">
-        <f>P66</f>
-        <v>6208000</v>
-      </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M42" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N42" s="49">
+    <row r="43" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K43" s="46"/>
+      <c r="L43" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" s="47">
         <v>1</v>
       </c>
-      <c r="O42" s="50">
+      <c r="O43" s="48">
         <v>178000</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P43" s="48">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="39">
-        <f>SUM(E39:E42)</f>
-        <v>36267500</v>
-      </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M43" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N43" s="49">
+    <row r="44" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K44" s="46"/>
+      <c r="L44" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N44" s="47">
         <v>1</v>
       </c>
-      <c r="O43" s="50">
+      <c r="O44" s="48">
         <v>162000</v>
       </c>
-      <c r="P43" s="50">
+      <c r="P44" s="48">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="72">
-        <v>6800000</v>
-      </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N44" s="49">
+    <row r="45" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K45" s="46"/>
+      <c r="L45" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" s="47">
         <v>1</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O45" s="48">
         <v>178000</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P45" s="48">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K45" s="48"/>
-      <c r="L45" s="46" t="s">
+    <row r="46" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K46" s="46"/>
+      <c r="L46" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45" s="49">
+      <c r="N46" s="47">
         <v>1</v>
       </c>
-      <c r="O45" s="50">
+      <c r="O46" s="48">
         <v>178000</v>
       </c>
-      <c r="P45" s="50">
+      <c r="P46" s="48">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K46" s="52"/>
-      <c r="L46" s="53" t="s">
+    <row r="47" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K47" s="50"/>
+      <c r="L47" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="53"/>
-      <c r="N46" s="54">
-        <f>SUM(N30:N45)</f>
+      <c r="M47" s="51"/>
+      <c r="N47" s="52">
+        <f>SUM(N31:N46)</f>
         <v>19</v>
       </c>
-      <c r="O46" s="55"/>
-      <c r="P46" s="60">
-        <f>SUM(P30:P45)</f>
+      <c r="O47" s="53"/>
+      <c r="P47" s="58">
+        <f>SUM(P31:P46)</f>
         <v>2934500</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-    </row>
-    <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K48" s="46"/>
-      <c r="L48" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-    </row>
-    <row r="49" spans="9:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I49" s="112"/>
-      <c r="K49" s="47" t="s">
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+    </row>
+    <row r="49" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I49" s="86"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+    </row>
+    <row r="50" spans="9:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K50" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="47" t="s">
+      <c r="M50" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M49" s="47" t="s">
+      <c r="N50" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N49" s="47" t="s">
+      <c r="O50" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O49" s="47" t="s">
+      <c r="P50" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P49" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="57"/>
-      <c r="L50" s="58" t="s">
+    </row>
+    <row r="51" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K51" s="55"/>
+      <c r="L51" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="M50" s="58" t="s">
+      <c r="N51" s="56">
+        <v>1</v>
+      </c>
+      <c r="O51" s="57">
+        <v>192000</v>
+      </c>
+      <c r="P51" s="57">
+        <f>O51*N51</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K52" s="46"/>
+      <c r="L52" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="N50" s="58">
+      <c r="M52" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="56">
         <v>1</v>
       </c>
-      <c r="O50" s="59">
-        <v>192000</v>
-      </c>
-      <c r="P50" s="59">
-        <f>O50*N50</f>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="51" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="48"/>
-      <c r="L51" s="48" t="s">
+      <c r="O52" s="48">
+        <v>262000</v>
+      </c>
+      <c r="P52" s="57">
+        <f t="shared" ref="P52:P66" si="4">O52*N52</f>
+        <v>262000</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K53" s="46"/>
+      <c r="L53" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="M51" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="58">
+      <c r="M53" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="56">
         <v>1</v>
       </c>
-      <c r="O51" s="50">
-        <v>262000</v>
-      </c>
-      <c r="P51" s="59">
-        <f t="shared" ref="P51:P65" si="4">O51*N51</f>
-        <v>262000</v>
-      </c>
-    </row>
-    <row r="52" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K52" s="48"/>
-      <c r="L52" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="M52" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="58">
-        <v>1</v>
-      </c>
-      <c r="O52" s="50">
+      <c r="O53" s="48">
         <v>218000</v>
       </c>
-      <c r="P52" s="59">
+      <c r="P53" s="57">
         <f t="shared" si="4"/>
         <v>218000</v>
       </c>
     </row>
-    <row r="53" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K53" s="48"/>
-      <c r="L53" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="M53" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N53" s="58">
+    <row r="54" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K54" s="46"/>
+      <c r="L54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" s="56">
         <v>1</v>
       </c>
-      <c r="O53" s="50">
+      <c r="O54" s="48">
         <v>403000</v>
       </c>
-      <c r="P53" s="59">
+      <c r="P54" s="57">
         <f t="shared" si="4"/>
         <v>403000</v>
       </c>
     </row>
-    <row r="54" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K54" s="48"/>
-      <c r="L54" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="M54" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="58">
+    <row r="55" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K55" s="46"/>
+      <c r="L55" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="56">
         <v>1</v>
       </c>
-      <c r="O54" s="50">
+      <c r="O55" s="48">
         <v>186000</v>
       </c>
-      <c r="P54" s="59">
+      <c r="P55" s="57">
         <f t="shared" si="4"/>
         <v>186000</v>
       </c>
     </row>
-    <row r="55" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K55" s="48"/>
-      <c r="L55" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="M55" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="58">
+    <row r="56" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K56" s="46"/>
+      <c r="L56" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56" s="56">
         <v>1</v>
       </c>
-      <c r="O55" s="50">
+      <c r="O56" s="48">
         <v>341000</v>
       </c>
-      <c r="P55" s="59">
+      <c r="P56" s="57">
         <f t="shared" si="4"/>
         <v>341000</v>
       </c>
     </row>
-    <row r="56" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K56" s="48"/>
-      <c r="L56" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N56" s="58">
+    <row r="57" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K57" s="46"/>
+      <c r="L57" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="56">
         <v>1</v>
       </c>
-      <c r="O56" s="50">
+      <c r="O57" s="48">
         <v>305000</v>
       </c>
-      <c r="P56" s="59">
+      <c r="P57" s="57">
         <f t="shared" si="4"/>
         <v>305000</v>
       </c>
     </row>
-    <row r="57" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K57" s="48"/>
-      <c r="L57" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M57" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="58">
+    <row r="58" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="46"/>
+      <c r="L58" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" s="56">
         <v>1</v>
       </c>
-      <c r="O57" s="50">
+      <c r="O58" s="48">
         <v>168000</v>
       </c>
-      <c r="P57" s="59">
+      <c r="P58" s="57">
         <f t="shared" si="4"/>
         <v>168000</v>
       </c>
     </row>
-    <row r="58" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K58" s="48"/>
-      <c r="L58" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="M58" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N58" s="58">
+    <row r="59" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="46"/>
+      <c r="L59" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="56">
         <v>1</v>
       </c>
-      <c r="O58" s="50">
+      <c r="O59" s="48">
         <v>168000</v>
       </c>
-      <c r="P58" s="59">
+      <c r="P59" s="57">
         <f t="shared" si="4"/>
         <v>168000</v>
       </c>
     </row>
-    <row r="59" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K59" s="48"/>
-      <c r="L59" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="M59" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" s="58">
+    <row r="60" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="46"/>
+      <c r="L60" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="56">
         <v>1</v>
       </c>
-      <c r="O59" s="50">
+      <c r="O60" s="48">
         <v>480000</v>
       </c>
-      <c r="P59" s="59">
+      <c r="P60" s="57">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="60" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K60" s="48"/>
-      <c r="L60" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="M60" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" s="58">
+    <row r="61" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K61" s="46"/>
+      <c r="L61" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="M61" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" s="56">
         <v>1</v>
       </c>
-      <c r="O60" s="50">
+      <c r="O61" s="48">
         <v>480000</v>
       </c>
-      <c r="P60" s="59">
+      <c r="P61" s="57">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="61" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K61" s="48"/>
-      <c r="L61" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N61" s="58">
+    <row r="62" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K62" s="46"/>
+      <c r="L62" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N62" s="56">
         <v>1</v>
       </c>
-      <c r="O61" s="50">
+      <c r="O62" s="48">
         <v>620000</v>
       </c>
-      <c r="P61" s="59">
+      <c r="P62" s="57">
         <f t="shared" si="4"/>
         <v>620000</v>
       </c>
     </row>
-    <row r="62" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K62" s="48"/>
-      <c r="L62" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="M62" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N62" s="58">
+    <row r="63" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K63" s="46"/>
+      <c r="L63" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M63" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" s="56">
         <v>1</v>
       </c>
-      <c r="O62" s="50">
+      <c r="O63" s="48">
         <v>515000</v>
       </c>
-      <c r="P62" s="59">
+      <c r="P63" s="57">
         <f t="shared" si="4"/>
         <v>515000</v>
       </c>
     </row>
-    <row r="63" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K63" s="48"/>
-      <c r="L63" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="M63" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N63" s="58">
+    <row r="64" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K64" s="46"/>
+      <c r="L64" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="56">
         <v>1</v>
       </c>
-      <c r="O63" s="50">
+      <c r="O64" s="48">
         <v>610000</v>
       </c>
-      <c r="P63" s="59">
+      <c r="P64" s="57">
         <f t="shared" si="4"/>
         <v>610000</v>
       </c>
     </row>
-    <row r="64" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K64" s="48"/>
-      <c r="L64" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="M64" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N64" s="58">
+    <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K65" s="46"/>
+      <c r="L65" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N65" s="56">
         <v>1</v>
       </c>
-      <c r="O64" s="50">
+      <c r="O65" s="48">
         <v>670000</v>
       </c>
-      <c r="P64" s="59">
+      <c r="P65" s="57">
         <f t="shared" si="4"/>
         <v>670000</v>
       </c>
     </row>
-    <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K65" s="48"/>
-      <c r="L65" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="M65" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="N65" s="58">
+    <row r="66" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K66" s="46"/>
+      <c r="L66" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N66" s="56">
         <v>1</v>
       </c>
-      <c r="O65" s="50">
+      <c r="O66" s="48">
         <v>590000</v>
       </c>
-      <c r="P65" s="59">
+      <c r="P66" s="57">
         <f t="shared" si="4"/>
         <v>590000</v>
       </c>
     </row>
-    <row r="66" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K66" s="52"/>
-      <c r="L66" s="53" t="s">
+    <row r="67" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K67" s="50"/>
+      <c r="L67" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M66" s="53"/>
-      <c r="N66" s="54">
-        <f>SUM(N50:N65)</f>
+      <c r="M67" s="51"/>
+      <c r="N67" s="52">
+        <f>SUM(N51:N66)</f>
         <v>16</v>
       </c>
-      <c r="O66" s="55"/>
-      <c r="P66" s="60">
-        <f>SUM(P50:P65)</f>
+      <c r="O67" s="53"/>
+      <c r="P67" s="58">
+        <f>SUM(P51:P66)</f>
         <v>6208000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="L1:P1"/>
+  <mergeCells count="21">
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:C33"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -3214,27 +3324,8 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
-  <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3285,23 +3376,23 @@
       </c>
     </row>
     <row r="13" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C14" s="68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C14" s="70" t="s">
+    <row r="15" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="70" t="s">
+    <row r="16" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="67" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C16" s="69" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -406,6 +406,57 @@
   </si>
   <si>
     <t>ĐL Còn nợ công ty (25/08/2020)</t>
+  </si>
+  <si>
+    <t>Thanh Hà (2/9/2020)</t>
+  </si>
+  <si>
+    <t>Fiso Nga số 1</t>
+  </si>
+  <si>
+    <t>Fiso Nga số 2</t>
+  </si>
+  <si>
+    <t>Fiso Nga số 3</t>
+  </si>
+  <si>
+    <t>Ensure úc 900g</t>
+  </si>
+  <si>
+    <t>Ensure Đức 400g</t>
+  </si>
+  <si>
+    <t>Bột ăn dặm Hip (4m,5,6m)</t>
+  </si>
+  <si>
+    <t>Meji 0-3</t>
+  </si>
+  <si>
+    <t>Closbaby số 0</t>
+  </si>
+  <si>
+    <t>Closbaby số 1</t>
+  </si>
+  <si>
+    <t>Pedesure 900g tím</t>
+  </si>
+  <si>
+    <t>Blacke số 1</t>
+  </si>
+  <si>
+    <t>Blacke số 2</t>
+  </si>
+  <si>
+    <t>Blacke số 3</t>
+  </si>
+  <si>
+    <t>GCX45</t>
+  </si>
+  <si>
+    <t>Thanh toán đơn sữa ngoại</t>
+  </si>
+  <si>
+    <t>ĐL Còn nợ công ty (03/09/2020)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -846,12 +897,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -914,7 +1002,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -990,12 +1077,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,6 +1108,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,10 +1207,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,43 +1222,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1515,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1528,10 +1641,10 @@
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" style="4" customWidth="1"/>
@@ -1539,7 +1652,11 @@
     <col min="14" max="14" width="12.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="17" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="4"/>
+    <col min="22" max="22" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1563,107 +1680,107 @@
       <c r="E2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="85" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="K4" s="45" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="K4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="46">
         <v>2</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="47">
         <v>345000</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="47">
         <f>N5*O5</f>
         <v>690000</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="89"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1682,38 +1799,38 @@
       <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="47">
-        <v>1</v>
-      </c>
-      <c r="O6" s="48">
+      <c r="N6" s="46">
+        <v>1</v>
+      </c>
+      <c r="O6" s="47">
         <v>350000</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="47">
         <f t="shared" ref="P6:P12" si="0">N6*O6</f>
         <v>350000</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="96">
+      <c r="A7" s="115">
         <v>638</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="117">
         <v>44048</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="115" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1729,30 +1846,30 @@
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="44" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="46">
         <v>2</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="47">
         <v>345000</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="47">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1763,37 +1880,37 @@
         <v>455000</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" ref="I8:I19" si="1">G8*H8</f>
+        <f t="shared" ref="I8:I23" si="1">G8*H8</f>
         <v>16380000</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="49" t="s">
+      <c r="K8" s="45"/>
+      <c r="L8" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="46">
         <v>2</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>345000</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="47">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="S8" s="26"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1807,40 +1924,40 @@
         <f t="shared" si="1"/>
         <v>22320000</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="47">
-        <v>1</v>
-      </c>
-      <c r="O9" s="48">
+      <c r="N9" s="46">
+        <v>1</v>
+      </c>
+      <c r="O9" s="47">
         <v>475000</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="47">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="S9" s="63" t="s">
+      <c r="S9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="64" t="s">
+      <c r="T9" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="66" t="s">
+      <c r="U9" s="64"/>
+      <c r="V9" s="65" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1854,41 +1971,41 @@
         <f t="shared" si="1"/>
         <v>11400000</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46" t="s">
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="46">
         <v>2</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <v>380000</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="47">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="33">
         <v>44045</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="39"/>
+      <c r="U10" s="38"/>
       <c r="V10" s="31">
         <f>P13</f>
         <v>5525000</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1902,41 +2019,41 @@
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="46">
         <v>2</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="47">
         <v>490000</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="47">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <v>44046</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="U11" s="39"/>
+      <c r="U11" s="38"/>
       <c r="V11" s="31">
         <f>P27</f>
         <v>21600000</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1950,41 +2067,41 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46" t="s">
+      <c r="K12" s="45"/>
+      <c r="L12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="46">
         <v>2</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="47">
         <v>445000</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="47">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="34">
         <v>44048</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="36">
+      <c r="U12" s="40"/>
+      <c r="V12" s="35">
         <f>P47</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1998,46 +2115,46 @@
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="52">
+      <c r="M13" s="50"/>
+      <c r="N13" s="51">
         <f>SUM(N5:N12)</f>
         <v>14</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="58">
+      <c r="O13" s="52"/>
+      <c r="P13" s="57">
         <f>SUM(P5:P12)</f>
         <v>5525000</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="34">
         <v>44051</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="36">
+      <c r="U13" s="42"/>
+      <c r="V13" s="35">
         <f>P67</f>
         <v>6208000</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="97">
+      <c r="A14" s="116">
         <v>622</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="118">
         <v>44040</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="116" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -2053,28 +2170,30 @@
         <f t="shared" si="1"/>
         <v>11160000</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="S14" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="37">
-        <f>SUM(V10:V13)</f>
-        <v>36267500</v>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="S14" s="34">
+        <v>44076</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="42"/>
+      <c r="V14" s="35">
+        <f>P84</f>
+        <v>6960000</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -2088,21 +2207,30 @@
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="59" t="s">
+      <c r="K15" s="53"/>
+      <c r="L15" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="S15" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="120"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="36">
+        <f>SUM(V10:V14)</f>
+        <v>43227500</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -2116,31 +2244,31 @@
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -2154,32 +2282,32 @@
         <f t="shared" si="1"/>
         <v>26400000</v>
       </c>
-      <c r="K17" s="55">
-        <v>1</v>
-      </c>
-      <c r="L17" s="56" t="s">
+      <c r="K17" s="54">
+        <v>1</v>
+      </c>
+      <c r="L17" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="55">
         <v>12</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="56">
         <v>180000</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="56">
         <f t="shared" ref="P17:P26" si="2">N17*O17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -2193,32 +2321,32 @@
         <f t="shared" si="1"/>
         <v>21840000</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <v>2</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="46">
         <v>12</v>
       </c>
-      <c r="O18" s="48">
+      <c r="O18" s="47">
         <v>180000</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="47">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -2232,1081 +2360,1476 @@
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <v>3</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="46">
         <v>12</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="47">
         <v>180000</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="47">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="32">
-        <f>SUM(G7:G19)</f>
-        <v>456</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="24">
-        <f>SUM(I7:I19)</f>
-        <v>205440000</v>
-      </c>
-      <c r="K20" s="46">
+      <c r="A20" s="103">
+        <v>662</v>
+      </c>
+      <c r="B20" s="100">
+        <v>44077</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="20">
+        <v>24</v>
+      </c>
+      <c r="H20" s="21">
+        <v>455000</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="K20" s="45">
         <v>4</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="46">
         <v>12</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="47">
         <v>180000</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="47">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K21" s="46">
+      <c r="A21" s="104"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="20">
+        <v>12</v>
+      </c>
+      <c r="H21" s="21">
+        <v>465000</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="1"/>
+        <v>5580000</v>
+      </c>
+      <c r="K21" s="45">
         <v>5</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="46">
         <v>12</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="47">
         <v>180000</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="47">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="104"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="20">
         <v>24</v>
       </c>
-      <c r="K22" s="46">
+      <c r="H22" s="21">
+        <v>255000</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="1"/>
+        <v>6120000</v>
+      </c>
+      <c r="K22" s="45">
         <v>6</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="46">
         <v>12</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="47">
         <v>180000</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="47">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="76" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="20">
+        <v>12</v>
+      </c>
+      <c r="H23" s="21">
+        <v>485000</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+      <c r="K23" s="45">
+        <v>7</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="46">
+        <v>12</v>
+      </c>
+      <c r="O23" s="47">
+        <v>180000</v>
+      </c>
+      <c r="P23" s="47">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="89">
+        <f>SUM(G7:G23)</f>
+        <v>528</v>
+      </c>
+      <c r="H24" s="89"/>
+      <c r="I24" s="24">
+        <f>SUM(I7:I23)</f>
+        <v>233880000</v>
+      </c>
+      <c r="K24" s="45">
+        <v>8</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="46">
+        <v>12</v>
+      </c>
+      <c r="O24" s="47">
+        <v>180000</v>
+      </c>
+      <c r="P24" s="47">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K25" s="45">
+        <v>9</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="46">
+        <v>12</v>
+      </c>
+      <c r="O25" s="47">
+        <v>180000</v>
+      </c>
+      <c r="P25" s="47">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="45">
+        <v>10</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="46">
+        <v>12</v>
+      </c>
+      <c r="O26" s="47">
+        <v>180000</v>
+      </c>
+      <c r="P26" s="47">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="28">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="28">
         <f>200000000+200000000*38%</f>
         <v>276000000</v>
       </c>
-      <c r="K23" s="46">
-        <v>7</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="47">
-        <v>12</v>
-      </c>
-      <c r="O23" s="48">
-        <v>180000</v>
-      </c>
-      <c r="P23" s="48">
-        <f t="shared" si="2"/>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="29">
-        <f>I20</f>
-        <v>205440000</v>
-      </c>
-      <c r="K24" s="46">
-        <v>8</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="47">
-        <v>12</v>
-      </c>
-      <c r="O24" s="48">
-        <v>180000</v>
-      </c>
-      <c r="P24" s="48">
-        <f t="shared" si="2"/>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="30">
-        <f>I23-I24</f>
-        <v>70560000</v>
-      </c>
-      <c r="K25" s="46">
-        <v>9</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="47">
-        <v>12</v>
-      </c>
-      <c r="O25" s="48">
-        <v>180000</v>
-      </c>
-      <c r="P25" s="48">
-        <f t="shared" si="2"/>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="46">
-        <v>10</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="47">
-        <v>12</v>
-      </c>
-      <c r="O26" s="48">
-        <v>180000</v>
-      </c>
-      <c r="P26" s="48">
-        <f t="shared" si="2"/>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="60">
-        <v>200000000</v>
-      </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51" t="s">
+      <c r="K27" s="49"/>
+      <c r="L27" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52">
+      <c r="M27" s="50"/>
+      <c r="N27" s="51">
         <f ca="1">SUM(N17:N58)</f>
         <v>168</v>
       </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="58">
+      <c r="O27" s="52"/>
+      <c r="P27" s="57">
         <f>SUM(P17:P26)</f>
         <v>21600000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="61">
-        <v>44040</v>
-      </c>
-      <c r="E28" s="60">
-        <v>5000000</v>
-      </c>
-      <c r="F28" s="74">
-        <f>SUM(E28:E33)</f>
-        <v>83000000</v>
-      </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="29">
+        <f>I24</f>
+        <v>233880000</v>
+      </c>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="61">
-        <v>44040</v>
-      </c>
-      <c r="E29" s="60">
-        <v>10000000</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="K29" s="44"/>
+      <c r="B29" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="30">
+        <f>I27-I28</f>
+        <v>42120000</v>
+      </c>
+      <c r="K29" s="43"/>
       <c r="L29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="61">
-        <v>44049</v>
-      </c>
-      <c r="E30" s="60">
-        <v>30000000</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="K30" s="45" t="s">
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="45" t="s">
+      <c r="N30" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="61">
-        <v>44054</v>
-      </c>
-      <c r="E31" s="60">
-        <v>20000000</v>
-      </c>
-      <c r="F31" s="75"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46" t="s">
+      <c r="B31" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="59">
+        <v>200000000</v>
+      </c>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N31" s="47">
-        <v>1</v>
-      </c>
-      <c r="O31" s="48">
+      <c r="N31" s="46">
+        <v>1</v>
+      </c>
+      <c r="O31" s="47">
         <v>67000</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="47">
         <f>N31*O31</f>
         <v>67000</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="61">
-        <v>44060</v>
-      </c>
-      <c r="E32" s="60">
-        <v>8000000</v>
-      </c>
-      <c r="F32" s="75"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46" t="s">
+      <c r="B32" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="60">
+        <v>44040</v>
+      </c>
+      <c r="E32" s="59">
+        <v>5000000</v>
+      </c>
+      <c r="F32" s="96">
+        <f>SUM(E32:E37)</f>
+        <v>83000000</v>
+      </c>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="47" t="s">
+      <c r="M32" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N32" s="47">
-        <v>1</v>
-      </c>
-      <c r="O32" s="48">
+      <c r="N32" s="46">
+        <v>1</v>
+      </c>
+      <c r="O32" s="47">
         <v>94000</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="47">
         <f t="shared" ref="P32:P46" si="3">N32*O32</f>
         <v>94000</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="61">
-        <v>44068</v>
-      </c>
-      <c r="E33" s="60">
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="60">
+        <v>44040</v>
+      </c>
+      <c r="E33" s="59">
         <v>10000000</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="44" t="s">
+      <c r="F33" s="97"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N33" s="47">
-        <v>1</v>
-      </c>
-      <c r="O33" s="48">
+      <c r="N33" s="46">
+        <v>1</v>
+      </c>
+      <c r="O33" s="47">
         <v>102000</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="47">
         <f t="shared" si="3"/>
         <v>102000</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="62">
-        <f>F27-F28</f>
-        <v>117000000</v>
-      </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="49" t="s">
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="60">
+        <v>44049</v>
+      </c>
+      <c r="E34" s="59">
+        <v>30000000</v>
+      </c>
+      <c r="F34" s="97"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N34" s="47">
-        <v>1</v>
-      </c>
-      <c r="O34" s="48">
+      <c r="N34" s="46">
+        <v>1</v>
+      </c>
+      <c r="O34" s="47">
         <v>187000</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="47">
         <f t="shared" si="3"/>
         <v>187000</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="70">
-        <v>6800000</v>
-      </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46" t="s">
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="60">
+        <v>44054</v>
+      </c>
+      <c r="E35" s="59">
+        <v>20000000</v>
+      </c>
+      <c r="F35" s="97"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N35" s="47">
-        <v>1</v>
-      </c>
-      <c r="O35" s="48">
+      <c r="N35" s="46">
+        <v>1</v>
+      </c>
+      <c r="O35" s="47">
         <v>187000</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="47">
         <f t="shared" si="3"/>
         <v>187000</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="116">
-        <f>V14</f>
-        <v>36267500</v>
-      </c>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="60">
+        <v>44060</v>
+      </c>
+      <c r="E36" s="59">
+        <v>8000000</v>
+      </c>
+      <c r="F36" s="97"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="47" t="s">
+      <c r="M36" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N36" s="47">
-        <v>1</v>
-      </c>
-      <c r="O36" s="48">
+      <c r="N36" s="46">
+        <v>1</v>
+      </c>
+      <c r="O36" s="47">
         <v>173000</v>
       </c>
-      <c r="P36" s="48">
+      <c r="P36" s="47">
         <f t="shared" si="3"/>
         <v>173000</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="116">
-        <f>F34+F35+F36</f>
-        <v>160067500</v>
-      </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46" t="s">
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="60">
+        <v>44068</v>
+      </c>
+      <c r="E37" s="59">
+        <v>10000000</v>
+      </c>
+      <c r="F37" s="98"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="46">
         <v>2</v>
       </c>
-      <c r="O37" s="48">
+      <c r="O37" s="47">
         <v>170000</v>
       </c>
-      <c r="P37" s="48">
+      <c r="P37" s="47">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K38" s="46"/>
-      <c r="L38" s="46" t="s">
+      <c r="B38" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="61">
+        <f>F31-F32</f>
+        <v>117000000</v>
+      </c>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="46">
         <v>2</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="47">
         <v>170000</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="47">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K39" s="46"/>
-      <c r="L39" s="46" t="s">
+      <c r="B39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="69">
+        <v>6800000</v>
+      </c>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="46">
         <v>2</v>
       </c>
-      <c r="O39" s="48">
+      <c r="O39" s="47">
         <v>170000</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="47">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K40" s="46"/>
-      <c r="L40" s="46" t="s">
+      <c r="B40" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="87">
+        <f>V15</f>
+        <v>43227500</v>
+      </c>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="47" t="s">
+      <c r="M40" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N40" s="47">
-        <v>1</v>
-      </c>
-      <c r="O40" s="48">
+      <c r="N40" s="46">
+        <v>1</v>
+      </c>
+      <c r="O40" s="47">
         <v>170000</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P40" s="47">
         <f t="shared" si="3"/>
         <v>170000</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K41" s="46"/>
-      <c r="L41" s="44" t="s">
+      <c r="B41" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="87">
+        <f>F38+F39+F40</f>
+        <v>167027500</v>
+      </c>
+      <c r="K41" s="45"/>
+      <c r="L41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N41" s="47">
-        <v>1</v>
-      </c>
-      <c r="O41" s="48">
+      <c r="N41" s="46">
+        <v>1</v>
+      </c>
+      <c r="O41" s="47">
         <v>76500</v>
       </c>
-      <c r="P41" s="48">
+      <c r="P41" s="47">
         <f t="shared" si="3"/>
         <v>76500</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K42" s="46"/>
-      <c r="L42" s="49" t="s">
+      <c r="B42" s="124">
+        <v>44077</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="125"/>
+      <c r="F42" s="87">
+        <v>2000000</v>
+      </c>
+      <c r="K42" s="45"/>
+      <c r="L42" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="M42" s="47" t="s">
+      <c r="M42" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N42" s="47">
-        <v>1</v>
-      </c>
-      <c r="O42" s="48">
+      <c r="N42" s="46">
+        <v>1</v>
+      </c>
+      <c r="O42" s="47">
         <v>162000</v>
       </c>
-      <c r="P42" s="48">
+      <c r="P42" s="47">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K43" s="46"/>
-      <c r="L43" s="46" t="s">
+      <c r="B43" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="87">
+        <f>F41-F42</f>
+        <v>165027500</v>
+      </c>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N43" s="47">
-        <v>1</v>
-      </c>
-      <c r="O43" s="48">
+      <c r="N43" s="46">
+        <v>1</v>
+      </c>
+      <c r="O43" s="47">
         <v>178000</v>
       </c>
-      <c r="P43" s="48">
+      <c r="P43" s="47">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K44" s="46"/>
-      <c r="L44" s="46" t="s">
+      <c r="K44" s="45"/>
+      <c r="L44" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N44" s="47">
-        <v>1</v>
-      </c>
-      <c r="O44" s="48">
+      <c r="N44" s="46">
+        <v>1</v>
+      </c>
+      <c r="O44" s="47">
         <v>162000</v>
       </c>
-      <c r="P44" s="48">
+      <c r="P44" s="47">
         <f t="shared" si="3"/>
         <v>162000</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K45" s="46"/>
-      <c r="L45" s="46" t="s">
+      <c r="I45" s="83"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="47" t="s">
+      <c r="M45" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N45" s="47">
-        <v>1</v>
-      </c>
-      <c r="O45" s="48">
+      <c r="N45" s="46">
+        <v>1</v>
+      </c>
+      <c r="O45" s="47">
         <v>178000</v>
       </c>
-      <c r="P45" s="48">
+      <c r="P45" s="47">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K46" s="46"/>
-      <c r="L46" s="44" t="s">
+      <c r="K46" s="45"/>
+      <c r="L46" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="N46" s="47">
-        <v>1</v>
-      </c>
-      <c r="O46" s="48">
+      <c r="N46" s="46">
+        <v>1</v>
+      </c>
+      <c r="O46" s="47">
         <v>178000</v>
       </c>
-      <c r="P46" s="48">
+      <c r="P46" s="47">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K47" s="50"/>
-      <c r="L47" s="51" t="s">
+      <c r="K47" s="49"/>
+      <c r="L47" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="51"/>
-      <c r="N47" s="52">
+      <c r="M47" s="50"/>
+      <c r="N47" s="51">
         <f>SUM(N31:N46)</f>
         <v>19</v>
       </c>
-      <c r="O47" s="53"/>
-      <c r="P47" s="58">
+      <c r="O47" s="52"/>
+      <c r="P47" s="57">
         <f>SUM(P31:P46)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-    </row>
-    <row r="49" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I49" s="86"/>
-      <c r="K49" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+    </row>
+    <row r="49" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K49" s="43"/>
       <c r="L49" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-    </row>
-    <row r="50" spans="9:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="K50" s="45" t="s">
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+    </row>
+    <row r="50" spans="11:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K50" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L50" s="45" t="s">
+      <c r="L50" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="45" t="s">
+      <c r="M50" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N50" s="45" t="s">
+      <c r="N50" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O50" s="45" t="s">
+      <c r="O50" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="45" t="s">
+      <c r="P50" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="55"/>
-      <c r="L51" s="56" t="s">
+    <row r="51" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K51" s="54"/>
+      <c r="L51" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="M51" s="56" t="s">
+      <c r="M51" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N51" s="56">
-        <v>1</v>
-      </c>
-      <c r="O51" s="57">
+      <c r="N51" s="55">
+        <v>1</v>
+      </c>
+      <c r="O51" s="56">
         <v>192000</v>
       </c>
-      <c r="P51" s="57">
+      <c r="P51" s="56">
         <f>O51*N51</f>
         <v>192000</v>
       </c>
     </row>
-    <row r="52" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K52" s="46"/>
-      <c r="L52" s="46" t="s">
+    <row r="52" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K52" s="45"/>
+      <c r="L52" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M52" s="56" t="s">
+      <c r="M52" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N52" s="56">
-        <v>1</v>
-      </c>
-      <c r="O52" s="48">
+      <c r="N52" s="55">
+        <v>1</v>
+      </c>
+      <c r="O52" s="47">
         <v>262000</v>
       </c>
-      <c r="P52" s="57">
+      <c r="P52" s="56">
         <f t="shared" ref="P52:P66" si="4">O52*N52</f>
         <v>262000</v>
       </c>
     </row>
-    <row r="53" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K53" s="46"/>
-      <c r="L53" s="46" t="s">
+    <row r="53" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K53" s="45"/>
+      <c r="L53" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="56" t="s">
+      <c r="M53" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N53" s="56">
-        <v>1</v>
-      </c>
-      <c r="O53" s="48">
+      <c r="N53" s="55">
+        <v>1</v>
+      </c>
+      <c r="O53" s="47">
         <v>218000</v>
       </c>
-      <c r="P53" s="57">
+      <c r="P53" s="56">
         <f t="shared" si="4"/>
         <v>218000</v>
       </c>
     </row>
-    <row r="54" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K54" s="46"/>
-      <c r="L54" s="46" t="s">
+    <row r="54" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K54" s="45"/>
+      <c r="L54" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M54" s="56" t="s">
+      <c r="M54" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N54" s="56">
-        <v>1</v>
-      </c>
-      <c r="O54" s="48">
+      <c r="N54" s="55">
+        <v>1</v>
+      </c>
+      <c r="O54" s="47">
         <v>403000</v>
       </c>
-      <c r="P54" s="57">
+      <c r="P54" s="56">
         <f t="shared" si="4"/>
         <v>403000</v>
       </c>
     </row>
-    <row r="55" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K55" s="46"/>
-      <c r="L55" s="56" t="s">
+    <row r="55" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K55" s="45"/>
+      <c r="L55" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M55" s="56" t="s">
+      <c r="M55" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N55" s="56">
-        <v>1</v>
-      </c>
-      <c r="O55" s="48">
+      <c r="N55" s="55">
+        <v>1</v>
+      </c>
+      <c r="O55" s="47">
         <v>186000</v>
       </c>
-      <c r="P55" s="57">
+      <c r="P55" s="56">
         <f t="shared" si="4"/>
         <v>186000</v>
       </c>
     </row>
-    <row r="56" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K56" s="46"/>
-      <c r="L56" s="46" t="s">
+    <row r="56" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K56" s="45"/>
+      <c r="L56" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M56" s="56" t="s">
+      <c r="M56" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N56" s="56">
-        <v>1</v>
-      </c>
-      <c r="O56" s="48">
+      <c r="N56" s="55">
+        <v>1</v>
+      </c>
+      <c r="O56" s="47">
         <v>341000</v>
       </c>
-      <c r="P56" s="57">
+      <c r="P56" s="56">
         <f t="shared" si="4"/>
         <v>341000</v>
       </c>
     </row>
-    <row r="57" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K57" s="46"/>
-      <c r="L57" s="46" t="s">
+    <row r="57" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K57" s="45"/>
+      <c r="L57" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="M57" s="56" t="s">
+      <c r="M57" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N57" s="56">
-        <v>1</v>
-      </c>
-      <c r="O57" s="48">
+      <c r="N57" s="55">
+        <v>1</v>
+      </c>
+      <c r="O57" s="47">
         <v>305000</v>
       </c>
-      <c r="P57" s="57">
+      <c r="P57" s="56">
         <f t="shared" si="4"/>
         <v>305000</v>
       </c>
     </row>
-    <row r="58" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K58" s="46"/>
-      <c r="L58" s="46" t="s">
+    <row r="58" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K58" s="45"/>
+      <c r="L58" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M58" s="56" t="s">
+      <c r="M58" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="56">
-        <v>1</v>
-      </c>
-      <c r="O58" s="48">
+      <c r="N58" s="55">
+        <v>1</v>
+      </c>
+      <c r="O58" s="47">
         <v>168000</v>
       </c>
-      <c r="P58" s="57">
+      <c r="P58" s="56">
         <f t="shared" si="4"/>
         <v>168000</v>
       </c>
     </row>
-    <row r="59" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K59" s="46"/>
-      <c r="L59" s="46" t="s">
+    <row r="59" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K59" s="45"/>
+      <c r="L59" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="56" t="s">
+      <c r="M59" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N59" s="56">
-        <v>1</v>
-      </c>
-      <c r="O59" s="48">
+      <c r="N59" s="55">
+        <v>1</v>
+      </c>
+      <c r="O59" s="47">
         <v>168000</v>
       </c>
-      <c r="P59" s="57">
+      <c r="P59" s="56">
         <f t="shared" si="4"/>
         <v>168000</v>
       </c>
     </row>
-    <row r="60" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K60" s="46"/>
-      <c r="L60" s="46" t="s">
+    <row r="60" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K60" s="45"/>
+      <c r="L60" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M60" s="56" t="s">
+      <c r="M60" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N60" s="56">
-        <v>1</v>
-      </c>
-      <c r="O60" s="48">
+      <c r="N60" s="55">
+        <v>1</v>
+      </c>
+      <c r="O60" s="47">
         <v>480000</v>
       </c>
-      <c r="P60" s="57">
+      <c r="P60" s="56">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="61" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K61" s="46"/>
-      <c r="L61" s="46" t="s">
+    <row r="61" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K61" s="45"/>
+      <c r="L61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="M61" s="56" t="s">
+      <c r="M61" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N61" s="56">
-        <v>1</v>
-      </c>
-      <c r="O61" s="48">
+      <c r="N61" s="55">
+        <v>1</v>
+      </c>
+      <c r="O61" s="47">
         <v>480000</v>
       </c>
-      <c r="P61" s="57">
+      <c r="P61" s="56">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
-    <row r="62" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K62" s="46"/>
-      <c r="L62" s="46" t="s">
+    <row r="62" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K62" s="45"/>
+      <c r="L62" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="M62" s="56" t="s">
+      <c r="M62" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N62" s="56">
-        <v>1</v>
-      </c>
-      <c r="O62" s="48">
+      <c r="N62" s="55">
+        <v>1</v>
+      </c>
+      <c r="O62" s="47">
         <v>620000</v>
       </c>
-      <c r="P62" s="57">
+      <c r="P62" s="56">
         <f t="shared" si="4"/>
         <v>620000</v>
       </c>
     </row>
-    <row r="63" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K63" s="46"/>
-      <c r="L63" s="44" t="s">
+    <row r="63" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K63" s="45"/>
+      <c r="L63" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="M63" s="56" t="s">
+      <c r="M63" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="56">
-        <v>1</v>
-      </c>
-      <c r="O63" s="48">
+      <c r="N63" s="55">
+        <v>1</v>
+      </c>
+      <c r="O63" s="47">
         <v>515000</v>
       </c>
-      <c r="P63" s="57">
+      <c r="P63" s="56">
         <f t="shared" si="4"/>
         <v>515000</v>
       </c>
     </row>
-    <row r="64" spans="9:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K64" s="46"/>
-      <c r="L64" s="49" t="s">
+    <row r="64" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K64" s="45"/>
+      <c r="L64" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="M64" s="56" t="s">
+      <c r="M64" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N64" s="56">
-        <v>1</v>
-      </c>
-      <c r="O64" s="48">
+      <c r="N64" s="55">
+        <v>1</v>
+      </c>
+      <c r="O64" s="47">
         <v>610000</v>
       </c>
-      <c r="P64" s="57">
+      <c r="P64" s="56">
         <f t="shared" si="4"/>
         <v>610000</v>
       </c>
     </row>
     <row r="65" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K65" s="46"/>
-      <c r="L65" s="46" t="s">
+      <c r="K65" s="45"/>
+      <c r="L65" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M65" s="56" t="s">
+      <c r="M65" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N65" s="56">
-        <v>1</v>
-      </c>
-      <c r="O65" s="48">
+      <c r="N65" s="55">
+        <v>1</v>
+      </c>
+      <c r="O65" s="47">
         <v>670000</v>
       </c>
-      <c r="P65" s="57">
+      <c r="P65" s="56">
         <f t="shared" si="4"/>
         <v>670000</v>
       </c>
     </row>
     <row r="66" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K66" s="46"/>
-      <c r="L66" s="46" t="s">
+      <c r="K66" s="45"/>
+      <c r="L66" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M66" s="56" t="s">
+      <c r="M66" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="N66" s="56">
-        <v>1</v>
-      </c>
-      <c r="O66" s="48">
+      <c r="N66" s="55">
+        <v>1</v>
+      </c>
+      <c r="O66" s="47">
         <v>590000</v>
       </c>
-      <c r="P66" s="57">
+      <c r="P66" s="56">
         <f t="shared" si="4"/>
         <v>590000</v>
       </c>
     </row>
     <row r="67" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K67" s="50"/>
-      <c r="L67" s="51" t="s">
+      <c r="K67" s="49"/>
+      <c r="L67" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="51"/>
-      <c r="N67" s="52">
+      <c r="M67" s="50"/>
+      <c r="N67" s="51">
         <f>SUM(N51:N66)</f>
         <v>16</v>
       </c>
-      <c r="O67" s="53"/>
-      <c r="P67" s="58">
+      <c r="O67" s="52"/>
+      <c r="P67" s="57">
         <f>SUM(P51:P66)</f>
         <v>6208000</v>
       </c>
     </row>
+    <row r="69" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K69" s="43"/>
+      <c r="L69" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+    </row>
+    <row r="70" spans="11:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K70" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N70" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K71" s="54"/>
+      <c r="L71" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="M71" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N71" s="55">
+        <v>1</v>
+      </c>
+      <c r="O71" s="56">
+        <v>340000</v>
+      </c>
+      <c r="P71" s="56">
+        <f>O71*N71</f>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="72" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K72" s="45"/>
+      <c r="L72" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M72" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N72" s="55">
+        <v>1</v>
+      </c>
+      <c r="O72" s="47">
+        <v>340000</v>
+      </c>
+      <c r="P72" s="56">
+        <f t="shared" ref="P72:P83" si="5">O72*N72</f>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="73" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K73" s="45"/>
+      <c r="L73" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M73" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N73" s="55">
+        <v>1</v>
+      </c>
+      <c r="O73" s="47">
+        <v>340000</v>
+      </c>
+      <c r="P73" s="56">
+        <f t="shared" si="5"/>
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="74" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K74" s="45"/>
+      <c r="L74" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M74" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N74" s="55">
+        <v>2</v>
+      </c>
+      <c r="O74" s="47">
+        <v>530000</v>
+      </c>
+      <c r="P74" s="56">
+        <f t="shared" si="5"/>
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="75" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K75" s="45"/>
+      <c r="L75" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="M75" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N75" s="55">
+        <v>2</v>
+      </c>
+      <c r="O75" s="47">
+        <v>250000</v>
+      </c>
+      <c r="P75" s="56">
+        <f t="shared" si="5"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="76" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K76" s="45"/>
+      <c r="L76" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N76" s="55">
+        <v>3</v>
+      </c>
+      <c r="O76" s="47">
+        <v>120000</v>
+      </c>
+      <c r="P76" s="56">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="77" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K77" s="45"/>
+      <c r="L77" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="M77" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N77" s="55">
+        <v>1</v>
+      </c>
+      <c r="O77" s="47">
+        <v>550000</v>
+      </c>
+      <c r="P77" s="56">
+        <f t="shared" si="5"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="78" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K78" s="45"/>
+      <c r="L78" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M78" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N78" s="55">
+        <v>1</v>
+      </c>
+      <c r="O78" s="47">
+        <v>415000</v>
+      </c>
+      <c r="P78" s="56">
+        <f t="shared" si="5"/>
+        <v>415000</v>
+      </c>
+    </row>
+    <row r="79" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K79" s="45"/>
+      <c r="L79" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M79" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="55">
+        <v>1</v>
+      </c>
+      <c r="O79" s="47">
+        <v>380000</v>
+      </c>
+      <c r="P79" s="56">
+        <f t="shared" si="5"/>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="80" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K80" s="45"/>
+      <c r="L80" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M80" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" s="55">
+        <v>2</v>
+      </c>
+      <c r="O80" s="47">
+        <v>620000</v>
+      </c>
+      <c r="P80" s="56">
+        <f t="shared" si="5"/>
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="81" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K81" s="45"/>
+      <c r="L81" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M81" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N81" s="55">
+        <v>1</v>
+      </c>
+      <c r="O81" s="47">
+        <v>480000</v>
+      </c>
+      <c r="P81" s="56">
+        <f t="shared" si="5"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="82" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K82" s="45"/>
+      <c r="L82" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="M82" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82" s="55">
+        <v>1</v>
+      </c>
+      <c r="O82" s="47">
+        <v>480000</v>
+      </c>
+      <c r="P82" s="56">
+        <f t="shared" si="5"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="83" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K83" s="45"/>
+      <c r="L83" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="M83" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="N83" s="55">
+        <v>1</v>
+      </c>
+      <c r="O83" s="47">
+        <v>475000</v>
+      </c>
+      <c r="P83" s="56">
+        <f t="shared" si="5"/>
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="84" spans="11:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K84" s="49"/>
+      <c r="L84" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="50"/>
+      <c r="N84" s="51">
+        <f>SUM(N71:N83)</f>
+        <v>18</v>
+      </c>
+      <c r="O84" s="52"/>
+      <c r="P84" s="57">
+        <f>SUM(P71:P83)</f>
+        <v>6960000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B28:C33"/>
-    <mergeCell ref="A20:F20"/>
+  <mergeCells count="28">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="S15:U15"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
@@ -3324,6 +3847,14 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B32:C37"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3376,22 +3907,22 @@
       </c>
     </row>
     <row r="13" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>109</v>
       </c>
     </row>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập Hàng" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -400,16 +400,22 @@
     <t>(II) Hà Linh trả hàng (4 hộp BCX90)</t>
   </si>
   <si>
-    <t>(III) Số hàng đã chuyển cho đại lý</t>
-  </si>
-  <si>
-    <t>Công ty cần chuyển cho đại lý số hàng (I)+(II)-(III)</t>
-  </si>
-  <si>
     <t>Công ty vay Linh</t>
   </si>
   <si>
     <t>Công ty trả</t>
+  </si>
+  <si>
+    <t>(III)8/10 Hà Linh trả hàng 4h 1CX45/12h 1CX90</t>
+  </si>
+  <si>
+    <t>(IV) Số hàng đã chuyển cho đại lý</t>
+  </si>
+  <si>
+    <t>Công ty cần chuyển cho đại lý số hàng (I)+(II)+(III)-(IV)</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +523,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -538,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -835,12 +847,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -961,82 +986,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1049,9 +999,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,12 +1049,109 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1596,54 +1640,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1664,434 +1708,434 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="90">
         <v>638</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="92">
         <v>44048</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="63">
         <v>48</v>
       </c>
       <c r="H7" s="19">
         <v>225000</v>
       </c>
       <c r="I7" s="19">
-        <f>G7*H7</f>
+        <f t="shared" ref="I7:I25" si="0">G7*H7</f>
         <v>10800000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="64">
         <v>36</v>
       </c>
       <c r="H8" s="21">
         <v>455000</v>
       </c>
       <c r="I8" s="21">
-        <f>G8*H8</f>
+        <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="64">
         <v>48</v>
       </c>
       <c r="H9" s="21">
         <v>465000</v>
       </c>
       <c r="I9" s="21">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>22320000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="64">
         <v>24</v>
       </c>
       <c r="H10" s="21">
         <v>475000</v>
       </c>
       <c r="I10" s="21">
-        <f>G10*H10</f>
+        <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="64">
         <v>36</v>
       </c>
       <c r="H11" s="21">
         <v>485000</v>
       </c>
       <c r="I11" s="21">
-        <f>G11*H11</f>
+        <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="64">
         <v>24</v>
       </c>
       <c r="H12" s="21">
         <v>485000</v>
       </c>
       <c r="I12" s="21">
-        <f>G12*H12</f>
+        <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="64">
         <v>24</v>
       </c>
       <c r="H13" s="21">
         <v>455000</v>
       </c>
       <c r="I13" s="21">
-        <f>G13*H13</f>
+        <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="103">
         <v>622</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="104">
         <v>44040</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="103" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="64">
         <v>24</v>
       </c>
       <c r="H14" s="21">
         <v>465000</v>
       </c>
       <c r="I14" s="21">
-        <f>G14*H14</f>
+        <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="64">
         <v>36</v>
       </c>
       <c r="H15" s="21">
         <v>475000</v>
       </c>
       <c r="I15" s="21">
-        <f>G15*H15</f>
+        <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="64">
         <v>24</v>
       </c>
       <c r="H16" s="21">
         <v>485000</v>
       </c>
       <c r="I16" s="21">
-        <f>G16*H16</f>
+        <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="64">
         <v>48</v>
       </c>
       <c r="H17" s="21">
         <v>550000</v>
       </c>
       <c r="I17" s="21">
-        <f>G17*H17</f>
+        <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="64">
         <v>48</v>
       </c>
       <c r="H18" s="21">
         <v>455000</v>
       </c>
       <c r="I18" s="21">
-        <f>G18*H18</f>
+        <f t="shared" si="0"/>
         <v>21840000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="65">
         <v>36</v>
       </c>
       <c r="H19" s="23">
         <v>455000</v>
       </c>
       <c r="I19" s="23">
-        <f>G19*H19</f>
+        <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="74">
+      <c r="A20" s="108">
         <v>662</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="106">
         <v>44077</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="108" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="64">
         <v>24</v>
       </c>
       <c r="H20" s="21">
         <v>455000</v>
       </c>
       <c r="I20" s="21">
-        <f>G20*H20</f>
+        <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="90">
+      <c r="G21" s="64">
         <v>12</v>
       </c>
       <c r="H21" s="21">
         <v>465000</v>
       </c>
       <c r="I21" s="21">
-        <f>G21*H21</f>
+        <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="64">
         <v>24</v>
       </c>
       <c r="H22" s="21">
         <v>255000</v>
       </c>
       <c r="I22" s="21">
-        <f>G22*H22</f>
+        <f t="shared" si="0"/>
         <v>6120000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="86" t="s">
+      <c r="A23" s="109"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="66">
         <v>12</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="62">
         <v>485000</v>
       </c>
-      <c r="I23" s="87">
-        <f>G23*H23</f>
+      <c r="I23" s="62">
+        <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
+      <c r="A24" s="90">
         <v>792</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="92">
         <v>44085</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="90" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="63">
         <v>9</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="62">
         <v>225000</v>
       </c>
       <c r="I24" s="19">
-        <f>G24*H24</f>
+        <f t="shared" si="0"/>
         <v>2025000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="65">
         <v>36</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="62">
         <v>455000</v>
       </c>
       <c r="I25" s="23">
-        <f>G25*H25</f>
+        <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="53">
         <f>SUM(G7:G25)</f>
         <v>573</v>
@@ -2103,8 +2147,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="H28" s="25" t="s">
         <v>122</v>
       </c>
@@ -2157,11 +2201,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -2169,22 +2224,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2195,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2210,18 +2254,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="68" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="4"/>
@@ -2230,205 +2274,205 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90">
+      <c r="A5" s="64">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="70">
         <v>2</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="71">
         <v>345000</v>
       </c>
-      <c r="F5" s="97">
-        <f>D5*E5</f>
+      <c r="F5" s="71">
+        <f t="shared" ref="F5:F12" si="0">D5*E5</f>
         <v>690000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="90">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="96">
-        <v>1</v>
-      </c>
-      <c r="E6" s="97">
+      <c r="D6" s="70">
+        <v>1</v>
+      </c>
+      <c r="E6" s="71">
         <v>350000</v>
       </c>
-      <c r="F6" s="97">
-        <f>D6*E6</f>
+      <c r="F6" s="71">
+        <f t="shared" si="0"/>
         <v>350000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="64">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="70">
         <v>2</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="71">
         <v>345000</v>
       </c>
-      <c r="F7" s="97">
-        <f>D7*E7</f>
+      <c r="F7" s="71">
+        <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="64">
         <v>4</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="70">
         <v>2</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="71">
         <v>345000</v>
       </c>
-      <c r="F8" s="97">
-        <f>D8*E8</f>
+      <c r="F8" s="71">
+        <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="90">
+      <c r="A9" s="64">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="96">
-        <v>1</v>
-      </c>
-      <c r="E9" s="97">
+      <c r="D9" s="70">
+        <v>1</v>
+      </c>
+      <c r="E9" s="71">
         <v>475000</v>
       </c>
-      <c r="F9" s="97">
-        <f>D9*E9</f>
+      <c r="F9" s="71">
+        <f t="shared" si="0"/>
         <v>475000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="64">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="70">
         <v>2</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="71">
         <v>380000</v>
       </c>
-      <c r="F10" s="97">
-        <f>D10*E10</f>
+      <c r="F10" s="71">
+        <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="A11" s="64">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="70">
         <v>2</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="71">
         <v>490000</v>
       </c>
-      <c r="F11" s="97">
-        <f>D11*E11</f>
+      <c r="F11" s="71">
+        <f t="shared" si="0"/>
         <v>980000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="64">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="70">
         <v>2</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="71">
         <v>445000</v>
       </c>
-      <c r="F12" s="97">
-        <f>D12*E12</f>
+      <c r="F12" s="71">
+        <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74">
         <f>SUM(D5:D12)</f>
         <v>14</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102">
+      <c r="E13" s="75"/>
+      <c r="F13" s="76">
         <f>SUM(F5:F12)</f>
         <v>5525000</v>
       </c>
@@ -2442,257 +2486,257 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
-        <v>1</v>
-      </c>
-      <c r="B17" s="106" t="s">
+      <c r="A17" s="79">
+        <v>1</v>
+      </c>
+      <c r="B17" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="81">
         <v>12</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="82">
         <v>180000</v>
       </c>
-      <c r="F17" s="108">
-        <f>D17*E17</f>
+      <c r="F17" s="82">
+        <f t="shared" ref="F17:F26" si="1">D17*E17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="90">
+      <c r="A18" s="64">
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="70">
         <v>12</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="71">
         <v>180000</v>
       </c>
-      <c r="F18" s="97">
-        <f>D18*E18</f>
+      <c r="F18" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="70">
         <v>12</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="71">
         <v>180000</v>
       </c>
-      <c r="F19" s="97">
-        <f>D19*E19</f>
+      <c r="F19" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
+      <c r="A20" s="64">
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="70">
         <v>12</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="71">
         <v>180000</v>
       </c>
-      <c r="F20" s="97">
-        <f>D20*E20</f>
+      <c r="F20" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="64">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="70">
         <v>12</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="71">
         <v>180000</v>
       </c>
-      <c r="F21" s="97">
-        <f>D21*E21</f>
+      <c r="F21" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="90">
+      <c r="A22" s="64">
         <v>6</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="70">
         <v>12</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="71">
         <v>180000</v>
       </c>
-      <c r="F22" s="97">
-        <f>D22*E22</f>
+      <c r="F22" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="90">
+      <c r="A23" s="64">
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="70">
         <v>12</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="71">
         <v>180000</v>
       </c>
-      <c r="F23" s="97">
-        <f>D23*E23</f>
+      <c r="F23" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="64">
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="96">
+      <c r="D24" s="70">
         <v>12</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="71">
         <v>180000</v>
       </c>
-      <c r="F24" s="97">
-        <f>D24*E24</f>
+      <c r="F24" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="90">
+      <c r="A25" s="64">
         <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="70">
         <v>12</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="71">
         <v>180000</v>
       </c>
-      <c r="F25" s="97">
-        <f>D25*E25</f>
+      <c r="F25" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
+      <c r="A26" s="64">
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="70">
         <v>12</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E26" s="71">
         <v>180000</v>
       </c>
-      <c r="F26" s="97">
-        <f>D26*E26</f>
+      <c r="F26" s="71">
+        <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74">
         <f ca="1">SUM(D17:D58)</f>
         <v>168</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102">
+      <c r="E27" s="75"/>
+      <c r="F27" s="76">
         <f>SUM(F17:F26)</f>
         <v>21600000</v>
       </c>
@@ -2716,384 +2760,384 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+      <c r="A31" s="64">
         <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="96">
-        <v>1</v>
-      </c>
-      <c r="E31" s="97">
+      <c r="D31" s="70">
+        <v>1</v>
+      </c>
+      <c r="E31" s="71">
         <v>67000</v>
       </c>
-      <c r="F31" s="97">
-        <f>D31*E31</f>
+      <c r="F31" s="71">
+        <f t="shared" ref="F31:F46" si="2">D31*E31</f>
         <v>67000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="90">
+      <c r="A32" s="64">
         <v>2</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="96">
-        <v>1</v>
-      </c>
-      <c r="E32" s="97">
+      <c r="D32" s="70">
+        <v>1</v>
+      </c>
+      <c r="E32" s="71">
         <v>94000</v>
       </c>
-      <c r="F32" s="97">
-        <f>D32*E32</f>
+      <c r="F32" s="71">
+        <f t="shared" si="2"/>
         <v>94000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+      <c r="A33" s="64">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="96">
-        <v>1</v>
-      </c>
-      <c r="E33" s="97">
+      <c r="D33" s="70">
+        <v>1</v>
+      </c>
+      <c r="E33" s="71">
         <v>102000</v>
       </c>
-      <c r="F33" s="97">
-        <f>D33*E33</f>
+      <c r="F33" s="71">
+        <f t="shared" si="2"/>
         <v>102000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="64">
         <v>4</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="96">
-        <v>1</v>
-      </c>
-      <c r="E34" s="97">
+      <c r="D34" s="70">
+        <v>1</v>
+      </c>
+      <c r="E34" s="71">
         <v>187000</v>
       </c>
-      <c r="F34" s="97">
-        <f>D34*E34</f>
+      <c r="F34" s="71">
+        <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="90">
+      <c r="A35" s="64">
         <v>5</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="96">
-        <v>1</v>
-      </c>
-      <c r="E35" s="97">
+      <c r="D35" s="70">
+        <v>1</v>
+      </c>
+      <c r="E35" s="71">
         <v>187000</v>
       </c>
-      <c r="F35" s="97">
-        <f>D35*E35</f>
+      <c r="F35" s="71">
+        <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="90">
+      <c r="A36" s="64">
         <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="96">
-        <v>1</v>
-      </c>
-      <c r="E36" s="97">
+      <c r="D36" s="70">
+        <v>1</v>
+      </c>
+      <c r="E36" s="71">
         <v>173000</v>
       </c>
-      <c r="F36" s="97">
-        <f>D36*E36</f>
+      <c r="F36" s="71">
+        <f t="shared" si="2"/>
         <v>173000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="90">
+      <c r="A37" s="64">
         <v>7</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="70">
         <v>2</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="71">
         <v>170000</v>
       </c>
-      <c r="F37" s="97">
-        <f>D37*E37</f>
+      <c r="F37" s="71">
+        <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="90">
+      <c r="A38" s="64">
         <v>8</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="70">
         <v>2</v>
       </c>
-      <c r="E38" s="97">
+      <c r="E38" s="71">
         <v>170000</v>
       </c>
-      <c r="F38" s="97">
-        <f>D38*E38</f>
+      <c r="F38" s="71">
+        <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="90">
+      <c r="A39" s="64">
         <v>9</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="70">
         <v>2</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="71">
         <v>170000</v>
       </c>
-      <c r="F39" s="97">
-        <f>D39*E39</f>
+      <c r="F39" s="71">
+        <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="90">
+      <c r="A40" s="64">
         <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="96">
-        <v>1</v>
-      </c>
-      <c r="E40" s="97">
+      <c r="D40" s="70">
+        <v>1</v>
+      </c>
+      <c r="E40" s="71">
         <v>170000</v>
       </c>
-      <c r="F40" s="97">
-        <f>D40*E40</f>
+      <c r="F40" s="71">
+        <f t="shared" si="2"/>
         <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="90">
+      <c r="A41" s="64">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="96">
-        <v>1</v>
-      </c>
-      <c r="E41" s="97">
+      <c r="D41" s="70">
+        <v>1</v>
+      </c>
+      <c r="E41" s="71">
         <v>76500</v>
       </c>
-      <c r="F41" s="97">
-        <f>D41*E41</f>
+      <c r="F41" s="71">
+        <f t="shared" si="2"/>
         <v>76500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="90">
+      <c r="A42" s="64">
         <v>12</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="96">
-        <v>1</v>
-      </c>
-      <c r="E42" s="97">
+      <c r="D42" s="70">
+        <v>1</v>
+      </c>
+      <c r="E42" s="71">
         <v>162000</v>
       </c>
-      <c r="F42" s="97">
-        <f>D42*E42</f>
+      <c r="F42" s="71">
+        <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="90">
+      <c r="A43" s="64">
         <v>13</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="96">
-        <v>1</v>
-      </c>
-      <c r="E43" s="97">
+      <c r="D43" s="70">
+        <v>1</v>
+      </c>
+      <c r="E43" s="71">
         <v>178000</v>
       </c>
-      <c r="F43" s="97">
-        <f>D43*E43</f>
+      <c r="F43" s="71">
+        <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="90">
+      <c r="A44" s="64">
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="96">
-        <v>1</v>
-      </c>
-      <c r="E44" s="97">
+      <c r="D44" s="70">
+        <v>1</v>
+      </c>
+      <c r="E44" s="71">
         <v>162000</v>
       </c>
-      <c r="F44" s="97">
-        <f>D44*E44</f>
+      <c r="F44" s="71">
+        <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="90">
+      <c r="A45" s="64">
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="96">
-        <v>1</v>
-      </c>
-      <c r="E45" s="97">
+      <c r="D45" s="70">
+        <v>1</v>
+      </c>
+      <c r="E45" s="71">
         <v>178000</v>
       </c>
-      <c r="F45" s="97">
-        <f>D45*E45</f>
+      <c r="F45" s="71">
+        <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
+      <c r="A46" s="64">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="96">
-        <v>1</v>
-      </c>
-      <c r="E46" s="97">
+      <c r="D46" s="70">
+        <v>1</v>
+      </c>
+      <c r="E46" s="71">
         <v>178000</v>
       </c>
-      <c r="F46" s="97">
-        <f>D46*E46</f>
+      <c r="F46" s="71">
+        <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="99" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100">
+      <c r="C47" s="74"/>
+      <c r="D47" s="74">
         <f>SUM(D31:D46)</f>
         <v>19</v>
       </c>
-      <c r="E47" s="101"/>
-      <c r="F47" s="102">
+      <c r="E47" s="75"/>
+      <c r="F47" s="76">
         <f>SUM(F31:F46)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
@@ -3106,373 +3150,373 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="95" t="s">
+      <c r="E50" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="95" t="s">
+      <c r="F50" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="105">
-        <v>1</v>
-      </c>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="79">
+        <v>1</v>
+      </c>
+      <c r="B51" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C51" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="107">
-        <v>1</v>
-      </c>
-      <c r="E51" s="108">
+      <c r="D51" s="81">
+        <v>1</v>
+      </c>
+      <c r="E51" s="82">
         <v>192000</v>
       </c>
-      <c r="F51" s="108">
-        <f>E51*D51</f>
+      <c r="F51" s="82">
+        <f t="shared" ref="F51:F66" si="3">E51*D51</f>
         <v>192000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="90">
+      <c r="A52" s="64">
         <v>2</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="107" t="s">
+      <c r="C52" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="107">
-        <v>1</v>
-      </c>
-      <c r="E52" s="97">
+      <c r="D52" s="81">
+        <v>1</v>
+      </c>
+      <c r="E52" s="71">
         <v>262000</v>
       </c>
-      <c r="F52" s="108">
-        <f>E52*D52</f>
+      <c r="F52" s="82">
+        <f t="shared" si="3"/>
         <v>262000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="90">
+      <c r="A53" s="64">
         <v>3</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="107">
-        <v>1</v>
-      </c>
-      <c r="E53" s="97">
+      <c r="D53" s="81">
+        <v>1</v>
+      </c>
+      <c r="E53" s="71">
         <v>218000</v>
       </c>
-      <c r="F53" s="108">
-        <f>E53*D53</f>
+      <c r="F53" s="82">
+        <f t="shared" si="3"/>
         <v>218000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="90">
+      <c r="A54" s="64">
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="107" t="s">
+      <c r="C54" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="107">
-        <v>1</v>
-      </c>
-      <c r="E54" s="97">
+      <c r="D54" s="81">
+        <v>1</v>
+      </c>
+      <c r="E54" s="71">
         <v>403000</v>
       </c>
-      <c r="F54" s="108">
-        <f>E54*D54</f>
+      <c r="F54" s="82">
+        <f t="shared" si="3"/>
         <v>403000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="90">
+      <c r="A55" s="64">
         <v>5</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="107">
-        <v>1</v>
-      </c>
-      <c r="E55" s="97">
+      <c r="D55" s="81">
+        <v>1</v>
+      </c>
+      <c r="E55" s="71">
         <v>186000</v>
       </c>
-      <c r="F55" s="108">
-        <f>E55*D55</f>
+      <c r="F55" s="82">
+        <f t="shared" si="3"/>
         <v>186000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="90">
+      <c r="A56" s="64">
         <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="107" t="s">
+      <c r="C56" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="107">
-        <v>1</v>
-      </c>
-      <c r="E56" s="97">
+      <c r="D56" s="81">
+        <v>1</v>
+      </c>
+      <c r="E56" s="71">
         <v>341000</v>
       </c>
-      <c r="F56" s="108">
-        <f>E56*D56</f>
+      <c r="F56" s="82">
+        <f t="shared" si="3"/>
         <v>341000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="90">
+      <c r="A57" s="64">
         <v>7</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="107">
-        <v>1</v>
-      </c>
-      <c r="E57" s="97">
+      <c r="D57" s="81">
+        <v>1</v>
+      </c>
+      <c r="E57" s="71">
         <v>305000</v>
       </c>
-      <c r="F57" s="108">
-        <f>E57*D57</f>
+      <c r="F57" s="82">
+        <f t="shared" si="3"/>
         <v>305000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="90">
+      <c r="A58" s="64">
         <v>8</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C58" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="107">
-        <v>1</v>
-      </c>
-      <c r="E58" s="97">
+      <c r="D58" s="81">
+        <v>1</v>
+      </c>
+      <c r="E58" s="71">
         <v>168000</v>
       </c>
-      <c r="F58" s="108">
-        <f>E58*D58</f>
+      <c r="F58" s="82">
+        <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="90">
+      <c r="A59" s="64">
         <v>9</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="107">
-        <v>1</v>
-      </c>
-      <c r="E59" s="97">
+      <c r="D59" s="81">
+        <v>1</v>
+      </c>
+      <c r="E59" s="71">
         <v>168000</v>
       </c>
-      <c r="F59" s="108">
-        <f>E59*D59</f>
+      <c r="F59" s="82">
+        <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="90">
+      <c r="A60" s="64">
         <v>10</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="107">
-        <v>1</v>
-      </c>
-      <c r="E60" s="97">
+      <c r="D60" s="81">
+        <v>1</v>
+      </c>
+      <c r="E60" s="71">
         <v>480000</v>
       </c>
-      <c r="F60" s="108">
-        <f>E60*D60</f>
+      <c r="F60" s="82">
+        <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="90">
+      <c r="A61" s="64">
         <v>11</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="107">
-        <v>1</v>
-      </c>
-      <c r="E61" s="97">
+      <c r="D61" s="81">
+        <v>1</v>
+      </c>
+      <c r="E61" s="71">
         <v>480000</v>
       </c>
-      <c r="F61" s="108">
-        <f>E61*D61</f>
+      <c r="F61" s="82">
+        <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="90">
+      <c r="A62" s="64">
         <v>12</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="107">
-        <v>1</v>
-      </c>
-      <c r="E62" s="97">
+      <c r="D62" s="81">
+        <v>1</v>
+      </c>
+      <c r="E62" s="71">
         <v>620000</v>
       </c>
-      <c r="F62" s="108">
-        <f>E62*D62</f>
+      <c r="F62" s="82">
+        <f t="shared" si="3"/>
         <v>620000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="90">
+      <c r="A63" s="64">
         <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="107" t="s">
+      <c r="C63" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="107">
-        <v>1</v>
-      </c>
-      <c r="E63" s="97">
+      <c r="D63" s="81">
+        <v>1</v>
+      </c>
+      <c r="E63" s="71">
         <v>515000</v>
       </c>
-      <c r="F63" s="108">
-        <f>E63*D63</f>
+      <c r="F63" s="82">
+        <f t="shared" si="3"/>
         <v>515000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="90">
+      <c r="A64" s="64">
         <v>14</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="107">
-        <v>1</v>
-      </c>
-      <c r="E64" s="97">
+      <c r="D64" s="81">
+        <v>1</v>
+      </c>
+      <c r="E64" s="71">
         <v>610000</v>
       </c>
-      <c r="F64" s="108">
-        <f>E64*D64</f>
+      <c r="F64" s="82">
+        <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+      <c r="A65" s="64">
         <v>15</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="107">
-        <v>1</v>
-      </c>
-      <c r="E65" s="97">
+      <c r="D65" s="81">
+        <v>1</v>
+      </c>
+      <c r="E65" s="71">
         <v>670000</v>
       </c>
-      <c r="F65" s="108">
-        <f>E65*D65</f>
+      <c r="F65" s="82">
+        <f t="shared" si="3"/>
         <v>670000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="90">
+      <c r="A66" s="64">
         <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="107" t="s">
+      <c r="C66" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="107">
-        <v>1</v>
-      </c>
-      <c r="E66" s="97">
+      <c r="D66" s="81">
+        <v>1</v>
+      </c>
+      <c r="E66" s="71">
         <v>590000</v>
       </c>
-      <c r="F66" s="108">
-        <f>E66*D66</f>
+      <c r="F66" s="82">
+        <f t="shared" si="3"/>
         <v>590000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
-      <c r="B67" s="99" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100">
+      <c r="C67" s="74"/>
+      <c r="D67" s="74">
         <f>SUM(D51:D66)</f>
         <v>16</v>
       </c>
-      <c r="E67" s="101"/>
-      <c r="F67" s="102">
+      <c r="E67" s="75"/>
+      <c r="F67" s="76">
         <f>SUM(F51:F66)</f>
         <v>6208000</v>
       </c>
@@ -3496,310 +3540,310 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="95" t="s">
+      <c r="B70" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="95" t="s">
+      <c r="D70" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="95" t="s">
+      <c r="E70" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="95" t="s">
+      <c r="F70" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="105">
-        <v>1</v>
-      </c>
-      <c r="B71" s="106" t="s">
+      <c r="A71" s="79">
+        <v>1</v>
+      </c>
+      <c r="B71" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="107" t="s">
+      <c r="C71" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="107">
-        <v>1</v>
-      </c>
-      <c r="E71" s="108">
+      <c r="D71" s="81">
+        <v>1</v>
+      </c>
+      <c r="E71" s="82">
         <v>340000</v>
       </c>
-      <c r="F71" s="108">
-        <f>E71*D71</f>
+      <c r="F71" s="82">
+        <f t="shared" ref="F71:F83" si="4">E71*D71</f>
         <v>340000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="90">
+      <c r="A72" s="64">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="107">
-        <v>1</v>
-      </c>
-      <c r="E72" s="97">
+      <c r="D72" s="81">
+        <v>1</v>
+      </c>
+      <c r="E72" s="71">
         <v>340000</v>
       </c>
-      <c r="F72" s="108">
-        <f>E72*D72</f>
+      <c r="F72" s="82">
+        <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="90">
+      <c r="A73" s="64">
         <v>3</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="107" t="s">
+      <c r="C73" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="107">
-        <v>1</v>
-      </c>
-      <c r="E73" s="97">
+      <c r="D73" s="81">
+        <v>1</v>
+      </c>
+      <c r="E73" s="71">
         <v>340000</v>
       </c>
-      <c r="F73" s="108">
-        <f>E73*D73</f>
+      <c r="F73" s="82">
+        <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="90">
+      <c r="A74" s="64">
         <v>4</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="107" t="s">
+      <c r="C74" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="107">
+      <c r="D74" s="81">
         <v>2</v>
       </c>
-      <c r="E74" s="97">
+      <c r="E74" s="71">
         <v>530000</v>
       </c>
-      <c r="F74" s="108">
-        <f>E74*D74</f>
+      <c r="F74" s="82">
+        <f t="shared" si="4"/>
         <v>1060000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="90">
+      <c r="A75" s="64">
         <v>5</v>
       </c>
-      <c r="B75" s="109" t="s">
+      <c r="B75" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="107" t="s">
+      <c r="C75" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="107">
+      <c r="D75" s="81">
         <v>2</v>
       </c>
-      <c r="E75" s="97">
+      <c r="E75" s="71">
         <v>250000</v>
       </c>
-      <c r="F75" s="108">
-        <f>E75*D75</f>
+      <c r="F75" s="82">
+        <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="64">
         <v>6</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="107" t="s">
+      <c r="C76" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="107">
+      <c r="D76" s="81">
         <v>3</v>
       </c>
-      <c r="E76" s="97">
+      <c r="E76" s="71">
         <v>120000</v>
       </c>
-      <c r="F76" s="108">
-        <f>E76*D76</f>
+      <c r="F76" s="82">
+        <f t="shared" si="4"/>
         <v>360000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="90">
+      <c r="A77" s="64">
         <v>7</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="107" t="s">
+      <c r="C77" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="107">
-        <v>1</v>
-      </c>
-      <c r="E77" s="97">
+      <c r="D77" s="81">
+        <v>1</v>
+      </c>
+      <c r="E77" s="71">
         <v>550000</v>
       </c>
-      <c r="F77" s="108">
-        <f>E77*D77</f>
+      <c r="F77" s="82">
+        <f t="shared" si="4"/>
         <v>550000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="90">
+      <c r="A78" s="64">
         <v>8</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="107" t="s">
+      <c r="C78" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="107">
-        <v>1</v>
-      </c>
-      <c r="E78" s="97">
+      <c r="D78" s="81">
+        <v>1</v>
+      </c>
+      <c r="E78" s="71">
         <v>415000</v>
       </c>
-      <c r="F78" s="108">
-        <f>E78*D78</f>
+      <c r="F78" s="82">
+        <f t="shared" si="4"/>
         <v>415000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+      <c r="A79" s="64">
         <v>9</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="107" t="s">
+      <c r="C79" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="107">
-        <v>1</v>
-      </c>
-      <c r="E79" s="97">
+      <c r="D79" s="81">
+        <v>1</v>
+      </c>
+      <c r="E79" s="71">
         <v>380000</v>
       </c>
-      <c r="F79" s="108">
-        <f>E79*D79</f>
+      <c r="F79" s="82">
+        <f t="shared" si="4"/>
         <v>380000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="90">
+      <c r="A80" s="64">
         <v>10</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="107" t="s">
+      <c r="C80" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="107">
+      <c r="D80" s="81">
         <v>2</v>
       </c>
-      <c r="E80" s="97">
+      <c r="E80" s="71">
         <v>620000</v>
       </c>
-      <c r="F80" s="108">
-        <f>E80*D80</f>
+      <c r="F80" s="82">
+        <f t="shared" si="4"/>
         <v>1240000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="90">
+      <c r="A81" s="64">
         <v>11</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="107" t="s">
+      <c r="C81" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="107">
-        <v>1</v>
-      </c>
-      <c r="E81" s="97">
+      <c r="D81" s="81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="71">
         <v>480000</v>
       </c>
-      <c r="F81" s="108">
-        <f>E81*D81</f>
+      <c r="F81" s="82">
+        <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="90">
+      <c r="A82" s="64">
         <v>12</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="107" t="s">
+      <c r="C82" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="107">
-        <v>1</v>
-      </c>
-      <c r="E82" s="97">
+      <c r="D82" s="81">
+        <v>1</v>
+      </c>
+      <c r="E82" s="71">
         <v>480000</v>
       </c>
-      <c r="F82" s="108">
-        <f>E82*D82</f>
+      <c r="F82" s="82">
+        <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="90">
+      <c r="A83" s="64">
         <v>13</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="107" t="s">
+      <c r="C83" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="107">
-        <v>1</v>
-      </c>
-      <c r="E83" s="97">
+      <c r="D83" s="81">
+        <v>1</v>
+      </c>
+      <c r="E83" s="71">
         <v>475000</v>
       </c>
-      <c r="F83" s="108">
-        <f>E83*D83</f>
+      <c r="F83" s="82">
+        <f t="shared" si="4"/>
         <v>475000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="111"/>
-      <c r="B84" s="99" t="s">
+      <c r="A84" s="85"/>
+      <c r="B84" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="100"/>
-      <c r="D84" s="100">
+      <c r="C84" s="74"/>
+      <c r="D84" s="74">
         <f>SUM(D71:D83)</f>
         <v>18</v>
       </c>
-      <c r="E84" s="101"/>
-      <c r="F84" s="102">
+      <c r="E84" s="75"/>
+      <c r="F84" s="76">
         <f>SUM(F71:F83)</f>
         <v>6960000</v>
       </c>
@@ -3820,15 +3864,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3866,379 +3910,399 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="60">
         <f>4*485000</f>
         <v>1940000</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="60">
+        <v>6360000</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="29">
         <f>'Nhập Hàng'!I26</f>
         <v>252285000</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="30">
-        <f>C2+C3-C4</f>
-        <v>25655000</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="30">
+        <f>C2+C3+C4-C5</f>
+        <v>32015000</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="76">
-        <v>200000000</v>
-      </c>
-      <c r="F7" s="80">
-        <f>SUM(E7:E14)</f>
-        <v>253227500</v>
-      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="76">
-        <v>6800000</v>
-      </c>
-      <c r="F8" s="80"/>
+      <c r="B8" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="56">
+        <v>200000000</v>
+      </c>
+      <c r="F8" s="113">
+        <f>SUM(E8:E15)</f>
+        <v>253227500</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="76">
-        <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84</f>
-        <v>43227500</v>
-      </c>
-      <c r="F9" s="80"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="112"/>
+      <c r="E9" s="56">
+        <v>6800000</v>
+      </c>
+      <c r="F9" s="113"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="76">
-        <v>130000</v>
-      </c>
-      <c r="F10" s="80"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="112"/>
+      <c r="E10" s="56">
+        <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84</f>
+        <v>43227500</v>
+      </c>
+      <c r="F10" s="113"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="76">
+      <c r="B11" s="114"/>
+      <c r="C11" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="56">
         <v>130000</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="76">
-        <v>260000</v>
-      </c>
-      <c r="F12" s="80"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="56">
+        <v>130000</v>
+      </c>
+      <c r="F12" s="113"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="76">
-        <v>1300000</v>
-      </c>
-      <c r="F13" s="80"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="56">
+        <v>260000</v>
+      </c>
+      <c r="F13" s="113"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="76">
-        <v>1380000</v>
-      </c>
-      <c r="F14" s="80"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="56">
+        <v>1300000</v>
+      </c>
+      <c r="F14" s="113"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="77">
-        <v>44040</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="32">
-        <v>5000000</v>
-      </c>
-      <c r="F15" s="80">
-        <f>SUM(E15:E22)</f>
-        <v>88000000</v>
-      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="56">
+        <v>1380000</v>
+      </c>
+      <c r="F15" s="113"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="77">
+      <c r="B16" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="116">
         <v>44040</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="32">
-        <v>10000000</v>
-      </c>
-      <c r="F16" s="80"/>
+        <v>5000000</v>
+      </c>
+      <c r="F16" s="120">
+        <f>SUM(E16:E24)</f>
+        <v>95000000</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="77">
-        <v>44049</v>
-      </c>
-      <c r="D17" s="77"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116">
+        <v>44040</v>
+      </c>
+      <c r="D17" s="116"/>
       <c r="E17" s="32">
-        <v>30000000</v>
-      </c>
-      <c r="F17" s="80"/>
+        <v>10000000</v>
+      </c>
+      <c r="F17" s="121"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="77">
-        <v>44054</v>
-      </c>
-      <c r="D18" s="77"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116">
+        <v>44049</v>
+      </c>
+      <c r="D18" s="116"/>
       <c r="E18" s="32">
-        <v>20000000</v>
-      </c>
-      <c r="F18" s="80"/>
+        <v>30000000</v>
+      </c>
+      <c r="F18" s="121"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="77">
-        <v>44060</v>
-      </c>
-      <c r="D19" s="77"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116">
+        <v>44054</v>
+      </c>
+      <c r="D19" s="116"/>
       <c r="E19" s="32">
-        <v>8000000</v>
-      </c>
-      <c r="F19" s="80"/>
+        <v>20000000</v>
+      </c>
+      <c r="F19" s="121"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="77">
-        <v>44068</v>
-      </c>
-      <c r="D20" s="77"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116">
+        <v>44060</v>
+      </c>
+      <c r="D20" s="116"/>
       <c r="E20" s="32">
-        <v>10000000</v>
-      </c>
-      <c r="F20" s="80"/>
+        <v>8000000</v>
+      </c>
+      <c r="F20" s="121"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="77">
-        <v>44076</v>
-      </c>
-      <c r="D21" s="77"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116">
+        <v>44068</v>
+      </c>
+      <c r="D21" s="116"/>
       <c r="E21" s="32">
-        <v>2000000</v>
-      </c>
-      <c r="F21" s="80"/>
+        <v>10000000</v>
+      </c>
+      <c r="F21" s="121"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="47"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="77">
-        <v>44085</v>
-      </c>
-      <c r="D22" s="77"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116">
+        <v>44076</v>
+      </c>
+      <c r="D22" s="116"/>
       <c r="E22" s="32">
-        <v>3000000</v>
-      </c>
-      <c r="F22" s="80"/>
+        <v>2000000</v>
+      </c>
+      <c r="F22" s="121"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="33">
-        <f>F7-F15</f>
-        <v>165227500</v>
-      </c>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116">
+        <v>44085</v>
+      </c>
+      <c r="D23" s="116"/>
+      <c r="E23" s="32">
+        <v>3000000</v>
+      </c>
+      <c r="F23" s="121"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="115"/>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="119">
+        <v>44137</v>
+      </c>
+      <c r="D24" s="119"/>
+      <c r="E24" s="118">
+        <v>7000000</v>
+      </c>
+      <c r="F24" s="122"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="114">
+      <c r="A25" s="4"/>
+      <c r="B25" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="33">
+        <f>F8-F16</f>
+        <v>158227500</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="87">
         <v>43982</v>
       </c>
-      <c r="C25" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112">
+      <c r="C27" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="111"/>
+      <c r="E27" s="86">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="114">
+      <c r="F27" s="123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="87">
         <v>43982</v>
       </c>
-      <c r="C26" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="112">
+      <c r="C28" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="111"/>
+      <c r="E28" s="86">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="116">
-        <f>F23-E25+E26</f>
-        <v>125227500</v>
+      <c r="F28" s="123"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="89">
+        <f>F25-E27+E28</f>
+        <v>118227500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="24">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B16:B23"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -4246,8 +4310,24 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4255,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -4270,7 +4350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập Hàng" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="134">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -385,9 +385,6 @@
     <t>5 bộ nồi chảo chống dính</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG ĐẾN 16/09/2020</t>
-  </si>
-  <si>
     <t>SỮA, BỈM LẤY HỘ</t>
   </si>
   <si>
@@ -397,25 +394,37 @@
     <t>(I) Số hàng đại lý nhập hàng theo hợp đồng  200.000.000 + 200.000.000*38%</t>
   </si>
   <si>
-    <t>(II) Hà Linh trả hàng (4 hộp BCX90)</t>
-  </si>
-  <si>
     <t>Công ty vay Linh</t>
   </si>
   <si>
     <t>Công ty trả</t>
   </si>
   <si>
-    <t>(III)8/10 Hà Linh trả hàng 4h 1CX45/12h 1CX90</t>
-  </si>
-  <si>
-    <t>(IV) Số hàng đã chuyển cho đại lý</t>
-  </si>
-  <si>
-    <t>Công ty cần chuyển cho đại lý số hàng (I)+(II)+(III)-(IV)</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>BẢNG TỔNG HỢP HÀ LINH NHẬP HÀNG ĐẾN 18/11/2020</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP HÀ LINH TRẢ HÀNG ĐẾN 18/11/2020</t>
+  </si>
+  <si>
+    <t>Ngày 18/11/2020 trả hàng sữa ngoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha Lipid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(II) Hà Linh trả hàng </t>
+  </si>
+  <si>
+    <t>Công ty cần chuyển cho đại lý số hàng (I)+(II)-(III)</t>
+  </si>
+  <si>
+    <t>(III) Số hàng đã chuyển cho đại lý</t>
+  </si>
+  <si>
+    <t>=158.227.500-50.000.000+10.000.000=</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,14 +512,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -526,6 +527,21 @@
     <font>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -550,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -669,9 +685,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -683,41 +701,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="hair">
         <color indexed="64"/>
@@ -748,45 +731,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
@@ -821,26 +765,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -865,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -928,7 +852,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -953,26 +876,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -986,19 +891,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,7 +906,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1030,40 +928,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,67 +1014,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1590,15 +1514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1607,14 +1531,9 @@
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1640,54 +1559,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="A3" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="96"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1708,45 +1627,45 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="89">
         <v>638</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>44048</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="89" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="53">
         <v>48</v>
       </c>
       <c r="H7" s="19">
         <v>225000</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" ref="I7:I25" si="0">G7*H7</f>
+        <f t="shared" ref="I7:I27" si="0">G7*H7</f>
         <v>10800000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="54">
         <v>36</v>
       </c>
       <c r="H8" s="21">
@@ -1758,15 +1677,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="54">
         <v>48</v>
       </c>
       <c r="H9" s="21">
@@ -1778,15 +1697,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="54">
         <v>24</v>
       </c>
       <c r="H10" s="21">
@@ -1798,15 +1717,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="54">
         <v>36</v>
       </c>
       <c r="H11" s="21">
@@ -1818,15 +1737,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="54">
         <v>24</v>
       </c>
       <c r="H12" s="21">
@@ -1838,15 +1757,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="54">
         <v>24</v>
       </c>
       <c r="H13" s="21">
@@ -1858,25 +1777,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="103">
+      <c r="A14" s="85">
         <v>622</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="87">
         <v>44040</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="85" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="54">
         <v>24</v>
       </c>
       <c r="H14" s="21">
@@ -1888,15 +1807,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="54">
         <v>36</v>
       </c>
       <c r="H15" s="21">
@@ -1908,15 +1827,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="54">
         <v>24</v>
       </c>
       <c r="H16" s="21">
@@ -1928,15 +1847,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="54">
         <v>48</v>
       </c>
       <c r="H17" s="21">
@@ -1948,15 +1867,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="54">
         <v>48</v>
       </c>
       <c r="H18" s="21">
@@ -1968,15 +1887,15 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="55">
         <v>36</v>
       </c>
       <c r="H19" s="23">
@@ -1988,25 +1907,25 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
+      <c r="A20" s="83">
         <v>662</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="81">
         <v>44077</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="83" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="54">
         <v>24</v>
       </c>
       <c r="H20" s="21">
@@ -2018,15 +1937,15 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="54">
         <v>12</v>
       </c>
       <c r="H21" s="21">
@@ -2038,15 +1957,15 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="54">
         <v>24</v>
       </c>
       <c r="H22" s="21">
@@ -2058,48 +1977,48 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="61" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="56">
         <v>12</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="52">
         <v>485000</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="52">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="89">
         <v>792</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <v>44085</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="89" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="53">
         <v>9</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="52">
         <v>225000</v>
       </c>
       <c r="I24" s="19">
@@ -2108,18 +2027,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="55">
         <v>36</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="52">
         <v>455000</v>
       </c>
       <c r="I25" s="23">
@@ -2127,96 +2046,389 @@
         <v>16380000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="89">
+        <v>1234</v>
+      </c>
+      <c r="B26" s="90">
+        <v>44150</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="53">
+        <v>48</v>
+      </c>
+      <c r="H26" s="52">
+        <v>455000</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="0"/>
+        <v>21840000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="86"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="55">
+        <v>12</v>
+      </c>
+      <c r="H27" s="52">
+        <v>485000</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="53">
-        <f>SUM(G7:G25)</f>
-        <v>573</v>
-      </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="24">
-        <f>SUM(I7:I25)</f>
-        <v>252285000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="H28" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="37"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="51"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="51"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="51"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="51"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="46">
+        <f>SUM(G7:G27)</f>
+        <v>633</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="I28" s="24">
+        <f>SUM(I7:I27)</f>
+        <v>279945000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="125"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+    </row>
+    <row r="33" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+    </row>
+    <row r="34" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="75">
+        <v>663</v>
+      </c>
+      <c r="B35" s="103">
+        <v>44077</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="53">
+        <v>4</v>
+      </c>
+      <c r="H35" s="104">
+        <v>485000</v>
+      </c>
+      <c r="I35" s="19">
+        <f>G35*H35</f>
+        <v>1940000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89">
+        <v>815</v>
+      </c>
+      <c r="B36" s="90">
+        <v>44112</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="53">
+        <v>4</v>
+      </c>
+      <c r="H36" s="106">
+        <v>225000</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" ref="I36:I37" si="1">H36*G36</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="55">
+        <v>12</v>
+      </c>
+      <c r="H37" s="23">
+        <v>455000</v>
+      </c>
+      <c r="I37" s="23">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="107">
+        <v>1241</v>
+      </c>
+      <c r="B38" s="108">
+        <v>44153</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="53">
+        <v>12</v>
+      </c>
+      <c r="H38" s="19">
+        <v>485000</v>
+      </c>
+      <c r="I38" s="19">
+        <f>G38*H38</f>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="54">
+        <v>36</v>
+      </c>
+      <c r="H39" s="21">
+        <v>485000</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" ref="I39:I40" si="2">G39*H39</f>
+        <v>17460000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="55">
+        <v>19</v>
+      </c>
+      <c r="H40" s="23">
+        <v>550000</v>
+      </c>
+      <c r="I40" s="23">
+        <f t="shared" si="2"/>
+        <v>10450000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="79">
+        <f>SUM(G35:G40)</f>
+        <v>87</v>
+      </c>
+      <c r="H41" s="45"/>
+      <c r="I41" s="24">
+        <f>SUM(I35:I40)</f>
+        <v>42030000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="H47" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="31"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="36"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="44"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="35"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="44"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="44"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="35"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
+  <mergeCells count="50">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
@@ -2224,6 +2436,22 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -2237,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F86"/>
+  <dimension ref="A2:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,18 +2482,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="A2" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="4"/>
@@ -2274,211 +2502,211 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64">
+      <c r="A5" s="54">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="60">
         <v>2</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="61">
         <v>345000</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="61">
         <f t="shared" ref="F5:F12" si="0">D5*E5</f>
         <v>690000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="60">
         <v>1</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="61">
         <v>350000</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="61">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="54">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="60">
         <v>2</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="61">
         <v>345000</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="61">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="54">
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="61">
         <v>345000</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="54">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="60">
         <v>1</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="61">
         <v>475000</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="54">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="60">
         <v>2</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="61">
         <v>380000</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="61">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="54">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="60">
         <v>2</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="61">
         <v>490000</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="61">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="A12" s="54">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="60">
         <v>2</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="61">
         <v>445000</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="61">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64">
         <f>SUM(D5:D12)</f>
         <v>14</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76">
+      <c r="E13" s="65"/>
+      <c r="F13" s="66">
         <f>SUM(F5:F12)</f>
         <v>5525000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2486,263 +2714,263 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
+      <c r="A17" s="69">
         <v>1</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="71">
         <v>12</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="72">
         <v>180000</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="72">
         <f t="shared" ref="F17:F26" si="1">D17*E17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="A18" s="54">
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="60">
         <v>12</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="61">
         <v>180000</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="54">
         <v>3</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="60">
         <v>12</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="61">
         <v>180000</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="64">
+      <c r="A20" s="54">
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="60">
         <v>12</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="61">
         <v>180000</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+      <c r="A21" s="54">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="60">
         <v>12</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="61">
         <v>180000</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+      <c r="A22" s="54">
         <v>6</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="60">
         <v>12</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="61">
         <v>180000</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+      <c r="A23" s="54">
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="60">
         <v>12</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="61">
         <v>180000</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+      <c r="A24" s="54">
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="60">
         <v>12</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="61">
         <v>180000</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+      <c r="A25" s="54">
         <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="60">
         <v>12</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="61">
         <v>180000</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+      <c r="A26" s="54">
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="60">
         <v>12</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="61">
         <v>180000</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="61">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64">
         <f ca="1">SUM(D17:D58)</f>
         <v>168</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76">
+      <c r="E27" s="65"/>
+      <c r="F27" s="66">
         <f>SUM(F17:F26)</f>
         <v>21600000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2750,7 +2978,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="31" t="s">
         <v>69</v>
       </c>
@@ -2760,387 +2988,387 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
+      <c r="A31" s="54">
         <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="60">
         <v>1</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="61">
         <v>67000</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="61">
         <f t="shared" ref="F31:F46" si="2">D31*E31</f>
         <v>67000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+      <c r="A32" s="54">
         <v>2</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="60">
         <v>1</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="61">
         <v>94000</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="61">
         <f t="shared" si="2"/>
         <v>94000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
+      <c r="A33" s="54">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="60">
         <v>1</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="61">
         <v>102000</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="61">
         <f t="shared" si="2"/>
         <v>102000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="64">
+      <c r="A34" s="54">
         <v>4</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="60">
         <v>1</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="61">
         <v>187000</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="61">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
+      <c r="A35" s="54">
         <v>5</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="60">
         <v>1</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="61">
         <v>187000</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="61">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
+      <c r="A36" s="54">
         <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="60">
         <v>1</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="61">
         <v>173000</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="61">
         <f t="shared" si="2"/>
         <v>173000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
+      <c r="A37" s="54">
         <v>7</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="60">
         <v>2</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="61">
         <v>170000</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="61">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
+      <c r="A38" s="54">
         <v>8</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="60">
         <v>2</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="61">
         <v>170000</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="61">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
+      <c r="A39" s="54">
         <v>9</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="60">
         <v>2</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="61">
         <v>170000</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="61">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
+      <c r="A40" s="54">
         <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="60">
         <v>1</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="61">
         <v>170000</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="61">
         <f t="shared" si="2"/>
         <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
+      <c r="A41" s="54">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="60">
         <v>1</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="61">
         <v>76500</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="61">
         <f t="shared" si="2"/>
         <v>76500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
+      <c r="A42" s="54">
         <v>12</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="60">
         <v>1</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="61">
         <v>162000</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="61">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="54">
         <v>13</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="60">
         <v>1</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="61">
         <v>178000</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F43" s="61">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
+      <c r="A44" s="54">
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="60">
         <v>1</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="61">
         <v>162000</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="61">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64">
+      <c r="A45" s="54">
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="60">
         <v>1</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="61">
         <v>178000</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="61">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="64">
+      <c r="A46" s="54">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="60">
         <v>1</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="61">
         <v>178000</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="61">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74">
+      <c r="C47" s="64"/>
+      <c r="D47" s="64">
         <f>SUM(D31:D46)</f>
         <v>19</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76">
+      <c r="E47" s="65"/>
+      <c r="F47" s="66">
         <f>SUM(F31:F46)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="31" t="s">
         <v>68</v>
       </c>
@@ -3150,379 +3378,379 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="69" t="s">
+      <c r="F50" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="79">
+      <c r="A51" s="69">
         <v>1</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="71">
         <v>1</v>
       </c>
-      <c r="E51" s="82">
+      <c r="E51" s="72">
         <v>192000</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="72">
         <f t="shared" ref="F51:F66" si="3">E51*D51</f>
         <v>192000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
+      <c r="A52" s="54">
         <v>2</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="71">
         <v>1</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="61">
         <v>262000</v>
       </c>
-      <c r="F52" s="82">
+      <c r="F52" s="72">
         <f t="shared" si="3"/>
         <v>262000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="64">
+      <c r="A53" s="54">
         <v>3</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="71">
         <v>1</v>
       </c>
-      <c r="E53" s="71">
+      <c r="E53" s="61">
         <v>218000</v>
       </c>
-      <c r="F53" s="82">
+      <c r="F53" s="72">
         <f t="shared" si="3"/>
         <v>218000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="64">
+      <c r="A54" s="54">
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="71">
         <v>1</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="61">
         <v>403000</v>
       </c>
-      <c r="F54" s="82">
+      <c r="F54" s="72">
         <f t="shared" si="3"/>
         <v>403000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="64">
+      <c r="A55" s="54">
         <v>5</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="81">
+      <c r="D55" s="71">
         <v>1</v>
       </c>
-      <c r="E55" s="71">
+      <c r="E55" s="61">
         <v>186000</v>
       </c>
-      <c r="F55" s="82">
+      <c r="F55" s="72">
         <f t="shared" si="3"/>
         <v>186000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="A56" s="54">
         <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="81">
+      <c r="D56" s="71">
         <v>1</v>
       </c>
-      <c r="E56" s="71">
+      <c r="E56" s="61">
         <v>341000</v>
       </c>
-      <c r="F56" s="82">
+      <c r="F56" s="72">
         <f t="shared" si="3"/>
         <v>341000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="64">
+      <c r="A57" s="54">
         <v>7</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="81">
+      <c r="D57" s="71">
         <v>1</v>
       </c>
-      <c r="E57" s="71">
+      <c r="E57" s="61">
         <v>305000</v>
       </c>
-      <c r="F57" s="82">
+      <c r="F57" s="72">
         <f t="shared" si="3"/>
         <v>305000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="64">
+      <c r="A58" s="54">
         <v>8</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="81">
+      <c r="D58" s="71">
         <v>1</v>
       </c>
-      <c r="E58" s="71">
+      <c r="E58" s="61">
         <v>168000</v>
       </c>
-      <c r="F58" s="82">
+      <c r="F58" s="72">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="64">
+      <c r="A59" s="54">
         <v>9</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C59" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="81">
+      <c r="D59" s="71">
         <v>1</v>
       </c>
-      <c r="E59" s="71">
+      <c r="E59" s="61">
         <v>168000</v>
       </c>
-      <c r="F59" s="82">
+      <c r="F59" s="72">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="64">
+      <c r="A60" s="54">
         <v>10</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="71">
         <v>1</v>
       </c>
-      <c r="E60" s="71">
+      <c r="E60" s="61">
         <v>480000</v>
       </c>
-      <c r="F60" s="82">
+      <c r="F60" s="72">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="64">
+      <c r="A61" s="54">
         <v>11</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="71">
         <v>1</v>
       </c>
-      <c r="E61" s="71">
+      <c r="E61" s="61">
         <v>480000</v>
       </c>
-      <c r="F61" s="82">
+      <c r="F61" s="72">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="64">
+      <c r="A62" s="54">
         <v>12</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="71">
         <v>1</v>
       </c>
-      <c r="E62" s="71">
+      <c r="E62" s="61">
         <v>620000</v>
       </c>
-      <c r="F62" s="82">
+      <c r="F62" s="72">
         <f t="shared" si="3"/>
         <v>620000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="64">
+      <c r="A63" s="54">
         <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="81">
+      <c r="D63" s="71">
         <v>1</v>
       </c>
-      <c r="E63" s="71">
+      <c r="E63" s="61">
         <v>515000</v>
       </c>
-      <c r="F63" s="82">
+      <c r="F63" s="72">
         <f t="shared" si="3"/>
         <v>515000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="64">
+      <c r="A64" s="54">
         <v>14</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="81">
+      <c r="D64" s="71">
         <v>1</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="61">
         <v>610000</v>
       </c>
-      <c r="F64" s="82">
+      <c r="F64" s="72">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="64">
+      <c r="A65" s="54">
         <v>15</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="81">
+      <c r="D65" s="71">
         <v>1</v>
       </c>
-      <c r="E65" s="71">
+      <c r="E65" s="61">
         <v>670000</v>
       </c>
-      <c r="F65" s="82">
+      <c r="F65" s="72">
         <f t="shared" si="3"/>
         <v>670000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="64">
+      <c r="A66" s="54">
         <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="81">
+      <c r="D66" s="71">
         <v>1</v>
       </c>
-      <c r="E66" s="71">
+      <c r="E66" s="61">
         <v>590000</v>
       </c>
-      <c r="F66" s="82">
+      <c r="F66" s="72">
         <f t="shared" si="3"/>
         <v>590000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="73" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64">
         <f>SUM(D51:D66)</f>
         <v>16</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="76">
+      <c r="E67" s="65"/>
+      <c r="F67" s="66">
         <f>SUM(F51:F66)</f>
         <v>6208000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="4"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -3530,7 +3758,7 @@
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="31" t="s">
         <v>98</v>
       </c>
@@ -3540,317 +3768,379 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="69" t="s">
+      <c r="E70" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="69" t="s">
+      <c r="F70" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="79">
+      <c r="A71" s="69">
         <v>1</v>
       </c>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="71">
         <v>1</v>
       </c>
-      <c r="E71" s="82">
+      <c r="E71" s="72">
         <v>340000</v>
       </c>
-      <c r="F71" s="82">
+      <c r="F71" s="72">
         <f t="shared" ref="F71:F83" si="4">E71*D71</f>
         <v>340000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="64">
+      <c r="A72" s="54">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="81">
+      <c r="D72" s="71">
         <v>1</v>
       </c>
-      <c r="E72" s="71">
+      <c r="E72" s="61">
         <v>340000</v>
       </c>
-      <c r="F72" s="82">
+      <c r="F72" s="72">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="64">
+      <c r="A73" s="54">
         <v>3</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C73" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="71">
         <v>1</v>
       </c>
-      <c r="E73" s="71">
+      <c r="E73" s="61">
         <v>340000</v>
       </c>
-      <c r="F73" s="82">
+      <c r="F73" s="72">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="64">
+      <c r="A74" s="54">
         <v>4</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="81">
+      <c r="D74" s="71">
         <v>2</v>
       </c>
-      <c r="E74" s="71">
+      <c r="E74" s="61">
         <v>530000</v>
       </c>
-      <c r="F74" s="82">
+      <c r="F74" s="72">
         <f t="shared" si="4"/>
         <v>1060000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="64">
+      <c r="A75" s="54">
         <v>5</v>
       </c>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="81">
+      <c r="D75" s="71">
         <v>2</v>
       </c>
-      <c r="E75" s="71">
+      <c r="E75" s="61">
         <v>250000</v>
       </c>
-      <c r="F75" s="82">
+      <c r="F75" s="72">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="64">
+      <c r="A76" s="54">
         <v>6</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="81">
+      <c r="D76" s="71">
         <v>3</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="61">
         <v>120000</v>
       </c>
-      <c r="F76" s="82">
+      <c r="F76" s="72">
         <f t="shared" si="4"/>
         <v>360000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="64">
+      <c r="A77" s="54">
         <v>7</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="81" t="s">
+      <c r="C77" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="81">
+      <c r="D77" s="71">
         <v>1</v>
       </c>
-      <c r="E77" s="71">
+      <c r="E77" s="61">
         <v>550000</v>
       </c>
-      <c r="F77" s="82">
+      <c r="F77" s="72">
         <f t="shared" si="4"/>
         <v>550000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="64">
+      <c r="A78" s="54">
         <v>8</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="81">
+      <c r="D78" s="71">
         <v>1</v>
       </c>
-      <c r="E78" s="71">
+      <c r="E78" s="61">
         <v>415000</v>
       </c>
-      <c r="F78" s="82">
+      <c r="F78" s="72">
         <f t="shared" si="4"/>
         <v>415000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="64">
+      <c r="A79" s="54">
         <v>9</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="C79" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="81">
+      <c r="D79" s="71">
         <v>1</v>
       </c>
-      <c r="E79" s="71">
+      <c r="E79" s="61">
         <v>380000</v>
       </c>
-      <c r="F79" s="82">
+      <c r="F79" s="72">
         <f t="shared" si="4"/>
         <v>380000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="64">
+      <c r="A80" s="54">
         <v>10</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="C80" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="81">
+      <c r="D80" s="71">
         <v>2</v>
       </c>
-      <c r="E80" s="71">
+      <c r="E80" s="61">
         <v>620000</v>
       </c>
-      <c r="F80" s="82">
+      <c r="F80" s="72">
         <f t="shared" si="4"/>
         <v>1240000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="64">
+      <c r="A81" s="54">
         <v>11</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="81">
+      <c r="D81" s="71">
         <v>1</v>
       </c>
-      <c r="E81" s="71">
+      <c r="E81" s="61">
         <v>480000</v>
       </c>
-      <c r="F81" s="82">
+      <c r="F81" s="72">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="64">
+      <c r="A82" s="54">
         <v>12</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="81" t="s">
+      <c r="C82" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="81">
+      <c r="D82" s="71">
         <v>1</v>
       </c>
-      <c r="E82" s="71">
+      <c r="E82" s="61">
         <v>480000</v>
       </c>
-      <c r="F82" s="82">
+      <c r="F82" s="72">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="64">
+      <c r="A83" s="54">
         <v>13</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="81">
+      <c r="D83" s="71">
         <v>1</v>
       </c>
-      <c r="E83" s="71">
+      <c r="E83" s="61">
         <v>475000</v>
       </c>
-      <c r="F83" s="82">
+      <c r="F83" s="72">
         <f t="shared" si="4"/>
         <v>475000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="73" t="s">
+      <c r="A84" s="75"/>
+      <c r="B84" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74">
+      <c r="C84" s="64"/>
+      <c r="D84" s="64">
         <f>SUM(D71:D83)</f>
         <v>18</v>
       </c>
-      <c r="E84" s="75"/>
-      <c r="F84" s="76">
+      <c r="E84" s="65"/>
+      <c r="F84" s="66">
         <f>SUM(F71:F83)</f>
         <v>6960000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D86" s="25" t="s">
-        <v>122</v>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="69">
+        <v>1</v>
+      </c>
+      <c r="B88" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="71">
+        <v>19</v>
+      </c>
+      <c r="E88" s="72">
+        <v>160000</v>
+      </c>
+      <c r="F88" s="72">
+        <f t="shared" ref="F88" si="5">E88*D88</f>
+        <v>3040000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
+      <c r="B89" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64">
+        <f>D88</f>
+        <v>19</v>
+      </c>
+      <c r="E89" s="65"/>
+      <c r="F89" s="66">
+        <f>F88</f>
+        <v>3040000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D91" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3864,23 +4154,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -3889,420 +4179,360 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="41" t="s">
-        <v>123</v>
+      <c r="B2" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="28">
         <f>200000000+200000000*38%</f>
         <v>276000000</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="60">
-        <f>4*485000</f>
-        <v>1940000</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="50">
+        <f>'Nhập Hàng'!I41</f>
+        <v>42030000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="60">
-        <v>6360000</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="29">
+        <f>'Nhập Hàng'!I28</f>
+        <v>279945000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="29">
-        <f>'Nhập Hàng'!I26</f>
-        <v>252285000</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="30">
-        <f>C2+C3+C4-C5</f>
-        <v>32015000</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="B5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="30">
+        <f>C2-C4+C3</f>
+        <v>38085000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113">
+        <v>200000000</v>
+      </c>
+      <c r="F7" s="114">
+        <f>SUM(E7:E14)</f>
+        <v>250187500</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="114" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="111"/>
       <c r="C8" s="112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="112"/>
-      <c r="E8" s="56">
-        <v>200000000</v>
-      </c>
-      <c r="F8" s="113">
-        <f>SUM(E8:E15)</f>
-        <v>253227500</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="113">
+        <v>6800000</v>
+      </c>
+      <c r="F8" s="114"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="114"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="112" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D9" s="112"/>
-      <c r="E9" s="56">
-        <v>6800000</v>
-      </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="113">
+        <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84-'SỮA NGOẠI'!F89</f>
+        <v>40187500</v>
+      </c>
+      <c r="F9" s="114"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="114"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="112" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D10" s="112"/>
-      <c r="E10" s="56">
-        <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84</f>
-        <v>43227500</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="113">
+        <v>130000</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="114"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="112"/>
-      <c r="E11" s="56">
+      <c r="E11" s="113">
         <v>130000</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="114"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="114"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="112"/>
-      <c r="E12" s="56">
-        <v>130000</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="113">
+        <v>260000</v>
+      </c>
+      <c r="F12" s="114"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="114"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="112"/>
-      <c r="E13" s="56">
-        <v>260000</v>
-      </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="113">
+        <v>1300000</v>
+      </c>
+      <c r="F13" s="114"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="114"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="112"/>
-      <c r="E14" s="56">
-        <v>1300000</v>
-      </c>
-      <c r="F14" s="113"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="113">
+        <v>1380000</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="56">
-        <v>1380000</v>
-      </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="116">
+        <v>44040</v>
+      </c>
+      <c r="D15" s="116"/>
+      <c r="E15" s="65">
+        <v>5000000</v>
+      </c>
+      <c r="F15" s="117">
+        <f>SUM(E15:E23)</f>
+        <v>95000000</v>
+      </c>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="115" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="115"/>
       <c r="C16" s="116">
         <v>44040</v>
       </c>
       <c r="D16" s="116"/>
-      <c r="E16" s="32">
-        <v>5000000</v>
-      </c>
-      <c r="F16" s="120">
-        <f>SUM(E16:E24)</f>
-        <v>95000000</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="65">
+        <v>10000000</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="115"/>
       <c r="C17" s="116">
-        <v>44040</v>
+        <v>44049</v>
       </c>
       <c r="D17" s="116"/>
-      <c r="E17" s="32">
-        <v>10000000</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="65">
+        <v>30000000</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="115"/>
       <c r="C18" s="116">
-        <v>44049</v>
+        <v>44054</v>
       </c>
       <c r="D18" s="116"/>
-      <c r="E18" s="32">
-        <v>30000000</v>
-      </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="65">
+        <v>20000000</v>
+      </c>
+      <c r="F18" s="118"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116">
-        <v>44054</v>
+        <v>44060</v>
       </c>
       <c r="D19" s="116"/>
-      <c r="E19" s="32">
-        <v>20000000</v>
-      </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="65">
+        <v>8000000</v>
+      </c>
+      <c r="F19" s="118"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="115"/>
       <c r="C20" s="116">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="D20" s="116"/>
-      <c r="E20" s="32">
-        <v>8000000</v>
-      </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="65">
+        <v>10000000</v>
+      </c>
+      <c r="F20" s="118"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116">
-        <v>44068</v>
+        <v>44076</v>
       </c>
       <c r="D21" s="116"/>
-      <c r="E21" s="32">
-        <v>10000000</v>
-      </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="65">
+        <v>2000000</v>
+      </c>
+      <c r="F21" s="118"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116">
-        <v>44076</v>
+        <v>44085</v>
       </c>
       <c r="D22" s="116"/>
-      <c r="E22" s="32">
-        <v>2000000</v>
-      </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="65">
+        <v>3000000</v>
+      </c>
+      <c r="F22" s="118"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116">
-        <v>44085</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="32">
-        <v>3000000</v>
-      </c>
-      <c r="F23" s="121"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="119"/>
+      <c r="C23" s="120">
+        <v>44137</v>
+      </c>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121">
+        <v>7000000</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119">
-        <v>44137</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="118">
-        <v>7000000</v>
-      </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="33">
-        <f>F8-F16</f>
-        <v>158227500</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="88"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="87">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="32">
+        <f>F7-F15</f>
+        <v>155187500</v>
+      </c>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="77">
         <v>43982</v>
       </c>
-      <c r="C27" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="86">
+      <c r="C26" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="76">
         <v>50000000</v>
       </c>
-      <c r="F27" s="123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="87">
+      <c r="F26" s="101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="77">
         <v>43982</v>
       </c>
-      <c r="C28" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="86">
+      <c r="C27" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="102"/>
+      <c r="E27" s="76">
         <v>10000000</v>
       </c>
-      <c r="F28" s="123"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="89">
-        <f>F25-E27+E28</f>
-        <v>118227500</v>
+      <c r="F27" s="101"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="109">
+        <f>F24-E26+E27</f>
+        <v>115187500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B16:B23"/>
+  <mergeCells count="25">
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -4310,24 +4540,13 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.12" right="0.21" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4380,16 +4599,16 @@
       </c>
     </row>
     <row r="13" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="35"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
+      <c r="C16" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập Hàng" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -954,99 +954,107 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,21 +1069,15 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1559,54 +1561,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1627,19 +1629,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7" s="92">
         <v>638</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="94">
         <v>44048</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1657,11 +1659,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1677,11 +1679,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1697,11 +1699,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1717,11 +1719,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1737,11 +1739,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1757,11 +1759,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1777,19 +1779,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="109">
         <v>622</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="110">
         <v>44040</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="109" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1807,11 +1809,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1827,11 +1829,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1847,11 +1849,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1867,11 +1869,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -1887,11 +1889,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -1907,19 +1909,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="83">
+      <c r="A20" s="113">
         <v>662</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="111">
         <v>44077</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="113" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -1937,11 +1939,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
@@ -1957,11 +1959,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="20" t="s">
         <v>112</v>
       </c>
@@ -1977,11 +1979,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="51" t="s">
         <v>18</v>
       </c>
@@ -1997,19 +1999,19 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+      <c r="A24" s="92">
         <v>792</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="94">
         <v>44085</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="18" t="s">
@@ -2027,11 +2029,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
@@ -2047,19 +2049,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="92">
         <v>1234</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="94">
         <v>44150</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -2077,11 +2079,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
@@ -2097,14 +2099,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="46">
         <f>SUM(G7:G27)</f>
         <v>633</v>
@@ -2116,54 +2118,54 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="125"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="33" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97" t="s">
+      <c r="E33" s="104"/>
+      <c r="F33" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="107"/>
     </row>
     <row r="34" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="93"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2189,7 @@
       <c r="A35" s="75">
         <v>663</v>
       </c>
-      <c r="B35" s="103">
+      <c r="B35" s="80">
         <v>44077</v>
       </c>
       <c r="C35" s="75" t="s">
@@ -2205,7 +2207,7 @@
       <c r="G35" s="53">
         <v>4</v>
       </c>
-      <c r="H35" s="104">
+      <c r="H35" s="81">
         <v>485000</v>
       </c>
       <c r="I35" s="19">
@@ -2213,20 +2215,20 @@
         <v>1940000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+    <row r="36" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92">
         <v>815</v>
       </c>
-      <c r="B36" s="90">
+      <c r="B36" s="94">
         <v>44112</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="18" t="s">
@@ -2235,7 +2237,7 @@
       <c r="G36" s="53">
         <v>4</v>
       </c>
-      <c r="H36" s="106">
+      <c r="H36" s="83">
         <v>225000</v>
       </c>
       <c r="I36" s="19">
@@ -2243,12 +2245,12 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
+    <row r="37" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="93"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="22" t="s">
         <v>15</v>
       </c>
@@ -2264,19 +2266,19 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="107">
+      <c r="A38" s="96">
         <v>1241</v>
       </c>
-      <c r="B38" s="108">
+      <c r="B38" s="98">
         <v>44153</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="107" t="s">
+      <c r="E38" s="96" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -2294,11 +2296,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="20" t="s">
         <v>18</v>
       </c>
@@ -2314,11 +2316,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="22" t="s">
         <v>20</v>
       </c>
@@ -2334,14 +2336,14 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="79">
         <f>SUM(G35:G40)</f>
         <v>87</v>
@@ -2407,6 +2409,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
@@ -2423,40 +2459,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2467,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
@@ -2482,14 +2484,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -4156,7 +4158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4165,7 +4167,7 @@
     <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4234,17 +4236,17 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113">
+      <c r="D7" s="119"/>
+      <c r="E7" s="85">
         <v>200000000</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="117">
         <f>SUM(E7:E14)</f>
         <v>250187500</v>
       </c>
@@ -4252,109 +4254,109 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113">
+      <c r="D8" s="119"/>
+      <c r="E8" s="85">
         <v>6800000</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113">
+      <c r="D9" s="119"/>
+      <c r="E9" s="85">
         <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84-'SỮA NGOẠI'!F89</f>
         <v>40187500</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113">
+      <c r="D10" s="119"/>
+      <c r="E10" s="85">
         <v>130000</v>
       </c>
-      <c r="F10" s="114"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113">
+      <c r="D11" s="119"/>
+      <c r="E11" s="85">
         <v>130000</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113">
+      <c r="D12" s="119"/>
+      <c r="E12" s="85">
         <v>260000</v>
       </c>
-      <c r="F12" s="114"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113">
+      <c r="D13" s="119"/>
+      <c r="E13" s="85">
         <v>1300000</v>
       </c>
-      <c r="F13" s="114"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113">
+      <c r="D14" s="119"/>
+      <c r="E14" s="85">
         <v>1380000</v>
       </c>
-      <c r="F14" s="114"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="122">
         <v>44040</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="65">
         <v>5000000</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="123">
         <f>SUM(E15:E23)</f>
         <v>95000000</v>
       </c>
@@ -4362,106 +4364,106 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116">
+      <c r="B16" s="121"/>
+      <c r="C16" s="122">
         <v>44040</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="65">
         <v>10000000</v>
       </c>
-      <c r="F16" s="118"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116">
+      <c r="B17" s="121"/>
+      <c r="C17" s="122">
         <v>44049</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="65">
         <v>30000000</v>
       </c>
-      <c r="F17" s="118"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116">
+      <c r="B18" s="121"/>
+      <c r="C18" s="122">
         <v>44054</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="65">
         <v>20000000</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116">
+      <c r="B19" s="121"/>
+      <c r="C19" s="122">
         <v>44060</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="65">
         <v>8000000</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116">
+      <c r="B20" s="121"/>
+      <c r="C20" s="122">
         <v>44068</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="65">
         <v>10000000</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116">
+      <c r="B21" s="121"/>
+      <c r="C21" s="122">
         <v>44076</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="65">
         <v>2000000</v>
       </c>
-      <c r="F21" s="118"/>
+      <c r="F21" s="124"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116">
+      <c r="B22" s="121"/>
+      <c r="C22" s="122">
         <v>44085</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="65">
         <v>3000000</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120">
+      <c r="B23" s="86"/>
+      <c r="C23" s="127">
         <v>44137</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121">
+      <c r="D23" s="127"/>
+      <c r="E23" s="87">
         <v>7000000</v>
       </c>
-      <c r="F23" s="122"/>
+      <c r="F23" s="125"/>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4482,14 +4484,14 @@
       <c r="B26" s="77">
         <v>43982</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="102"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="76">
         <v>50000000</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="120" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4497,28 +4499,37 @@
       <c r="B27" s="77">
         <v>43982</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="102"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="76">
         <v>10000000</v>
       </c>
-      <c r="F27" s="101"/>
+      <c r="F27" s="120"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="109">
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="84">
         <f>F24-E26+E27</f>
         <v>115187500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="B7:B14"/>
@@ -4535,15 +4546,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.21" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Tình trạng thanh toán</t>
   </si>
   <si>
-    <t>Cần phải thanh toán</t>
-  </si>
-  <si>
     <t>Còn nợ công ty</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>Công ty CP ĐT&amp;PT Nanomilk</t>
   </si>
   <si>
-    <t>(I) Số hàng đại lý nhập hàng theo hợp đồng  200.000.000 + 200.000.000*38%</t>
-  </si>
-  <si>
     <t>Công ty vay Linh</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>BẢNG TỔNG HỢP HÀ LINH TRẢ HÀNG ĐẾN 18/11/2020</t>
   </si>
   <si>
-    <t>Ngày 18/11/2020 trả hàng sữa ngoại</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha Lipid </t>
   </si>
   <si>
@@ -421,10 +412,38 @@
     <t>(III) Số hàng đã chuyển cho đại lý</t>
   </si>
   <si>
-    <t>=158.227.500-50.000.000+10.000.000=</t>
-  </si>
-  <si>
-    <t>??</t>
+    <t>(I) Số hàng đại lý nhập hàng theo hợp đồng                                       200.000.000 + 200.000.000*38%</t>
+  </si>
+  <si>
+    <t>=155.187.500-50.000.000+10.000.000=</t>
+  </si>
+  <si>
+    <r>
+      <t>Ngày 18/11/2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trả</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hàng sữa ngoại</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -534,19 +553,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +582,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -784,12 +807,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -870,9 +924,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -947,7 +998,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,17 +1010,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,8 +1091,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,16 +1106,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,12 +1124,38 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1518,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -1561,54 +1639,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="101"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1629,25 +1707,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="89">
         <v>638</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="91">
         <v>44048</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>48</v>
       </c>
       <c r="H7" s="19">
@@ -1659,15 +1737,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>36</v>
       </c>
       <c r="H8" s="21">
@@ -1679,15 +1757,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="53">
         <v>48</v>
       </c>
       <c r="H9" s="21">
@@ -1699,15 +1777,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>24</v>
       </c>
       <c r="H10" s="21">
@@ -1719,15 +1797,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="53">
         <v>36</v>
       </c>
       <c r="H11" s="21">
@@ -1739,15 +1817,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="53">
         <v>24</v>
       </c>
       <c r="H12" s="21">
@@ -1759,15 +1837,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="53">
         <v>24</v>
       </c>
       <c r="H13" s="21">
@@ -1779,25 +1857,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="106">
         <v>622</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="107">
         <v>44040</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="106" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <v>24</v>
       </c>
       <c r="H14" s="21">
@@ -1809,15 +1887,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="53">
         <v>36</v>
       </c>
       <c r="H15" s="21">
@@ -1829,15 +1907,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="53">
         <v>24</v>
       </c>
       <c r="H16" s="21">
@@ -1849,15 +1927,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="53">
         <v>48</v>
       </c>
       <c r="H17" s="21">
@@ -1869,15 +1947,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="53">
         <v>48</v>
       </c>
       <c r="H18" s="21">
@@ -1889,15 +1967,15 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <v>36</v>
       </c>
       <c r="H19" s="23">
@@ -1909,25 +1987,25 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="113">
+      <c r="A20" s="110">
         <v>662</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="108">
         <v>44077</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="110" t="s">
         <v>32</v>
-      </c>
-      <c r="E20" s="113" t="s">
-        <v>33</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="53">
         <v>24</v>
       </c>
       <c r="H20" s="21">
@@ -1939,15 +2017,15 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="53">
         <v>12</v>
       </c>
       <c r="H21" s="21">
@@ -1959,15 +2037,15 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="54">
+        <v>111</v>
+      </c>
+      <c r="G22" s="53">
         <v>24</v>
       </c>
       <c r="H22" s="21">
@@ -1979,48 +2057,48 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="51" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="55">
         <v>12</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <v>485000</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="51">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="92">
+      <c r="A24" s="89">
         <v>792</v>
       </c>
-      <c r="B24" s="94">
+      <c r="B24" s="91">
         <v>44085</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>32</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>33</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="52">
         <v>9</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="51">
         <v>225000</v>
       </c>
       <c r="I24" s="19">
@@ -2029,18 +2107,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="54">
         <v>36</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="51">
         <v>455000</v>
       </c>
       <c r="I25" s="23">
@@ -2049,28 +2127,28 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="92">
+      <c r="A26" s="89">
         <v>1234</v>
       </c>
-      <c r="B26" s="94">
+      <c r="B26" s="91">
         <v>44150</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="89" t="s">
         <v>32</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>33</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="52">
         <v>48</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="51">
         <v>455000</v>
       </c>
       <c r="I26" s="19">
@@ -2079,18 +2157,18 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="54">
         <v>12</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="51">
         <v>485000</v>
       </c>
       <c r="I27" s="23">
@@ -2099,80 +2177,80 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="46">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="45">
         <f>SUM(G7:G27)</f>
         <v>633</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="24">
         <f>SUM(I7:I27)</f>
         <v>279945000</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="A31" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
     </row>
     <row r="33" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105" t="s">
+      <c r="E33" s="101"/>
+      <c r="F33" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="101"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="76" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -2186,28 +2264,28 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="75">
+      <c r="A35" s="74">
         <v>663</v>
       </c>
-      <c r="B35" s="80">
+      <c r="B35" s="78">
         <v>44077</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="74" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>33</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="52">
         <v>4</v>
       </c>
-      <c r="H35" s="81">
+      <c r="H35" s="79">
         <v>485000</v>
       </c>
       <c r="I35" s="19">
@@ -2215,29 +2293,29 @@
         <v>1940000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92">
+    <row r="36" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89">
         <v>815</v>
       </c>
-      <c r="B36" s="94">
+      <c r="B36" s="91">
         <v>44112</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="89" t="s">
         <v>32</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>33</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="52">
         <v>4</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="81">
         <v>225000</v>
       </c>
       <c r="I36" s="19">
@@ -2245,16 +2323,16 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
+    <row r="37" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="54">
         <v>12</v>
       </c>
       <c r="H37" s="23">
@@ -2266,25 +2344,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="96">
+      <c r="A38" s="93">
         <v>1241</v>
       </c>
-      <c r="B38" s="98">
+      <c r="B38" s="95">
         <v>44153</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="93" t="s">
         <v>32</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>33</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="52">
         <v>12</v>
       </c>
       <c r="H38" s="19">
@@ -2296,15 +2374,15 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="53">
         <v>36</v>
       </c>
       <c r="H39" s="21">
@@ -2316,15 +2394,15 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="54">
         <v>19</v>
       </c>
       <c r="H40" s="23">
@@ -2336,29 +2414,29 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="79">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="77">
         <f>SUM(G35:G40)</f>
         <v>87</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="24">
         <f>SUM(I35:I40)</f>
         <v>42030000</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
       <c r="H47" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2384,28 +2462,28 @@
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="35"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="44"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="35"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -2467,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F91"/>
+  <dimension ref="A2:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,19 +2562,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="A2" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="58" t="s">
-        <v>70</v>
+      <c r="B3" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2504,211 +2582,211 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="53">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="60">
+        <v>70</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="59">
         <v>2</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="60">
         <v>345000</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="60">
         <f t="shared" ref="F5:F12" si="0">D5*E5</f>
         <v>690000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="53">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="60">
+        <v>71</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="59">
         <v>1</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="60">
         <v>350000</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="60">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="53">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="60">
+        <v>72</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="59">
         <v>2</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <v>345000</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="60">
+      <c r="B8" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="59">
         <v>2</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="60">
         <v>345000</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="53">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="60">
+        <v>74</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="59">
         <v>1</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="60">
         <v>475000</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="53">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="60">
+        <v>75</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="59">
         <v>2</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="60">
         <v>380000</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="53">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="60">
+        <v>76</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="59">
         <v>2</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="60">
         <v>490000</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="60">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="53">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="60">
+        <v>77</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="59">
         <v>2</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="60">
         <v>445000</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="60">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63">
         <f>SUM(D5:D12)</f>
         <v>14</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66">
+      <c r="E13" s="64"/>
+      <c r="F13" s="65">
         <f>SUM(F5:F12)</f>
         <v>5525000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2716,263 +2794,263 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="F16" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="59" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="68">
+        <v>1</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
-        <v>1</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="71">
+      <c r="D17" s="70">
         <v>12</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="71">
         <v>180000</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <f t="shared" ref="F17:F26" si="1">D17*E17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="53">
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="60">
+        <v>41</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="59">
         <v>12</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="60">
         <v>180000</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>3</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="60">
+        <v>44</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="59">
         <v>12</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="60">
         <v>180000</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="53">
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="60">
+        <v>42</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="59">
         <v>12</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="60">
         <v>180000</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="53">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="60">
+        <v>45</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="59">
         <v>12</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="60">
         <v>180000</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="53">
         <v>6</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="60">
+      <c r="B22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="59">
         <v>12</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="60">
         <v>180000</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="60">
+      <c r="C23" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="59">
         <v>12</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="60">
         <v>180000</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="53">
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="60">
+        <v>47</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="59">
         <v>12</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="60">
         <v>180000</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="53">
         <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="60">
+        <v>48</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="59">
         <v>12</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="60">
         <v>180000</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="53">
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="60">
+        <v>49</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="59">
         <v>12</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="60">
         <v>180000</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="60">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64">
+      <c r="C27" s="63"/>
+      <c r="D27" s="63">
         <f ca="1">SUM(D17:D58)</f>
         <v>168</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66">
+      <c r="E27" s="64"/>
+      <c r="F27" s="65">
         <f>SUM(F17:F26)</f>
         <v>21600000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2980,9 +3058,9 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2990,389 +3068,389 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="F30" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="59" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="53">
         <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="60">
+        <v>79</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="59">
         <v>1</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="60">
         <v>67000</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="60">
         <f t="shared" ref="F31:F46" si="2">D31*E31</f>
         <v>67000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="53">
         <v>2</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="60">
+        <v>80</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="59">
         <v>1</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="60">
         <v>94000</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="60">
         <f t="shared" si="2"/>
         <v>94000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54">
+      <c r="A33" s="53">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="60">
+        <v>81</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="59">
         <v>1</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="60">
         <v>102000</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="60">
         <f t="shared" si="2"/>
         <v>102000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+      <c r="A34" s="53">
         <v>4</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="60">
+      <c r="B34" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="59">
         <v>1</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="60">
         <v>187000</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="60">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54">
+      <c r="A35" s="53">
         <v>5</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="60">
+        <v>83</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="59">
         <v>1</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="60">
         <v>187000</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="60">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="53">
         <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="60">
+        <v>84</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="59">
         <v>1</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="60">
         <v>173000</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="60">
         <f t="shared" si="2"/>
         <v>173000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="53">
         <v>7</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="60">
+        <v>85</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="59">
         <v>2</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="60">
         <v>170000</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="60">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="54">
+      <c r="A38" s="53">
         <v>8</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="60">
+        <v>86</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="59">
         <v>2</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="60">
         <v>170000</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="60">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="54">
+      <c r="A39" s="53">
         <v>9</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="60">
+        <v>87</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="59">
         <v>2</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="60">
         <v>170000</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="60">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
+      <c r="A40" s="53">
         <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="60">
+        <v>88</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="59">
         <v>1</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="60">
         <v>170000</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F40" s="60">
         <f t="shared" si="2"/>
         <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="53">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="60">
+        <v>89</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="59">
         <v>1</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="60">
         <v>76500</v>
       </c>
-      <c r="F41" s="61">
+      <c r="F41" s="60">
         <f t="shared" si="2"/>
         <v>76500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="53">
         <v>12</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="60">
+      <c r="B42" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="59">
         <v>1</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="60">
         <v>162000</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="60">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="54">
+      <c r="A43" s="53">
         <v>13</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="60">
+        <v>91</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="59">
         <v>1</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="60">
         <v>178000</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="60">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
+      <c r="A44" s="53">
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="60">
+        <v>92</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="59">
         <v>1</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="60">
         <v>162000</v>
       </c>
-      <c r="F44" s="61">
+      <c r="F44" s="60">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
+      <c r="A45" s="53">
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="60">
+        <v>93</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="59">
         <v>1</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="60">
         <v>178000</v>
       </c>
-      <c r="F45" s="61">
+      <c r="F45" s="60">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
+      <c r="A46" s="53">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="60">
+      <c r="D46" s="59">
         <v>1</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="60">
         <v>178000</v>
       </c>
-      <c r="F46" s="61">
+      <c r="F46" s="60">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64">
+      <c r="C47" s="63"/>
+      <c r="D47" s="63">
         <f>SUM(D31:D46)</f>
         <v>19</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66">
+      <c r="E47" s="64"/>
+      <c r="F47" s="65">
         <f>SUM(F31:F46)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -3380,379 +3458,379 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="D50" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="E50" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="F50" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="59" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="68">
         <v>1</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="71">
+      <c r="D51" s="70">
         <v>1</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="71">
         <v>192000</v>
       </c>
-      <c r="F51" s="72">
+      <c r="F51" s="71">
         <f t="shared" ref="F51:F66" si="3">E51*D51</f>
         <v>192000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="54">
+      <c r="A52" s="53">
         <v>2</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="71">
+      <c r="C52" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="70">
         <v>1</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="60">
         <v>262000</v>
       </c>
-      <c r="F52" s="72">
+      <c r="F52" s="71">
         <f t="shared" si="3"/>
         <v>262000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="54">
+      <c r="A53" s="53">
         <v>3</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="71">
+        <v>53</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="70">
         <v>1</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="60">
         <v>218000</v>
       </c>
-      <c r="F53" s="72">
+      <c r="F53" s="71">
         <f t="shared" si="3"/>
         <v>218000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
+      <c r="A54" s="53">
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="71">
+        <v>54</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="70">
         <v>1</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="60">
         <v>403000</v>
       </c>
-      <c r="F54" s="72">
+      <c r="F54" s="71">
         <f t="shared" si="3"/>
         <v>403000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="54">
+      <c r="A55" s="53">
         <v>5</v>
       </c>
-      <c r="B55" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="71">
+      <c r="B55" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="70">
         <v>1</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="60">
         <v>186000</v>
       </c>
-      <c r="F55" s="72">
+      <c r="F55" s="71">
         <f t="shared" si="3"/>
         <v>186000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54">
+      <c r="A56" s="53">
         <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="71">
+        <v>56</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="70">
         <v>1</v>
       </c>
-      <c r="E56" s="61">
+      <c r="E56" s="60">
         <v>341000</v>
       </c>
-      <c r="F56" s="72">
+      <c r="F56" s="71">
         <f t="shared" si="3"/>
         <v>341000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54">
+      <c r="A57" s="53">
         <v>7</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="71">
+        <v>57</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="70">
         <v>1</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="60">
         <v>305000</v>
       </c>
-      <c r="F57" s="72">
+      <c r="F57" s="71">
         <f t="shared" si="3"/>
         <v>305000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54">
+      <c r="A58" s="53">
         <v>8</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="71">
+        <v>58</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="70">
         <v>1</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="60">
         <v>168000</v>
       </c>
-      <c r="F58" s="72">
+      <c r="F58" s="71">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54">
+      <c r="A59" s="53">
         <v>9</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="71">
+        <v>60</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="70">
         <v>1</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="60">
         <v>168000</v>
       </c>
-      <c r="F59" s="72">
+      <c r="F59" s="71">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="54">
+      <c r="A60" s="53">
         <v>10</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="71">
+        <v>59</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="70">
         <v>1</v>
       </c>
-      <c r="E60" s="61">
+      <c r="E60" s="60">
         <v>480000</v>
       </c>
-      <c r="F60" s="72">
+      <c r="F60" s="71">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="54">
+      <c r="A61" s="53">
         <v>11</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="71">
+        <v>61</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="70">
         <v>1</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="60">
         <v>480000</v>
       </c>
-      <c r="F61" s="72">
+      <c r="F61" s="71">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54">
+      <c r="A62" s="53">
         <v>12</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="71">
+        <v>62</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="70">
         <v>1</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="60">
         <v>620000</v>
       </c>
-      <c r="F62" s="72">
+      <c r="F62" s="71">
         <f t="shared" si="3"/>
         <v>620000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="54">
+      <c r="A63" s="53">
         <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="71">
+        <v>63</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="70">
         <v>1</v>
       </c>
-      <c r="E63" s="61">
+      <c r="E63" s="60">
         <v>515000</v>
       </c>
-      <c r="F63" s="72">
+      <c r="F63" s="71">
         <f t="shared" si="3"/>
         <v>515000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54">
+      <c r="A64" s="53">
         <v>14</v>
       </c>
-      <c r="B64" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="71">
+      <c r="B64" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="70">
         <v>1</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="60">
         <v>610000</v>
       </c>
-      <c r="F64" s="72">
+      <c r="F64" s="71">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="54">
+      <c r="A65" s="53">
         <v>15</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="71">
+        <v>65</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="70">
         <v>1</v>
       </c>
-      <c r="E65" s="61">
+      <c r="E65" s="60">
         <v>670000</v>
       </c>
-      <c r="F65" s="72">
+      <c r="F65" s="71">
         <f t="shared" si="3"/>
         <v>670000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54">
+      <c r="A66" s="53">
         <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="71">
+        <v>66</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="70">
         <v>1</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="60">
         <v>590000</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="71">
         <f t="shared" si="3"/>
         <v>590000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64">
+      <c r="C67" s="63"/>
+      <c r="D67" s="63">
         <f>SUM(D51:D66)</f>
         <v>16</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66">
+      <c r="E67" s="64"/>
+      <c r="F67" s="65">
         <f>SUM(F51:F66)</f>
         <v>6208000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="4"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -3760,9 +3838,9 @@
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -3770,379 +3848,390 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="C70" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="E70" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="F70" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="59" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="69">
+      <c r="A71" s="68">
         <v>1</v>
       </c>
-      <c r="B71" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="71">
+      <c r="B71" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="70">
         <v>1</v>
       </c>
-      <c r="E71" s="72">
+      <c r="E71" s="71">
         <v>340000</v>
       </c>
-      <c r="F71" s="72">
+      <c r="F71" s="71">
         <f t="shared" ref="F71:F83" si="4">E71*D71</f>
         <v>340000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="54">
+      <c r="A72" s="53">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="71">
+        <v>99</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="70">
         <v>1</v>
       </c>
-      <c r="E72" s="61">
+      <c r="E72" s="60">
         <v>340000</v>
       </c>
-      <c r="F72" s="72">
+      <c r="F72" s="71">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="54">
+      <c r="A73" s="53">
         <v>3</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="71">
+        <v>100</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="70">
         <v>1</v>
       </c>
-      <c r="E73" s="61">
+      <c r="E73" s="60">
         <v>340000</v>
       </c>
-      <c r="F73" s="72">
+      <c r="F73" s="71">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54">
+      <c r="A74" s="53">
         <v>4</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="71">
+        <v>101</v>
+      </c>
+      <c r="C74" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="70">
         <v>2</v>
       </c>
-      <c r="E74" s="61">
+      <c r="E74" s="60">
         <v>530000</v>
       </c>
-      <c r="F74" s="72">
+      <c r="F74" s="71">
         <f t="shared" si="4"/>
         <v>1060000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="54">
+      <c r="A75" s="53">
         <v>5</v>
       </c>
-      <c r="B75" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="71">
+      <c r="B75" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="70">
         <v>2</v>
       </c>
-      <c r="E75" s="61">
+      <c r="E75" s="60">
         <v>250000</v>
       </c>
-      <c r="F75" s="72">
+      <c r="F75" s="71">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="54">
+      <c r="A76" s="53">
         <v>6</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="71">
+        <v>103</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="70">
         <v>3</v>
       </c>
-      <c r="E76" s="61">
+      <c r="E76" s="60">
         <v>120000</v>
       </c>
-      <c r="F76" s="72">
+      <c r="F76" s="71">
         <f t="shared" si="4"/>
         <v>360000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="54">
+      <c r="A77" s="53">
         <v>7</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="71">
+        <v>104</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="70">
         <v>1</v>
       </c>
-      <c r="E77" s="61">
+      <c r="E77" s="60">
         <v>550000</v>
       </c>
-      <c r="F77" s="72">
+      <c r="F77" s="71">
         <f t="shared" si="4"/>
         <v>550000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="54">
+      <c r="A78" s="53">
         <v>8</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="71">
+        <v>105</v>
+      </c>
+      <c r="C78" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="70">
         <v>1</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="60">
         <v>415000</v>
       </c>
-      <c r="F78" s="72">
+      <c r="F78" s="71">
         <f t="shared" si="4"/>
         <v>415000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54">
+      <c r="A79" s="53">
         <v>9</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="71">
+        <v>106</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="70">
         <v>1</v>
       </c>
-      <c r="E79" s="61">
+      <c r="E79" s="60">
         <v>380000</v>
       </c>
-      <c r="F79" s="72">
+      <c r="F79" s="71">
         <f t="shared" si="4"/>
         <v>380000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54">
+      <c r="A80" s="53">
         <v>10</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="71">
+        <v>107</v>
+      </c>
+      <c r="C80" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="70">
         <v>2</v>
       </c>
-      <c r="E80" s="61">
+      <c r="E80" s="60">
         <v>620000</v>
       </c>
-      <c r="F80" s="72">
+      <c r="F80" s="71">
         <f t="shared" si="4"/>
         <v>1240000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54">
+      <c r="A81" s="53">
         <v>11</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="71">
+        <v>108</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="70">
         <v>1</v>
       </c>
-      <c r="E81" s="61">
+      <c r="E81" s="60">
         <v>480000</v>
       </c>
-      <c r="F81" s="72">
+      <c r="F81" s="71">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="54">
+      <c r="A82" s="53">
         <v>12</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="71">
+        <v>109</v>
+      </c>
+      <c r="C82" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="70">
         <v>1</v>
       </c>
-      <c r="E82" s="61">
+      <c r="E82" s="60">
         <v>480000</v>
       </c>
-      <c r="F82" s="72">
+      <c r="F82" s="71">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54">
+      <c r="A83" s="53">
         <v>13</v>
       </c>
-      <c r="B83" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="71">
+      <c r="B83" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="70">
         <v>1</v>
       </c>
-      <c r="E83" s="61">
+      <c r="E83" s="60">
         <v>475000</v>
       </c>
-      <c r="F83" s="72">
+      <c r="F83" s="71">
         <f t="shared" si="4"/>
         <v>475000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="63" t="s">
+      <c r="A84" s="74"/>
+      <c r="B84" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64">
+      <c r="C84" s="63"/>
+      <c r="D84" s="63">
         <f>SUM(D71:D83)</f>
         <v>18</v>
       </c>
-      <c r="E84" s="65"/>
-      <c r="F84" s="66">
+      <c r="E84" s="64"/>
+      <c r="F84" s="65">
         <f>SUM(F71:F83)</f>
         <v>6960000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="s">
-        <v>127</v>
-      </c>
+      <c r="A86" s="130"/>
+      <c r="B86" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="C87" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="D87" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="E87" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="59" t="s">
+      <c r="F87" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="59" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="69">
+      <c r="A88" s="133">
         <v>1</v>
       </c>
-      <c r="B88" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" s="71">
+      <c r="B88" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="135">
         <v>19</v>
       </c>
-      <c r="E88" s="72">
+      <c r="E88" s="136">
         <v>160000</v>
       </c>
-      <c r="F88" s="72">
+      <c r="F88" s="136">
         <f t="shared" ref="F88" si="5">E88*D88</f>
         <v>3040000</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="63" t="s">
+      <c r="A89" s="137"/>
+      <c r="B89" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64">
+      <c r="C89" s="139"/>
+      <c r="D89" s="139">
         <f>D88</f>
         <v>19</v>
       </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="66">
+      <c r="E89" s="140"/>
+      <c r="F89" s="141">
         <f>F88</f>
         <v>3040000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D91" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="129">
+        <f>F13+F27+F47+F67+F84-F89</f>
+        <v>40187500</v>
       </c>
     </row>
   </sheetData>
@@ -4158,17 +4247,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4183,10 +4272,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="40" t="s">
-        <v>122</v>
+      <c r="B2" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="C2" s="28">
         <f>200000000+200000000*38%</f>
@@ -4195,18 +4284,18 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="50">
+      <c r="B3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="49">
         <f>'Nhập Hàng'!I41</f>
         <v>42030000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="41" t="s">
-        <v>131</v>
+      <c r="B4" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="C4" s="29">
         <f>'Nhập Hàng'!I28</f>
@@ -4215,8 +4304,8 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>130</v>
+      <c r="B5" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="30">
         <f>C2-C4+C3</f>
@@ -4236,17 +4325,17 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="85">
+      <c r="B7" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="82">
         <v>200000000</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="116">
         <f>SUM(E7:E14)</f>
         <v>250187500</v>
       </c>
@@ -4254,109 +4343,112 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="85">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="82">
         <v>6800000</v>
       </c>
-      <c r="F8" s="117"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="85">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="82">
         <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84-'SỮA NGOẠI'!F89</f>
         <v>40187500</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="27">
+        <f>'SỮA NGOẠI'!F89+'SỮA NGOẠI'!F84+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F13</f>
+        <v>46267500</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="85">
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="82">
         <v>130000</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="85">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="82">
         <v>130000</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="85">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="118"/>
+      <c r="E12" s="82">
         <v>260000</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="85">
+      <c r="B13" s="117"/>
+      <c r="C13" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="82">
         <v>1300000</v>
       </c>
-      <c r="F13" s="117"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="85">
+      <c r="B14" s="117"/>
+      <c r="C14" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="118"/>
+      <c r="E14" s="82">
         <v>1380000</v>
       </c>
-      <c r="F14" s="117"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="120">
         <v>44040</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="65">
+      <c r="D15" s="120"/>
+      <c r="E15" s="83">
         <v>5000000</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="121">
         <f>SUM(E15:E23)</f>
         <v>95000000</v>
       </c>
@@ -4364,112 +4456,112 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122">
+      <c r="B16" s="114"/>
+      <c r="C16" s="120">
         <v>44040</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="65">
+      <c r="D16" s="120"/>
+      <c r="E16" s="83">
         <v>10000000</v>
       </c>
-      <c r="F16" s="124"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122">
+      <c r="B17" s="114"/>
+      <c r="C17" s="120">
         <v>44049</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="65">
+      <c r="D17" s="120"/>
+      <c r="E17" s="83">
         <v>30000000</v>
       </c>
-      <c r="F17" s="124"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122">
+      <c r="B18" s="114"/>
+      <c r="C18" s="120">
         <v>44054</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="65">
+      <c r="D18" s="120"/>
+      <c r="E18" s="83">
         <v>20000000</v>
       </c>
-      <c r="F18" s="124"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122">
+      <c r="B19" s="114"/>
+      <c r="C19" s="120">
         <v>44060</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="65">
+      <c r="D19" s="120"/>
+      <c r="E19" s="83">
         <v>8000000</v>
       </c>
-      <c r="F19" s="124"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122">
+      <c r="B20" s="114"/>
+      <c r="C20" s="120">
         <v>44068</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="65">
+      <c r="D20" s="120"/>
+      <c r="E20" s="83">
         <v>10000000</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122">
+      <c r="B21" s="114"/>
+      <c r="C21" s="120">
         <v>44076</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="65">
+      <c r="D21" s="120"/>
+      <c r="E21" s="83">
         <v>2000000</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122">
+      <c r="B22" s="114"/>
+      <c r="C22" s="120">
         <v>44085</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="65">
+      <c r="D22" s="120"/>
+      <c r="E22" s="83">
         <v>3000000</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="127">
+      <c r="B23" s="115"/>
+      <c r="C23" s="120">
         <v>44137</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="87">
+      <c r="D23" s="120"/>
+      <c r="E23" s="83">
         <v>7000000</v>
       </c>
-      <c r="F23" s="125"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -4480,41 +4572,40 @@
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="77">
+    <row r="26" spans="1:7" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="125">
         <v>43982</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="126"/>
-      <c r="E26" s="76">
+      <c r="E26" s="75">
         <v>50000000</v>
       </c>
-      <c r="F26" s="120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="77">
+      <c r="F26" s="119"/>
+    </row>
+    <row r="27" spans="1:7" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="125">
         <v>43982</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="126"/>
-      <c r="E27" s="76">
+      <c r="E27" s="75">
         <v>10000000</v>
       </c>
-      <c r="F27" s="120"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="116" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="84">
+      <c r="F27" s="119"/>
+    </row>
+    <row r="28" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="124" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128">
         <f>F24-E26+E27</f>
         <v>115187500</v>
       </c>
@@ -4530,6 +4621,7 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:B23"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="B7:B14"/>
@@ -4542,12 +4634,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
   </mergeCells>
-  <pageMargins left="0.12" right="0.21" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.12" right="0.21" top="0.46" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4582,22 +4673,22 @@
   <sheetData>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -443,7 +443,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Cần thanh toán</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -915,9 +915,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1020,118 +1017,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1156,6 +1043,120 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1594,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1614,9 @@
     <col min="9" max="9" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,54 +1642,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="98"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1707,25 +1710,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7" s="110">
         <v>638</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="111">
         <v>44048</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="110" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <v>48</v>
       </c>
       <c r="H7" s="19">
@@ -1737,15 +1740,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <v>36</v>
       </c>
       <c r="H8" s="21">
@@ -1757,15 +1760,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>48</v>
       </c>
       <c r="H9" s="21">
@@ -1777,15 +1780,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <v>24</v>
       </c>
       <c r="H10" s="21">
@@ -1797,15 +1800,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <v>36</v>
       </c>
       <c r="H11" s="21">
@@ -1817,15 +1820,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="52">
         <v>24</v>
       </c>
       <c r="H12" s="21">
@@ -1837,15 +1840,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="52">
         <v>24</v>
       </c>
       <c r="H13" s="21">
@@ -1857,25 +1860,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+      <c r="A14" s="103">
         <v>622</v>
       </c>
-      <c r="B14" s="107">
+      <c r="B14" s="122">
         <v>44040</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="103" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <v>24</v>
       </c>
       <c r="H14" s="21">
@@ -1887,15 +1890,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <v>36</v>
       </c>
       <c r="H15" s="21">
@@ -1907,15 +1910,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="52">
         <v>24</v>
       </c>
       <c r="H16" s="21">
@@ -1926,16 +1929,16 @@
         <v>11640000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <v>48</v>
       </c>
       <c r="H17" s="21">
@@ -1946,16 +1949,16 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="103"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <v>48</v>
       </c>
       <c r="H18" s="21">
@@ -1966,16 +1969,16 @@
         <v>21840000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="53">
         <v>36</v>
       </c>
       <c r="H19" s="23">
@@ -1986,26 +1989,26 @@
         <v>16380000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="110">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="108">
         <v>662</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="106">
         <v>44077</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <v>24</v>
       </c>
       <c r="H20" s="21">
@@ -2016,16 +2019,16 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <v>12</v>
       </c>
       <c r="H21" s="21">
@@ -2036,16 +2039,16 @@
         <v>5580000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="52">
         <v>24</v>
       </c>
       <c r="H22" s="21">
@@ -2056,49 +2059,49 @@
         <v>6120000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="50" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="54">
         <v>12</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="50">
         <v>485000</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="50">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="110">
         <v>792</v>
       </c>
-      <c r="B24" s="91">
+      <c r="B24" s="111">
         <v>44085</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="110" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="51">
         <v>9</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="50">
         <v>225000</v>
       </c>
       <c r="I24" s="19">
@@ -2106,19 +2109,19 @@
         <v>2025000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="53">
         <v>36</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="50">
         <v>455000</v>
       </c>
       <c r="I25" s="23">
@@ -2126,29 +2129,29 @@
         <v>16380000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="110">
         <v>1234</v>
       </c>
-      <c r="B26" s="91">
+      <c r="B26" s="111">
         <v>44150</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="110" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <v>48</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <v>455000</v>
       </c>
       <c r="I26" s="19">
@@ -2156,19 +2159,19 @@
         <v>21840000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="53">
         <v>12</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="50">
         <v>485000</v>
       </c>
       <c r="I27" s="23">
@@ -2176,81 +2179,95 @@
         <v>5820000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="45">
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="44">
         <f>SUM(G7:G27)</f>
         <v>633</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="24">
         <f>SUM(I7:I27)</f>
         <v>279945000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
+      <c r="N28" s="137">
+        <f>I26+I27</f>
+        <v>27660000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="85"/>
+      <c r="N29" s="137">
+        <f>I40+I39+I38</f>
+        <v>32650000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="137">
+        <f>N29-N28</f>
+        <v>4990000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="33" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="121"/>
+      <c r="F33" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="98"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="75" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -2264,28 +2281,28 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+      <c r="A35" s="73">
         <v>663</v>
       </c>
-      <c r="B35" s="78">
+      <c r="B35" s="77">
         <v>44077</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="73" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="51">
         <v>4</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="78">
         <v>485000</v>
       </c>
       <c r="I35" s="19">
@@ -2293,29 +2310,29 @@
         <v>1940000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+    <row r="36" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="110">
         <v>815</v>
       </c>
-      <c r="B36" s="91">
+      <c r="B36" s="111">
         <v>44112</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="110" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="51">
         <v>4</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="80">
         <v>225000</v>
       </c>
       <c r="I36" s="19">
@@ -2323,16 +2340,16 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
+    <row r="37" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="54">
+      <c r="G37" s="53">
         <v>12</v>
       </c>
       <c r="H37" s="23">
@@ -2344,25 +2361,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="93">
+      <c r="A38" s="123">
         <v>1241</v>
       </c>
-      <c r="B38" s="95">
+      <c r="B38" s="125">
         <v>44153</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="123" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="51">
         <v>12</v>
       </c>
       <c r="H38" s="19">
@@ -2374,35 +2391,35 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="53">
+        <v>21</v>
+      </c>
+      <c r="G39" s="52">
         <v>36</v>
       </c>
       <c r="H39" s="21">
-        <v>485000</v>
+        <v>455000</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39:I40" si="2">G39*H39</f>
-        <v>17460000</v>
+        <v>16380000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="54">
+      <c r="G40" s="53">
         <v>19</v>
       </c>
       <c r="H40" s="23">
@@ -2414,27 +2431,27 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="77">
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="76">
         <f>SUM(G35:G40)</f>
         <v>87</v>
       </c>
-      <c r="H41" s="44"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="24">
         <f>SUM(I35:I40)</f>
-        <v>42030000</v>
+        <v>40950000</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
       <c r="H47" s="25" t="s">
         <v>120</v>
       </c>
@@ -2462,44 +2479,52 @@
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="43"/>
+      <c r="F69" s="42"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="35"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="42"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="35"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
-      <c r="F72" s="43"/>
+      <c r="F72" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -2516,27 +2541,19 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2545,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F94"/>
+  <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,21 +2576,22 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="4"/>
@@ -2581,476 +2599,480 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="58">
         <v>2</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="59">
         <v>345000</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="59">
         <f t="shared" ref="F5:F12" si="0">D5*E5</f>
         <v>690000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="59">
         <v>350000</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="59">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="58">
         <v>2</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <v>345000</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="59">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="58">
         <v>2</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>345000</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="58">
         <v>1</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>475000</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="58">
         <v>2</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <v>380000</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f t="shared" si="0"/>
         <v>760000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="I10" s="90">
+        <f>F13+F27+F47+F67+F84</f>
+        <v>43227500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="58">
         <v>2</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <v>490000</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>2</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <v>445000</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62">
         <f>SUM(D5:D12)</f>
         <v>14</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65">
+      <c r="E13" s="63"/>
+      <c r="F13" s="64">
         <f>SUM(F5:F12)</f>
         <v>5525000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="57" t="s">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
+      <c r="A17" s="67">
         <v>1</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="69">
         <v>12</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="70">
         <v>180000</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <f t="shared" ref="F17:F26" si="1">D17*E17</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="52">
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="58">
         <v>12</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="59">
         <v>180000</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="52">
         <v>3</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="58">
         <v>12</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="59">
         <v>180000</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="A20" s="52">
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="58">
         <v>12</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="59">
         <v>180000</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="52">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="58">
         <v>12</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="59">
         <v>180000</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
+      <c r="A22" s="52">
         <v>6</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="58">
         <v>12</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="59">
         <v>180000</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
+      <c r="A23" s="52">
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="58">
         <v>12</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="59">
         <v>180000</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
+      <c r="A24" s="52">
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="58">
         <v>12</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <v>180000</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53">
+      <c r="A25" s="52">
         <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="58">
         <v>12</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="59">
         <v>180000</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
+      <c r="A26" s="52">
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="58">
         <v>12</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="59">
         <v>180000</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="59">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63">
+      <c r="C27" s="62"/>
+      <c r="D27" s="62">
         <f ca="1">SUM(D17:D58)</f>
         <v>168</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65">
+      <c r="E27" s="63"/>
+      <c r="F27" s="64">
         <f>SUM(F17:F26)</f>
         <v>21600000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3058,7 +3080,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="31" t="s">
         <v>68</v>
       </c>
@@ -3068,387 +3090,387 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53">
+      <c r="A31" s="52">
         <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="58">
         <v>1</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="59">
         <v>67000</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="59">
         <f t="shared" ref="F31:F46" si="2">D31*E31</f>
         <v>67000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="53">
+      <c r="A32" s="52">
         <v>2</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="58">
         <v>1</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="59">
         <v>94000</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="59">
         <f t="shared" si="2"/>
         <v>94000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53">
+      <c r="A33" s="52">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="58">
         <v>1</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="59">
         <v>102000</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="59">
         <f t="shared" si="2"/>
         <v>102000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53">
+      <c r="A34" s="52">
         <v>4</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="58">
         <v>1</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="59">
         <v>187000</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="59">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="53">
+      <c r="A35" s="52">
         <v>5</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="58">
         <v>1</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="59">
         <v>187000</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="59">
         <f t="shared" si="2"/>
         <v>187000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="53">
+      <c r="A36" s="52">
         <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="58">
         <v>1</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <v>173000</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="59">
         <f t="shared" si="2"/>
         <v>173000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="53">
+      <c r="A37" s="52">
         <v>7</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="58">
         <v>2</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="59">
         <v>170000</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="59">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53">
+      <c r="A38" s="52">
         <v>8</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="58">
         <v>2</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="59">
         <v>170000</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="59">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53">
+      <c r="A39" s="52">
         <v>9</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="58">
         <v>2</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="59">
         <v>170000</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="59">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53">
+      <c r="A40" s="52">
         <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="58">
         <v>1</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="59">
         <v>170000</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="59">
         <f t="shared" si="2"/>
         <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="53">
+      <c r="A41" s="52">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="58">
         <v>1</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="59">
         <v>76500</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="59">
         <f t="shared" si="2"/>
         <v>76500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53">
+      <c r="A42" s="52">
         <v>12</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="58">
         <v>1</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <v>162000</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="59">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="53">
+      <c r="A43" s="52">
         <v>13</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="58">
         <v>1</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <v>178000</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="59">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="53">
+      <c r="A44" s="52">
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="58">
         <v>1</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="59">
         <v>162000</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="59">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="53">
+      <c r="A45" s="52">
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="58">
         <v>1</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="59">
         <v>178000</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="59">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53">
+      <c r="A46" s="52">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="58">
         <v>1</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="59">
         <v>178000</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="59">
         <f t="shared" si="2"/>
         <v>178000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63">
+      <c r="C47" s="62"/>
+      <c r="D47" s="62">
         <f>SUM(D31:D46)</f>
         <v>19</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65">
+      <c r="E47" s="63"/>
+      <c r="F47" s="64">
         <f>SUM(F31:F46)</f>
         <v>2934500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="31" t="s">
         <v>67</v>
       </c>
@@ -3458,379 +3480,379 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="68">
+      <c r="A51" s="67">
         <v>1</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="70">
+      <c r="D51" s="69">
         <v>1</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="70">
         <v>192000</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51" s="70">
         <f t="shared" ref="F51:F66" si="3">E51*D51</f>
         <v>192000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53">
+      <c r="A52" s="52">
         <v>2</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="70">
+      <c r="D52" s="69">
         <v>1</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="59">
         <v>262000</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="70">
         <f t="shared" si="3"/>
         <v>262000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53">
+      <c r="A53" s="52">
         <v>3</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D53" s="69">
         <v>1</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="59">
         <v>218000</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="70">
         <f t="shared" si="3"/>
         <v>218000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53">
+      <c r="A54" s="52">
         <v>4</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D54" s="69">
         <v>1</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="59">
         <v>403000</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="70">
         <f t="shared" si="3"/>
         <v>403000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="53">
+      <c r="A55" s="52">
         <v>5</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="70">
+      <c r="D55" s="69">
         <v>1</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="59">
         <v>186000</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="70">
         <f t="shared" si="3"/>
         <v>186000</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+      <c r="A56" s="52">
         <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="70">
+      <c r="D56" s="69">
         <v>1</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="59">
         <v>341000</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="70">
         <f t="shared" si="3"/>
         <v>341000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="53">
+      <c r="A57" s="52">
         <v>7</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="70">
+      <c r="D57" s="69">
         <v>1</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="59">
         <v>305000</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="70">
         <f t="shared" si="3"/>
         <v>305000</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="53">
+      <c r="A58" s="52">
         <v>8</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="69">
         <v>1</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="59">
         <v>168000</v>
       </c>
-      <c r="F58" s="71">
+      <c r="F58" s="70">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="53">
+      <c r="A59" s="52">
         <v>9</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="69">
         <v>1</v>
       </c>
-      <c r="E59" s="60">
+      <c r="E59" s="59">
         <v>168000</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59" s="70">
         <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="53">
+      <c r="A60" s="52">
         <v>10</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D60" s="69">
         <v>1</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="59">
         <v>480000</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="70">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="53">
+      <c r="A61" s="52">
         <v>11</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="70">
+      <c r="D61" s="69">
         <v>1</v>
       </c>
-      <c r="E61" s="60">
+      <c r="E61" s="59">
         <v>480000</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="70">
         <f t="shared" si="3"/>
         <v>480000</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="53">
+      <c r="A62" s="52">
         <v>12</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="70">
+      <c r="D62" s="69">
         <v>1</v>
       </c>
-      <c r="E62" s="60">
+      <c r="E62" s="59">
         <v>620000</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="70">
         <f t="shared" si="3"/>
         <v>620000</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53">
+      <c r="A63" s="52">
         <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="70">
+      <c r="D63" s="69">
         <v>1</v>
       </c>
-      <c r="E63" s="60">
+      <c r="E63" s="59">
         <v>515000</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="70">
         <f t="shared" si="3"/>
         <v>515000</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53">
+      <c r="A64" s="52">
         <v>14</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="70">
+      <c r="D64" s="69">
         <v>1</v>
       </c>
-      <c r="E64" s="60">
+      <c r="E64" s="59">
         <v>610000</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="70">
         <f t="shared" si="3"/>
         <v>610000</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="53">
+      <c r="A65" s="52">
         <v>15</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D65" s="69">
         <v>1</v>
       </c>
-      <c r="E65" s="60">
+      <c r="E65" s="59">
         <v>670000</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="70">
         <f t="shared" si="3"/>
         <v>670000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="53">
+      <c r="A66" s="52">
         <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="69">
         <v>1</v>
       </c>
-      <c r="E66" s="60">
+      <c r="E66" s="59">
         <v>590000</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="70">
         <f t="shared" si="3"/>
         <v>590000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="62" t="s">
+      <c r="A67" s="60"/>
+      <c r="B67" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62">
         <f>SUM(D51:D66)</f>
         <v>16</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65">
+      <c r="E67" s="63"/>
+      <c r="F67" s="64">
         <f>SUM(F51:F66)</f>
         <v>6208000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="4"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -3838,7 +3860,7 @@
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="31" t="s">
         <v>97</v>
       </c>
@@ -3848,377 +3870,377 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="58" t="s">
+      <c r="F70" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="68">
+      <c r="A71" s="67">
         <v>1</v>
       </c>
-      <c r="B71" s="69" t="s">
+      <c r="B71" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="70">
+      <c r="D71" s="69">
         <v>1</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="70">
         <v>340000</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="70">
         <f t="shared" ref="F71:F83" si="4">E71*D71</f>
         <v>340000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="53">
+      <c r="A72" s="52">
         <v>2</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="70">
+      <c r="D72" s="69">
         <v>1</v>
       </c>
-      <c r="E72" s="60">
+      <c r="E72" s="59">
         <v>340000</v>
       </c>
-      <c r="F72" s="71">
+      <c r="F72" s="70">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="53">
+      <c r="A73" s="52">
         <v>3</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="70">
+      <c r="D73" s="69">
         <v>1</v>
       </c>
-      <c r="E73" s="60">
+      <c r="E73" s="59">
         <v>340000</v>
       </c>
-      <c r="F73" s="71">
+      <c r="F73" s="70">
         <f t="shared" si="4"/>
         <v>340000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="53">
+      <c r="A74" s="52">
         <v>4</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="70">
+      <c r="D74" s="69">
         <v>2</v>
       </c>
-      <c r="E74" s="60">
+      <c r="E74" s="59">
         <v>530000</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="70">
         <f t="shared" si="4"/>
         <v>1060000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="53">
+      <c r="A75" s="52">
         <v>5</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="70" t="s">
+      <c r="C75" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="70">
+      <c r="D75" s="69">
         <v>2</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="59">
         <v>250000</v>
       </c>
-      <c r="F75" s="71">
+      <c r="F75" s="70">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="53">
+      <c r="A76" s="52">
         <v>6</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="70">
+      <c r="D76" s="69">
         <v>3</v>
       </c>
-      <c r="E76" s="60">
+      <c r="E76" s="59">
         <v>120000</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="70">
         <f t="shared" si="4"/>
         <v>360000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="53">
+      <c r="A77" s="52">
         <v>7</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="70">
+      <c r="D77" s="69">
         <v>1</v>
       </c>
-      <c r="E77" s="60">
+      <c r="E77" s="59">
         <v>550000</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="70">
         <f t="shared" si="4"/>
         <v>550000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="53">
+      <c r="A78" s="52">
         <v>8</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="70">
+      <c r="D78" s="69">
         <v>1</v>
       </c>
-      <c r="E78" s="60">
+      <c r="E78" s="59">
         <v>415000</v>
       </c>
-      <c r="F78" s="71">
+      <c r="F78" s="70">
         <f t="shared" si="4"/>
         <v>415000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="53">
+      <c r="A79" s="52">
         <v>9</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="70" t="s">
+      <c r="C79" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="70">
+      <c r="D79" s="69">
         <v>1</v>
       </c>
-      <c r="E79" s="60">
+      <c r="E79" s="59">
         <v>380000</v>
       </c>
-      <c r="F79" s="71">
+      <c r="F79" s="70">
         <f t="shared" si="4"/>
         <v>380000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="53">
+      <c r="A80" s="52">
         <v>10</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="69">
         <v>2</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="59">
         <v>620000</v>
       </c>
-      <c r="F80" s="71">
+      <c r="F80" s="70">
         <f t="shared" si="4"/>
         <v>1240000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="53">
+      <c r="A81" s="52">
         <v>11</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="70">
+      <c r="D81" s="69">
         <v>1</v>
       </c>
-      <c r="E81" s="60">
+      <c r="E81" s="59">
         <v>480000</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="70">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="53">
+      <c r="A82" s="52">
         <v>12</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="70">
+      <c r="D82" s="69">
         <v>1</v>
       </c>
-      <c r="E82" s="60">
+      <c r="E82" s="59">
         <v>480000</v>
       </c>
-      <c r="F82" s="71">
+      <c r="F82" s="70">
         <f t="shared" si="4"/>
         <v>480000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="53">
+      <c r="A83" s="52">
         <v>13</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="70">
+      <c r="D83" s="69">
         <v>1</v>
       </c>
-      <c r="E83" s="60">
+      <c r="E83" s="59">
         <v>475000</v>
       </c>
-      <c r="F83" s="71">
+      <c r="F83" s="70">
         <f t="shared" si="4"/>
         <v>475000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="62" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63">
+      <c r="C84" s="62"/>
+      <c r="D84" s="62">
         <f>SUM(D71:D83)</f>
         <v>18</v>
       </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="65">
+      <c r="E84" s="63"/>
+      <c r="F84" s="64">
         <f>SUM(F71:F83)</f>
         <v>6960000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="130"/>
-      <c r="B86" s="131" t="s">
+      <c r="A86" s="91"/>
+      <c r="B86" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
-      <c r="F86" s="130"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="132" t="s">
+      <c r="A87" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="132" t="s">
+      <c r="B87" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="132" t="s">
+      <c r="C87" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="132" t="s">
+      <c r="D87" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="132" t="s">
+      <c r="E87" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="132" t="s">
+      <c r="F87" s="93" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="133">
+      <c r="A88" s="94">
         <v>1</v>
       </c>
-      <c r="B88" s="134" t="s">
+      <c r="B88" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="135" t="s">
+      <c r="C88" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="135">
+      <c r="D88" s="96">
         <v>19</v>
       </c>
-      <c r="E88" s="136">
+      <c r="E88" s="97">
         <v>160000</v>
       </c>
-      <c r="F88" s="136">
+      <c r="F88" s="97">
         <f t="shared" ref="F88" si="5">E88*D88</f>
         <v>3040000</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="137"/>
-      <c r="B89" s="138" t="s">
+      <c r="A89" s="98"/>
+      <c r="B89" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="139"/>
-      <c r="D89" s="139">
+      <c r="C89" s="100"/>
+      <c r="D89" s="100">
         <f>D88</f>
         <v>19</v>
       </c>
-      <c r="E89" s="140"/>
-      <c r="F89" s="141">
+      <c r="E89" s="101"/>
+      <c r="F89" s="102">
         <f>F88</f>
         <v>3040000</v>
       </c>
@@ -4229,7 +4251,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="129">
+      <c r="F94" s="90">
         <f>F13+F27+F47+F67+F84-F89</f>
         <v>40187500</v>
       </c>
@@ -4247,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4296,7 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C2" s="28">
@@ -4284,17 +4306,17 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f>'Nhập Hàng'!I41</f>
-        <v>42030000</v>
+        <v>40950000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="29">
@@ -4304,12 +4326,12 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="30">
         <f>C2-C4+C3</f>
-        <v>38085000</v>
+        <v>37005000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -4325,17 +4347,17 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="82">
+      <c r="D7" s="135"/>
+      <c r="E7" s="81">
         <v>200000000</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="134">
         <f>SUM(E7:E14)</f>
         <v>250187500</v>
       </c>
@@ -4343,112 +4365,109 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="82">
+      <c r="D8" s="135"/>
+      <c r="E8" s="81">
         <v>6800000</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="82">
+      <c r="D9" s="135"/>
+      <c r="E9" s="81">
         <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84-'SỮA NGOẠI'!F89</f>
         <v>40187500</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="27">
-        <f>'SỮA NGOẠI'!F89+'SỮA NGOẠI'!F84+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F13</f>
-        <v>46267500</v>
-      </c>
+      <c r="F9" s="134"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="138"/>
+      <c r="C10" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="82">
+      <c r="D10" s="135"/>
+      <c r="E10" s="81">
         <v>130000</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118" t="s">
+      <c r="B11" s="138"/>
+      <c r="C11" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="82">
+      <c r="D11" s="135"/>
+      <c r="E11" s="81">
         <v>130000</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118" t="s">
+      <c r="B12" s="138"/>
+      <c r="C12" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="82">
+      <c r="D12" s="135"/>
+      <c r="E12" s="81">
         <v>260000</v>
       </c>
-      <c r="F12" s="116"/>
+      <c r="F12" s="134"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="82">
+      <c r="D13" s="135"/>
+      <c r="E13" s="81">
         <v>1300000</v>
       </c>
-      <c r="F13" s="116"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118" t="s">
+      <c r="B14" s="138"/>
+      <c r="C14" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="82">
+      <c r="D14" s="135"/>
+      <c r="E14" s="81">
         <v>1380000</v>
       </c>
-      <c r="F14" s="116"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="132">
         <v>44040</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="83">
+      <c r="D15" s="132"/>
+      <c r="E15" s="82">
         <v>5000000</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="128">
         <f>SUM(E15:E23)</f>
         <v>95000000</v>
       </c>
@@ -4456,171 +4475,162 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="120">
+      <c r="B16" s="140"/>
+      <c r="C16" s="132">
         <v>44040</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="83">
+      <c r="D16" s="132"/>
+      <c r="E16" s="82">
         <v>10000000</v>
       </c>
-      <c r="F16" s="122"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="120">
+      <c r="B17" s="140"/>
+      <c r="C17" s="132">
         <v>44049</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="83">
+      <c r="D17" s="132"/>
+      <c r="E17" s="82">
         <v>30000000</v>
       </c>
-      <c r="F17" s="122"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="120">
+      <c r="B18" s="140"/>
+      <c r="C18" s="132">
         <v>44054</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="83">
+      <c r="D18" s="132"/>
+      <c r="E18" s="82">
         <v>20000000</v>
       </c>
-      <c r="F18" s="122"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="120">
+      <c r="B19" s="140"/>
+      <c r="C19" s="132">
         <v>44060</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="83">
+      <c r="D19" s="132"/>
+      <c r="E19" s="82">
         <v>8000000</v>
       </c>
-      <c r="F19" s="122"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="120">
+      <c r="B20" s="140"/>
+      <c r="C20" s="132">
         <v>44068</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="83">
+      <c r="D20" s="132"/>
+      <c r="E20" s="82">
         <v>10000000</v>
       </c>
-      <c r="F20" s="122"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="120">
+      <c r="B21" s="140"/>
+      <c r="C21" s="132">
         <v>44076</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="83">
+      <c r="D21" s="132"/>
+      <c r="E21" s="82">
         <v>2000000</v>
       </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="120">
+      <c r="B22" s="140"/>
+      <c r="C22" s="132">
         <v>44085</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="83">
+      <c r="D22" s="132"/>
+      <c r="E22" s="82">
         <v>3000000</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="41"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="120">
+      <c r="B23" s="141"/>
+      <c r="C23" s="132">
         <v>44137</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="83">
+      <c r="D23" s="132"/>
+      <c r="E23" s="82">
         <v>7000000</v>
       </c>
-      <c r="F23" s="123"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="32">
         <f>F7-F15</f>
         <v>155187500</v>
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="26" spans="1:7" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="125">
+    <row r="26" spans="1:7" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="88">
         <v>43982</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="75">
+      <c r="D26" s="131"/>
+      <c r="E26" s="74">
         <v>50000000</v>
       </c>
-      <c r="F26" s="119"/>
-    </row>
-    <row r="27" spans="1:7" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="125">
+      <c r="F26" s="136"/>
+    </row>
+    <row r="27" spans="1:7" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="88">
         <v>43982</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="75">
+      <c r="D27" s="131"/>
+      <c r="E27" s="74">
         <v>10000000</v>
       </c>
-      <c r="F27" s="119"/>
-    </row>
-    <row r="28" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" s="124" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="127" t="s">
+      <c r="F27" s="136"/>
+    </row>
+    <row r="28" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="87" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128">
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="89">
         <f>F24-E26+E27</f>
         <v>115187500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F7:F14"/>
@@ -4637,6 +4647,15 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.21" top="0.46" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Hà Linh-Thanh Hóa/Hà Linh Thanh Hóa.xlsx
@@ -1043,64 +1043,23 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,9 +1070,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,36 +1148,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1642,54 +1642,54 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="113" t="s">
+      <c r="E5" s="118"/>
+      <c r="F5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="118"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1710,19 +1710,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="110">
+      <c r="A7" s="106">
         <v>638</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="108">
         <v>44048</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="106" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1740,11 +1740,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
@@ -1760,11 +1760,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="20" t="s">
         <v>16</v>
       </c>
@@ -1780,11 +1780,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
@@ -1800,11 +1800,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1820,11 +1820,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1840,11 +1840,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1860,19 +1860,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="103">
+      <c r="A14" s="123">
         <v>622</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="124">
         <v>44040</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="123" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -1890,11 +1890,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
@@ -1910,11 +1910,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1930,11 +1930,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1950,11 +1950,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="20" t="s">
         <v>21</v>
       </c>
@@ -1970,11 +1970,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="22" t="s">
         <v>22</v>
       </c>
@@ -1990,19 +1990,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
+      <c r="A20" s="127">
         <v>662</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="125">
         <v>44077</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="127" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -2020,11 +2020,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="20" t="s">
         <v>16</v>
       </c>
@@ -2040,11 +2040,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="20" t="s">
         <v>111</v>
       </c>
@@ -2060,11 +2060,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="49" t="s">
         <v>18</v>
       </c>
@@ -2080,19 +2080,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="110">
+      <c r="A24" s="106">
         <v>792</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="108">
         <v>44085</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="106" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="18" t="s">
@@ -2110,11 +2110,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
@@ -2130,19 +2130,19 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="110">
+      <c r="A26" s="106">
         <v>1234</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="108">
         <v>44150</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="106" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -2160,11 +2160,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2197,7 @@
         <f>SUM(I7:I27)</f>
         <v>279945000</v>
       </c>
-      <c r="N28" s="137">
+      <c r="N28" s="103">
         <f>I26+I27</f>
         <v>27660000</v>
       </c>
@@ -2212,55 +2212,55 @@
       <c r="G29" s="83"/>
       <c r="H29" s="84"/>
       <c r="I29" s="85"/>
-      <c r="N29" s="137">
+      <c r="N29" s="103">
         <f>I40+I39+I38</f>
         <v>32650000</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="137">
+      <c r="N30" s="103">
         <f>N29-N28</f>
         <v>4990000</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="33" spans="1:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="120" t="s">
+      <c r="D33" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="113" t="s">
+      <c r="E33" s="118"/>
+      <c r="F33" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="118"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
@@ -2311,19 +2311,19 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110">
+      <c r="A36" s="106">
         <v>815</v>
       </c>
-      <c r="B36" s="111">
+      <c r="B36" s="108">
         <v>44112</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="110" t="s">
+      <c r="E36" s="106" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="18" t="s">
@@ -2341,11 +2341,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="22" t="s">
         <v>15</v>
       </c>
@@ -2361,19 +2361,19 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="123">
+      <c r="A38" s="110">
         <v>1241</v>
       </c>
-      <c r="B38" s="125">
+      <c r="B38" s="112">
         <v>44153</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="123" t="s">
+      <c r="D38" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="123" t="s">
+      <c r="E38" s="110" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -2391,11 +2391,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="20" t="s">
         <v>21</v>
       </c>
@@ -2411,11 +2411,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="22" t="s">
         <v>20</v>
       </c>
@@ -2504,6 +2504,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
@@ -2520,40 +2554,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.25" top="0.75" bottom="0.66" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2580,14 +2580,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -4267,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,17 +4347,17 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="133"/>
       <c r="E7" s="81">
         <v>200000000</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="131">
         <f>SUM(E7:E14)</f>
         <v>250187500</v>
       </c>
@@ -4365,274 +4365,297 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="81">
         <v>6800000</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="135" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="81">
         <f>'SỮA NGOẠI'!F13+'SỮA NGOẠI'!F27+'SỮA NGOẠI'!F47+'SỮA NGOẠI'!F67+'SỮA NGOẠI'!F84-'SỮA NGOẠI'!F89</f>
         <v>40187500</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="135" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="81">
         <v>130000</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="135" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="81">
         <v>130000</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="81">
         <v>260000</v>
       </c>
-      <c r="F12" s="134"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="135" t="s">
+      <c r="B13" s="132"/>
+      <c r="C13" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="81">
         <v>1300000</v>
       </c>
-      <c r="F13" s="134"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="135" t="s">
+      <c r="B14" s="132"/>
+      <c r="C14" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="81">
         <v>1380000</v>
       </c>
-      <c r="F14" s="134"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="132">
+      <c r="C15" s="135">
         <v>44040</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="82">
         <v>5000000</v>
       </c>
-      <c r="F15" s="128">
-        <f>SUM(E15:E23)</f>
-        <v>95000000</v>
+      <c r="F15" s="136">
+        <f>SUM(E15:E24)</f>
+        <v>102000000</v>
       </c>
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="132">
+      <c r="B16" s="141"/>
+      <c r="C16" s="135">
         <v>44040</v>
       </c>
-      <c r="D16" s="132"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="82">
         <v>10000000</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="132">
+      <c r="B17" s="141"/>
+      <c r="C17" s="135">
         <v>44049</v>
       </c>
-      <c r="D17" s="132"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="82">
         <v>30000000</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="132">
+      <c r="B18" s="141"/>
+      <c r="C18" s="135">
         <v>44054</v>
       </c>
-      <c r="D18" s="132"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="82">
         <v>20000000</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="132">
+      <c r="B19" s="141"/>
+      <c r="C19" s="135">
         <v>44060</v>
       </c>
-      <c r="D19" s="132"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="82">
         <v>8000000</v>
       </c>
-      <c r="F19" s="129"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="132">
+      <c r="B20" s="141"/>
+      <c r="C20" s="135">
         <v>44068</v>
       </c>
-      <c r="D20" s="132"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="82">
         <v>10000000</v>
       </c>
-      <c r="F20" s="129"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="132">
+      <c r="B21" s="141"/>
+      <c r="C21" s="135">
         <v>44076</v>
       </c>
-      <c r="D21" s="132"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="82">
         <v>2000000</v>
       </c>
-      <c r="F21" s="129"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="132">
+      <c r="B22" s="141"/>
+      <c r="C22" s="135">
         <v>44085</v>
       </c>
-      <c r="D22" s="132"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="82">
         <v>3000000</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="137"/>
       <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="141"/>
-      <c r="C23" s="132">
+      <c r="C23" s="135">
         <v>44137</v>
       </c>
-      <c r="D23" s="132"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="82">
         <v>7000000</v>
       </c>
-      <c r="F23" s="130"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="135">
+        <v>44202</v>
+      </c>
+      <c r="D24" s="135"/>
+      <c r="E24" s="82">
+        <v>7000000</v>
+      </c>
+      <c r="F24" s="138"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="32">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="32">
         <f>F7-F15</f>
-        <v>155187500</v>
-      </c>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="26" spans="1:7" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="88">
-        <v>43982</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="74">
-        <v>50000000</v>
-      </c>
-      <c r="F26" s="136"/>
+        <v>148187500</v>
+      </c>
+      <c r="G25" s="27"/>
     </row>
     <row r="27" spans="1:7" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="88">
         <v>43982</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="74">
+        <v>50000000</v>
+      </c>
+      <c r="F27" s="134"/>
+    </row>
+    <row r="28" spans="1:7" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="88">
+        <v>43982</v>
+      </c>
+      <c r="C28" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="74">
+      <c r="D28" s="139"/>
+      <c r="E28" s="74">
         <v>10000000</v>
       </c>
-      <c r="F27" s="136"/>
-    </row>
-    <row r="28" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" s="87" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="133" t="s">
+      <c r="F28" s="134"/>
+    </row>
+    <row r="29" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" s="87" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="89">
-        <f>F24-E26+E27</f>
-        <v>115187500</v>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="89">
+        <f>F25-E27+E28</f>
+        <v>108187500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="C29:E29"/>
+  <mergeCells count="26">
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C7:D7"/>
@@ -4643,19 +4666,10 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.21" top="0.46" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
